--- a/win10.xlsx
+++ b/win10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumiya/Desktop/Work/2020/02/fresta/textdata-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D4844C-1324-D14B-92F1-6EDC88DF189A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBA4525-6826-5649-B2DE-5B7FCFCBE1A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="23000" windowHeight="21680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23000" windowHeight="21680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -44,17 +44,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>FRESTA-TEXT-2019 Win10</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Widows10編&lt;/h3&gt;
-2019年4月&lt;br&gt;
- 広島大学 情報メディア教育研究センター&lt;br&gt;
- 広島大学 消費生活協同組合 
- </t>
   </si>
   <si>
     <t xml:space="preserve">必携PC初期講習会では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。本日おこなうことを以下にあげます。
@@ -998,6 +988,18 @@
 表示されるウィンドウの左の「PC」をクリックしてください。
 すると、左図のように「ローカルディスク (C:)」というラベルとともに、HDD/SSDの空き容量と全容量が表示されます。この場合は117GB（ギガバイト）です。
   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Win10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;Widows10編&lt;/h3&gt;
+2020年4月&lt;br&gt;
+ 広島大学 情報メディア教育研究センター&lt;br&gt;
+ 広島大学 消費生活協同組合 
+ </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1386,7 +1388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1417,35 +1421,35 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1470,10 +1474,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1481,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1489,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1497,203 +1501,203 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="90">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="90">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="105">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1706,7 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1720,10 +1724,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1731,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1739,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1747,147 +1751,147 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="120">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="90">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="210">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="180">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="90">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1912,10 +1916,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1923,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1931,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1939,209 +1943,209 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="150">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="210">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="105">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="60">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2166,10 +2170,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -2177,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -2185,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -2193,147 +2197,147 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="135">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="105">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="75">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="90">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="75">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="165">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2358,10 +2362,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -2369,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -2377,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -2385,274 +2389,274 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="165">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="90">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="75">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="105">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="90">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="120">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="75">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="105">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2677,10 +2681,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -2688,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -2696,7 +2700,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -2704,508 +2708,508 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="300">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="75">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
         <v>170</v>
-      </c>
-      <c r="C16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="105">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="75">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="B26" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="60">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="255">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="120">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="45">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="60">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="180">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="B39" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="120">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="45">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="120">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3233,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -3241,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -3249,45 +3253,45 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="240">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumiya/Desktop/Work/2020/02/fresta/textdata-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBA4525-6826-5649-B2DE-5B7FCFCBE1A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B0E14E-E196-DE47-B26B-B386E35C782B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="23000" windowHeight="21680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13300" yWindow="1220" windowWidth="23000" windowHeight="21680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,6 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">必携PC初期講習会では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。本日おこなうことを以下にあげます。
-  </t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -1000,6 +996,17 @@
  広島大学 情報メディア教育研究センター&lt;br&gt;
  広島大学 消費生活協同組合 
  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">必携PC初期講習会では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。本日おこなうことを以下にあげます。おおむね90分くらいかかると思います。頑張ってください。
+  </t>
+    <rPh sb="73" eb="74">
+      <t>フンクライ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ガンバッテ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1389,7 +1396,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1421,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75">
@@ -1429,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1443,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1474,10 +1481,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1485,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1493,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1501,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60">
@@ -1509,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1523,13 +1530,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45">
@@ -1537,13 +1544,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
@@ -1551,13 +1558,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
@@ -1565,13 +1572,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
@@ -1579,13 +1586,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="90">
@@ -1593,13 +1600,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60">
@@ -1607,13 +1614,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60">
@@ -1621,13 +1628,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="90">
@@ -1635,13 +1642,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30">
@@ -1649,13 +1656,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30">
@@ -1663,13 +1670,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="105">
@@ -1677,13 +1684,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
@@ -1691,13 +1698,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1724,10 +1731,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1735,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1743,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1751,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="120">
@@ -1759,7 +1766,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1773,13 +1780,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="210">
@@ -1787,13 +1794,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105">
@@ -1801,13 +1808,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="180">
@@ -1815,21 +1822,21 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="90">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1843,13 +1850,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
@@ -1857,13 +1864,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
@@ -1871,13 +1878,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60">
@@ -1885,13 +1892,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1916,10 +1923,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1927,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1935,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1943,7 +1950,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="150">
@@ -1951,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1962,7 +1969,7 @@
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="210">
@@ -1970,7 +1977,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1981,7 +1988,7 @@
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
@@ -1989,13 +1996,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45">
@@ -2003,13 +2010,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30">
@@ -2017,13 +2024,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75">
@@ -2031,13 +2038,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
@@ -2045,18 +2052,18 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="105">
@@ -2064,13 +2071,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45">
@@ -2078,13 +2085,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
@@ -2092,13 +2099,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
         <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
@@ -2106,18 +2113,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
         <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="60">
@@ -2125,13 +2132,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60">
@@ -2139,13 +2146,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>89</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2170,10 +2177,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -2181,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -2189,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -2197,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60">
@@ -2205,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2219,13 +2226,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="105">
@@ -2233,13 +2240,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="75">
@@ -2247,13 +2254,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45">
@@ -2261,13 +2268,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105">
@@ -2275,13 +2282,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="90">
@@ -2289,13 +2296,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
@@ -2303,21 +2310,21 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
         <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="75">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2331,13 +2338,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
         <v>110</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2362,10 +2369,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -2373,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -2381,7 +2388,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -2389,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="165">
@@ -2397,7 +2404,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2408,7 +2415,7 @@
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
@@ -2416,13 +2423,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
@@ -2430,13 +2437,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>119</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
@@ -2444,13 +2451,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="90">
@@ -2458,13 +2465,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>123</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60">
@@ -2472,18 +2479,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>125</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="75">
@@ -2491,13 +2498,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>128</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30">
@@ -2505,13 +2512,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>130</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="105">
@@ -2519,13 +2526,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>132</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60">
@@ -2533,13 +2540,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>134</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="90">
@@ -2547,13 +2554,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>136</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="120">
@@ -2561,18 +2568,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>138</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="75">
@@ -2580,13 +2587,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>141</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45">
@@ -2594,13 +2601,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>143</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60">
@@ -2608,13 +2615,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>145</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
@@ -2622,13 +2629,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>147</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45">
@@ -2636,13 +2643,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>149</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="105">
@@ -2650,13 +2657,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>151</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2681,10 +2688,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -2692,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -2700,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -2708,7 +2715,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="300">
@@ -2716,7 +2723,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2727,7 +2734,7 @@
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -2749,13 +2756,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>158</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45">
@@ -2763,18 +2770,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>160</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -2796,13 +2803,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>163</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
@@ -2810,13 +2817,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>165</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="75">
@@ -2824,7 +2831,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2838,13 +2845,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
         <v>168</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>169</v>
-      </c>
-      <c r="D16" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30">
@@ -2852,13 +2859,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" t="s">
         <v>171</v>
-      </c>
-      <c r="C17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="105">
@@ -2866,13 +2873,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>173</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45">
@@ -2880,13 +2887,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>175</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60">
@@ -2894,18 +2901,18 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>177</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="B21" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -2927,13 +2934,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>180</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="75">
@@ -2941,13 +2948,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>182</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
@@ -2955,18 +2962,18 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>184</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="B26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
@@ -2988,13 +2995,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>187</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30">
@@ -3002,13 +3009,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>189</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60">
@@ -3016,13 +3023,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>191</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45">
@@ -3030,13 +3037,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>193</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="255">
@@ -3044,13 +3051,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>195</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="120">
@@ -3058,13 +3065,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>197</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45">
@@ -3072,13 +3079,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>199</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="45">
@@ -3086,13 +3093,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>201</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="60">
@@ -3100,13 +3107,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>203</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45">
@@ -3114,13 +3121,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>205</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="180">
@@ -3128,18 +3135,18 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>207</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="B39" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
@@ -3147,7 +3154,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3161,13 +3168,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
         <v>211</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="45">
@@ -3175,13 +3182,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
         <v>213</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="120">
@@ -3189,13 +3196,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
         <v>215</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105">
@@ -3203,13 +3210,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
         <v>217</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3237,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -3245,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -3253,7 +3260,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -3261,7 +3268,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3272,12 +3279,12 @@
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="240">
@@ -3285,7 +3292,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165924B4-262B-4FDD-9CBF-143CDD995736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A1D9C3-243D-45F3-8BDD-788976693B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38205" yWindow="2130" windowWidth="17310" windowHeight="9405" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40680" yWindow="90" windowWidth="13575" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="ch0" sheetId="2" r:id="rId2"/>
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
-    <sheet name="ch2" sheetId="4" r:id="rId4"/>
-    <sheet name="ch3" sheetId="5" r:id="rId5"/>
+    <sheet name="ch2" sheetId="5" r:id="rId4"/>
+    <sheet name="ch3" sheetId="4" r:id="rId5"/>
     <sheet name="ch4" sheetId="6" r:id="rId6"/>
     <sheet name="ch5" sheetId="7" r:id="rId7"/>
     <sheet name="ch6" sheetId="8" r:id="rId8"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="239">
   <si>
     <t>header1</t>
   </si>
@@ -84,41 +84,16 @@
     <t>win10-0-01.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Windows10に入っている、助手役アプリの「コルタナ」が自己紹介をします。以降コルタナの音声ガイドがあるのですがちょっと五月蝿いので画面左下のマイクアイコンをクリックして黙ってもらいましょう。
-  </t>
-  </si>
-  <si>
     <t>win10-0-02.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">現在いる地域を選びます。日本ですね。これは、時間帯などを設定するための情報として使われます。
-  </t>
-  </si>
-  <si>
     <t>win10-0-03.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">キーボードについての質問に答えます。追加のレイアウトはないので、「スキップ」としましょう。
-  </t>
-  </si>
-  <si>
     <t>win10-0-04.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">ネットワークに接続するための画面がでます。あとで設定しますので、ここでは「今はスキップ」をクリックし、何もせずに飛ばします。
-  </t>
-  </si>
-  <si>
     <t>win10-0-06.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows のソフトウェア・ライセンス条項が表示されます。
-ここには、みなさんがどういう条件でWindows を利用できるかということが細かく書かれています。内容を確認して「同意する」をクリックしてください。
-※ この内容は、「設定」→「システム」→「バージョン情報」の画面で「マイクロソフトライセンス条項を読む」をクリックすると、いつでも読めます。
-  </t>
-  </si>
-  <si>
-    <t>win10-0-05.svg</t>
   </si>
   <si>
     <t xml:space="preserve">PCを使うときのユーザ名を記入します。自分で使いやすいものをきめてください。
@@ -137,15 +112,6 @@
     <t>win10-0-08.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">「パスワードのヒント」を入力するように促されます。これは、パスワードを忘れてしまった時に、そのヒントとなるような文言を入れておく機能です。
-思い出すのに役にたつかもしれませんが、　このPCに触れる人なら誰でもこのヒントが見られてしまいますので、あなたのパスワードが漏れる危険性を大きくするものです。あまり良い機能ではありません。
-何か記入をしないと次に進めないので、適当に無意味な文字列を入れておきましょう。
-  </t>
-  </si>
-  <si>
-    <t>win10-0-09.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">顔認証は結構面白くて便利ですが、設定に少し時間かかりますので今はスキップしておきましょう。
   </t>
   </si>
@@ -153,28 +119,7 @@
     <t>win10-0-10.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">コルタナの利用も、今の所は「いいえ」としておきます。後から使うように変更できます。
-  </t>
-  </si>
-  <si>
-    <t>win10-0-11.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「デバイスのプライバシー設定の選択」では、あなたのプライバシー情報がMicrosoftのサーバなどに送られる可能性がある機能のオン／オフを設定します。
-本来は、利便性とプライバシーを比較して各個人で決定するものです。
-Microsoftは全部をオンにすることを勧めていますが、「音声認識」と「位置情報」以外の五つは利用者にとってそれほどメリットがあるものではないので、オフにしておいたら良いでしょう。
-「同意」をクリックします。これで設定項目は終了です。しばらく待ちましょう。
-  </t>
-  </si>
-  <si>
     <t>win10-0-12.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数分待つと、Windows10のデスクトップ画面が出てきます。
-  </t>
-  </si>
-  <si>
-    <t>win10-0-13.svg</t>
   </si>
   <si>
     <t xml:space="preserve">自分のパソコンの基本的なスペックを確認しておきましょう。CPUの型式、OSのビット数、記憶容量など。 </t>
@@ -216,16 +161,6 @@
     <t>win10-1-03.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">最後にバッテリー駆動時間を確認しましょう。
-画面下のタスクバーのバッテリーアイコンをクリックしてください。すると、バッテリー残量がパーセント表示され、およそあと何時間利用できるかの推定値が表示されます。
-100%充電時のここの残り時間表示が、あなたのPCのバッテリー駆動時間の推定値ということになります。（例：80%で「残り6時間」であれば、6÷0.8=7.5なので、バッテリー駆動時間は7.5時間）&lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-&lt;div class="spl"&gt;※ 残り時間は、システム起動後ある程度時間が経過し、しかも使用状況が安定した状態でないと表示されないようです。
-時間を置いて何度か試してみても表示されないようであれば、カタログなどで仕様を確認して記入してください。
- &lt;/div&gt;
-  </t>
-  </si>
-  <si>
     <t>win10-1-04.svg</t>
   </si>
   <si>
@@ -244,10 +179,6 @@
   </si>
   <si>
     <t>win10-1-12.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左メニューから「地域と言語」をクリックしてください。
- 真ん中の「言語」から「日本語」をクリックしてください。 その後表示される「オプション」をクリックしてください。   </t>
   </si>
   <si>
     <t>win10-1-13.svg</t>
@@ -280,20 +211,6 @@
     <t>&lt;h2&gt;この章を始める前に&lt;/h2&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">この章では、初期講習会の会場で配布されるUSBメモリの使用を前提に説明しています。
-講習会に参加できなかった方が以降の作業を行いたい場合は、以下のいずれかをしてください。
-&lt;ol&gt;&lt;li&gt;メディアセンターのカウンターに行ってUSBメモリを借り、この章の説明にしたがって行う。&lt;/li&gt;
-&lt;li&gt;Web上の配布サイトから直接ダウンロードしてインストールし、次の章に進む。 ※ 以下のサイトの説明に従ってください。開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
-&lt;ul&gt;&lt;li&gt;&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2013Pro.html"&gt;Office&lt;/a&gt;
- &lt;/li&gt;
-&lt;li&gt;&lt;a href="https://www.google.com/chrome/"&gt;Chrome（Webブラウザ）&lt;/a&gt;
- &lt;/li&gt;
-&lt;/ul&gt;
- &lt;/li&gt;
- &lt;/ol&gt;
- </t>
-  </si>
-  <si>
     <t>&lt;h2&gt;&lt;a name="copy"&gt;&lt;/a&gt;USBメモリからファイルをコピーする&lt;/h2&gt;</t>
   </si>
   <si>
@@ -334,10 +251,6 @@
     <t>win10-2-06.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">プログラムをインストールするときは、文書を作成するなどの通常の利用とは違う場所にファイルを作成しますので、このような警告が表示されます。「はい」をクリックしてください。
-  </t>
-  </si>
-  <si>
     <t>win10-2-07.svg</t>
   </si>
   <si>
@@ -358,17 +271,7 @@
     <t>&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;Chromeを入れる&lt;/h2&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">次にGoogle Chromeを入れます。USBメモリからコピーしたWindowsフォルダにある &amp;quot;ChromeStandaloneSetup64&amp;quot;をダブルクリックして開いください。
-「このアプリがデバイスに変更を加えることを許可しますか」と聞かれるので「はい」と答えてください。
-  </t>
-  </si>
-  <si>
     <t>win10-2-10.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chromeのインストールはあっという間に終わります。
-&lt;p class="spl"&gt;※ Windows10にはEdgeというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページがときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;
-  </t>
   </si>
   <si>
     <t>win10-2-11.svg</t>
@@ -428,13 +331,6 @@
   </si>
   <si>
     <t>win10-4-05.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この画面になったら「接続」をクリックしてください。
-これで接続の設定が完了しました。
-接続が完了すると「接続済み」と表示されます。&lt;span class="check"&gt;check-4&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-   </t>
   </si>
   <si>
     <t>win10-4-06.svg</t>
@@ -508,13 +404,6 @@
     <t>win10-5-03.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">ウィルス対策ソフトのDefenderを含めて、Windows基本システムは定期的に自動更新されます。
-このウィンドウの上の方で更新状況が確認できます。&lt;span class="check"&gt;check-5&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-さらに、Officeも自動更新するように設定しましょう。「詳細オプション」をクリックしてください。
-  </t>
-  </si>
-  <si>
     <t>win10-5-04.svg</t>
   </si>
   <si>
@@ -615,13 +504,6 @@
   </si>
   <si>
     <t>win10-5-16.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「しばらくお待ちください」と言う旨のメッセージが表示され、処理が完了すると「準備が完了しました！」となります。「完了」をクリックしてください。
-これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-9&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-以上でこの章の作業は終了です。
-  </t>
   </si>
   <si>
     <t>win10-5-17.svg</t>
@@ -850,13 +732,6 @@
   <si>
     <t xml:space="preserve">以降は補足情報であり、講習会のときに設定しません。後日必要に応じて行ってください。
  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">まず、大学のプリンタへの印刷について。
-学内ネットワークからであれば、必携PCから大学のプリンタへ印刷できます。印刷したいものをPDFで用意し、Webブラウザで印刷用のWebサーバに送ります。そのあと、プリンタが設置してあるところに行って、印刷操作をしてください。その際、印刷料金がかかります。白黒印刷は1枚3円、カラー印刷は1枚12円です。MYple（学生証にチャージする生協の電子マネー）で支払ってください。 
-詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/print/webprint"&gt;「Webプリントサービス」&lt;/a&gt;
-で。
-  </t>
   </si>
   <si>
     <t>win10-6-24.svg</t>
@@ -960,14 +835,6 @@
   <si>
     <t xml:space="preserve">FIRST LECというウィンドウが開きます。その中に入っている「setup2020-win10」というフォルダをデスクトップにドラッグしてコピーしましょう。
 ※ コピーをするには、フォルダを選択してcontrol-C （コピー）、デスクトップをクリックして control-V （貼り付け）する方法もあります。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">三種類の高度なスキャンがありますね。「フルスキャン」を選んで「今すぐスキャン」とすると、フルスキャンが実施されます。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-実施には数時間かかりますので、講習会会場では実施しないでください。講習会終了後、できるだけ早く実施し、点検届を完成させてください。
-右上の×をクリックして、ウィンドウを閉じましょう。
   </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1024,32 +891,568 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2019 Win10 chap.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2019 Win10 chap.4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">installはこの初期講習会用にメディアセンターで作成したプログラムなので、このような警告が表示されます。「実行」をクリックしてください。
-  </t>
-    <rPh sb="10" eb="12">
+    <t xml:space="preserve">この章では、初期講習会の会場で配布されるUSBメモリの使用を前提に説明しています。
+講習会に参加できなかった方が以降の作業を行いたい場合は、以下のいずれかをしてください。
+&lt;ol&gt;&lt;li&gt;メディアセンターのカウンターに行ってUSBメモリを借り、この章の説明にしたがって行う。&lt;/li&gt;
+&lt;li&gt;Web上の配布サイトから直接ダウンロードしてインストールし、次の章に進む。 ※ 以下のサイトの説明に従ってください。開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
+&lt;ul&gt;&lt;li&gt;&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2013Pro.html"&gt;Office&lt;/a&gt;
+ &lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.google.com/chrome/"&gt;Chrome（Webブラウザ）&lt;/a&gt;
+ &lt;/li&gt;
+&lt;/ul&gt;
+ &lt;/li&gt;
+ &lt;/ol&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">プログラムをインストールするときは、文書を作成するなどの通常の利用とは違う場所にファイルを作成しますので、このような警告が表示されます。「はい」をクリックしてください。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">まず、大学のプリンタへの印刷について。
+学内ネットワークからであれば、必携PCから大学のプリンタへ印刷できます。印刷したいものをPDFで用意し、Webブラウザで印刷用のWebサーバに送ります。そのあと、プリンタが設置してあるところに行って、印刷操作をしてください。その際、印刷料金がかかります。白黒印刷は1枚4円、カラー印刷は1枚13円です。MYple（学生証にチャージする生協の電子マネー）で支払ってください。 
+詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/print/webprint"&gt;「Webプリントサービス」&lt;/a&gt;
+で。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「インターネットに接続すると、・・・」と再度確認の画面が出ます。左下の「制限された設定で続行する」をクリックして飛ばします。</t>
+    <rPh sb="9" eb="11">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ゾッコウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">住んでいる地域を選びますが、その前に音声が出るのがちょっとうるさいので画面左下のマイクアイコンをクリックして黙ってもらいましょう。
+  </t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">キーボードレイアウトについての質問に答えます。「Microsoft IME」になっていることを確認して、「ok」をクリックしましょう。
+  </t>
+    <rPh sb="47" eb="49">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">キーボードレイアウトの追加についての質問に答えます。追加のレイアウトはないので、「スキップ」としましょう。
+  </t>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">現在いる地域を選びます。日本ですね。これは、時間帯などを設定するための情報として使われます。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワードの確認」として、先ほど決めたパスワードをもう一度入力します。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「デジタルアシスタントの利用」も、今の所は「拒否」としておきます。後から使うように変更できます。
+  </t>
+    <rPh sb="22" eb="24">
+      <t>キョヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アクティビティの履歴を利用して・・・」というのはスマホなどの機器でMicrosoft製品を使うときに利用履歴を共有する機能です。今の所は「いいえ」としておきます。後から使うように変更できます。</t>
+    <rPh sb="9" eb="11">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「デバイスのプライバシー設定の選択」では、あなたのプライバシー情報がMicrosoftのサーバなどに送られる可能性がある機能のオン／オフを設定します。
+本来は、利便性とプライバシーを比較して各個人で決定するものです。
+Microsoftは全部をオンにすることを勧めていますが、「音声認識」と「位置情報」以外の五つは利用者にとってそれほどメリットがあるものではないので、オフにしておいたら良いでしょう。
+「同意」をクリックします。これで設定項目は終了です。しばらく待ちましょう。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「このアカウントのセキュリティの質問」を作成するように促されます。これは、パスワードを忘れてしまった時に、代わりになる質問を入れておく機能です。
+しかしこのPCに触れる人なら誰でもこの質問を使ってログインできてしまうので、あなたのPCが乗っ取られる危険性を大きくするものです。あまり良い機能ではありません。
+何か記入をしないと次に進めないので、あえて質問とは関係のない答を入れるのがおススメです。
+  </t>
+    <rPh sb="16" eb="18">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Windows 10の使用許諾契約が表示されます。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ここには、みなさんがどういう条件でWindows を利用できるかということが細かく書かれています。内容を確認して「同意」をクリックしてください。
+※ この内容は、「設定」→「システム」→「バージョン情報」の画面で「マイクロソフトライセンス条項を読む」をクリックすると、いつでも読めます。
+  </t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ネットワークに接続するための画面がでます。あとで設定しますので、ここでは左下の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「インターネットに接続していません」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">をクリックし、何もせずに飛ばします。
+  </t>
+    </r>
+    <rPh sb="36" eb="38">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>数分待つと、Windows10のデスクトップ画面が出てきます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microsoft Teamsのアカウント入力が画面に出ますが、とりあえず左上の×マークをクリックして画面から消しましょう。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <rPh sb="52" eb="54">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最後にバッテリー駆動時間を確認しましょう。
+画面下のタスクバーのバッテリーアイコンをクリックしてください。すると、バッテリー残量がパーセント表示され、およそあと何時間利用できるかの推定値が表示されます。
+100%充電時のここの残り時間表示が、あなたのPCのバッテリー駆動時間の推定値ということになります。（例：80%で「残り6時間」であれば、6÷0.8=7.5なので、バッテリー駆動時間は7.5時間）
+&lt;div class="spl"&gt;※ 残り時間は、システム起動後ある程度時間が経過し、しかも使用状況が安定した状態でないと表示されないようです。
+時間を置いて何度か試してみても表示されないようであれば、カタログなどで仕様を確認して記入してください。
+ &lt;/div&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">左メニューから「地域と言語」をクリックしてください。
+ 真ん中の「優先する言語」から「日本語」をクリックしてください。 その後表示される「オプション」をクリックしてください。   </t>
+    <rPh sb="33" eb="35">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>この画面になったら「接続」をクリックしてください。
+これで接続の設定が完了しました。
+接続が完了すると「接続済み」と表示されます。&lt;span class="check"&gt;check-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+   </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワークに接続した時点で、「Windowsをよりいっそう活用できるようになります」という画面が出ることがあります。これは初期設定のときにスキップした設定をするところですが、ここでは左下の「今はスキップ」をクリックしてください。ここで行う設定は後でできます。</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
       <t>ショキ</t>
     </rPh>
-    <rPh sb="12" eb="15">
-      <t>コウシュウカイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-21.svg</t>
+    <rPh sb="64" eb="66">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Win10 chap.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Chromeのインストールはあっという間に終わります。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自動的にChromeが起動して初期設定を行うよう促してきますが、ここでは左上の×をクリックして閉じてください。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;p class="spl"&gt;※ Windows10にはEdgeというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページがときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;
+  </t>
+    </r>
+    <rPh sb="27" eb="30">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次にGoogle Chromeを入れます。USBメモリからコピーしたWindowsフォルダにある &amp;quot;ChromeStandaloneSetup64&amp;quot;をダブルクリックして開いてください。
+「このアプリがデバイスに変更を加えることを許可しますか」と聞かれるので「はい」と答えてください。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ウィルス対策ソフトのDefenderを含めて、Windows基本システムは定期的に自動更新されます。
+このウィンドウの上の方で更新状況が確認できます。&lt;span class="check"&gt;check-4&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+さらに、Officeも自動更新するように設定しましょう。「詳細オプション」をクリックしてください。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三種類の高度なスキャンがありますね。「フルスキャン」を選んで「今すぐスキャン」とすると、フルスキャンが実施されます。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+実施には数時間かかりますので、講習会会場では実施しないでください。講習会終了後、できるだけ早く実施し、点検届を完成させてください。
+右上の×をクリックして、ウィンドウを閉じましょう。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「しばらくお待ちください」と言う旨のメッセージが表示され、処理が完了すると「準備が完了しました！」となります。「完了」をクリックしてください。
+これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+以上でこの章の作業は終了です。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-13a.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-11.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-21.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-11a.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-25.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-24.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-23.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-05a.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-22.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1057,7 +1460,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,18 +1477,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1100,15 +1525,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1482,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1490,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1504,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1521,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1564,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1599,14 +2033,14 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
+      <c r="B8" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1614,139 +2048,121 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
+      <c r="B11" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
+      <c r="B14" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
+      <c r="B18" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1754,13 +2170,63 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1774,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1791,7 +2257,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1799,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1815,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1823,7 +2289,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1837,13 +2303,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
@@ -1851,13 +2317,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -1865,35 +2331,35 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="156" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1907,13 +2373,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1921,27 +2387,27 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
+      <c r="B14" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1949,13 +2415,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1965,11 +2431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1985,7 +2451,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1993,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2009,15 +2475,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2026,214 +2492,153 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A7" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2249,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2257,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2273,15 +2678,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2290,135 +2695,198 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="143" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>104</v>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2426,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2443,7 +2911,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2451,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2467,7 +2935,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2475,7 +2943,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2486,7 +2954,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2494,13 +2962,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2508,13 +2976,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2522,13 +2990,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2536,13 +3004,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2550,18 +3018,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2569,13 +3037,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2583,13 +3051,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2597,13 +3065,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2611,13 +3079,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2625,13 +3093,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2639,18 +3107,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2658,13 +3126,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2672,13 +3140,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2686,13 +3154,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2700,13 +3168,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2714,13 +3182,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2728,13 +3196,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2748,7 +3216,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2764,7 +3232,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2772,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2788,7 +3256,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -2796,7 +3264,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2807,7 +3275,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2829,13 +3297,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2843,18 +3311,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2876,13 +3344,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2890,13 +3358,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2904,7 +3372,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2918,13 +3386,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2932,13 +3400,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2946,13 +3414,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2960,13 +3428,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2974,18 +3442,18 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3007,13 +3475,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3021,13 +3489,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3035,18 +3503,18 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3068,13 +3536,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3082,13 +3550,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3096,13 +3564,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3110,13 +3578,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3124,13 +3592,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3138,13 +3606,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3152,13 +3620,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3166,13 +3634,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3180,13 +3648,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3194,13 +3662,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="169" x14ac:dyDescent="0.2">
@@ -3208,18 +3676,18 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3227,7 +3695,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3240,14 +3708,14 @@
       <c r="A41" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>199</v>
+      <c r="B41" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
-      <c r="D41" t="s">
-        <v>200</v>
+      <c r="D41" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3255,13 +3723,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3269,13 +3737,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3283,13 +3751,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3303,7 +3771,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3319,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3335,7 +3803,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3343,7 +3811,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3354,12 +3822,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -3367,7 +3835,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A1D9C3-243D-45F3-8BDD-788976693B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DC2FF6-B32B-48A0-BC5B-E6F975F9FE4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40680" yWindow="90" windowWidth="13575" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,11 +69,6 @@
     <t>fresta</t>
   </si>
   <si>
-    <t xml:space="preserve">Surfaceの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとは概ね言われるままにしていけば大丈夫です。
-すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。
- </t>
-  </si>
-  <si>
     <t xml:space="preserve">Windowsで使用する言語を選びます。「日本語」をクリックしてください。
   </t>
   </si>
@@ -920,324 +915,6 @@
 詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/print/webprint"&gt;「Webプリントサービス」&lt;/a&gt;
 で。
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「インターネットに接続すると、・・・」と再度確認の画面が出ます。左下の「制限された設定で続行する」をクリックして飛ばします。</t>
-    <rPh sb="9" eb="11">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ゾッコウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">住んでいる地域を選びますが、その前に音声が出るのがちょっとうるさいので画面左下のマイクアイコンをクリックして黙ってもらいましょう。
-  </t>
-    <rPh sb="0" eb="1">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チイキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>オンセイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">キーボードレイアウトについての質問に答えます。「Microsoft IME」になっていることを確認して、「ok」をクリックしましょう。
-  </t>
-    <rPh sb="47" eb="49">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">キーボードレイアウトの追加についての質問に答えます。追加のレイアウトはないので、「スキップ」としましょう。
-  </t>
-    <rPh sb="11" eb="13">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">現在いる地域を選びます。日本ですね。これは、時間帯などを設定するための情報として使われます。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワードの確認」として、先ほど決めたパスワードをもう一度入力します。</t>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「デジタルアシスタントの利用」も、今の所は「拒否」としておきます。後から使うように変更できます。
-  </t>
-    <rPh sb="22" eb="24">
-      <t>キョヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アクティビティの履歴を利用して・・・」というのはスマホなどの機器でMicrosoft製品を使うときに利用履歴を共有する機能です。今の所は「いいえ」としておきます。後から使うように変更できます。</t>
-    <rPh sb="9" eb="11">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>トコロ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「デバイスのプライバシー設定の選択」では、あなたのプライバシー情報がMicrosoftのサーバなどに送られる可能性がある機能のオン／オフを設定します。
-本来は、利便性とプライバシーを比較して各個人で決定するものです。
-Microsoftは全部をオンにすることを勧めていますが、「音声認識」と「位置情報」以外の五つは利用者にとってそれほどメリットがあるものではないので、オフにしておいたら良いでしょう。
-「同意」をクリックします。これで設定項目は終了です。しばらく待ちましょう。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「このアカウントのセキュリティの質問」を作成するように促されます。これは、パスワードを忘れてしまった時に、代わりになる質問を入れておく機能です。
-しかしこのPCに触れる人なら誰でもこの質問を使ってログインできてしまうので、あなたのPCが乗っ取られる危険性を大きくするものです。あまり良い機能ではありません。
-何か記入をしないと次に進めないので、あえて質問とは関係のない答を入れるのがおススメです。
-  </t>
-    <rPh sb="16" eb="18">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Windows 10の使用許諾契約が表示されます。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ここには、みなさんがどういう条件でWindows を利用できるかということが細かく書かれています。内容を確認して「同意」をクリックしてください。
-※ この内容は、「設定」→「システム」→「バージョン情報」の画面で「マイクロソフトライセンス条項を読む」をクリックすると、いつでも読めます。
-  </t>
-    </r>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キョダク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケイヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>ネットワークに接続するための画面がでます。あとで設定しますので、ここでは左下の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>「インターネットに接続していません」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">をクリックし、何もせずに飛ばします。
-  </t>
-    </r>
-    <rPh sb="36" eb="38">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>数分待つと、Windows10のデスクトップ画面が出てきます。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Microsoft Teamsのアカウント入力が画面に出ますが、とりあえず左上の×マークをクリックして画面から消しましょう。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <rPh sb="52" eb="54">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ヒダリウエ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>ケ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1455,12 +1132,73 @@
     <t>win10-0-22.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>「アクティビティの履歴を利用して・・・」というのはスマホなどの機器でMicrosoft製品を使うときに利用履歴を共有する機能です。今の所は「いいえ」としておきます。後から使うように変更できます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住んでいる地域を選びますが、その前に音声が出るのがちょっとうるさいので画面左下のマイクアイコンをクリックして黙ってもらいましょう。
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">現在いる地域を選びます。日本ですね。これは、時間帯などを設定するための情報として使われます。
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">キーボードレイアウトについての質問に答えます。「Microsoft IME」になっていることを確認して、「ok」をクリックしましょう。
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">キーボードレイアウトの追加についての質問に答えます。追加のレイアウトはないので、「スキップ」としましょう。
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワークに接続するための画面がでます。あとで設定しますので、ここでは左下の「インターネットに接続していません」をクリックし、何もせずに飛ばします。
+  </t>
+  </si>
+  <si>
+    <t>「インターネットに接続すると、・・・」と再度確認の画面が出ます。左下の「制限された設定で続行する」をクリックして飛ばします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 10の使用許諾契約が表示されます。
+ここには、みなさんがどういう条件でWindows を利用できるかということが細かく書かれています。内容を確認して「同意」をクリックしてください。
+※ この内容は、「設定」→「システム」→「バージョン情報」の画面で「マイクロソフトライセンス条項を読む」をクリックすると、いつでも読めます。
+  </t>
+  </si>
+  <si>
+    <t>「パスワードの確認」として、先ほど決めたパスワードをもう一度入力します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「このアカウントのセキュリティの質問」を作成するように促されます。これは、パスワードを忘れてしまった時に、代わりになる質問を入れておく機能です。
+しかしこのPCに触れる人なら誰でもこの質問を使ってログインできてしまうので、あなたのPCが乗っ取られる危険性を大きくするものです。あまり良い機能ではありません。
+何か記入をしないと次に進めないので、あえて質問とは関係のない答を入れるのがおススメです。
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">「デジタルアシスタントの利用」も、今の所は「拒否」としておきます。後から使うように変更できます。
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">「デバイスのプライバシー設定の選択」では、あなたのプライバシー情報がMicrosoftのサーバなどに送られる可能性がある機能のオン／オフを設定します。
+本来は、利便性とプライバシーを比較して各個人で決定するものです。
+Microsoftは全部をオンにすることを勧めていますが、「音声認識」と「位置情報」以外の五つは利用者にとってそれほどメリットがあるものではないので、オフにしておいたら良いでしょう。
+「同意」をクリックします。これで設定項目は終了です。しばらく待ちましょう。
+  </t>
+  </si>
+  <si>
+    <t>数分待つと、Windows10のデスクトップ画面が出てきます。Microsoft Teamsのアカウント入力が画面に出ますが、とりあえず左上の×マークをクリックして画面から消しましょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surfaceの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとは概ね言われるままにしていけば大丈夫です。
+すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1490,14 +1228,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1525,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1535,12 +1265,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1916,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1924,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1938,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1957,276 +1681,277 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1" phonetic="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1" phonetic="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1" phonetic="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1" phonetic="1"/>
+    <col min="5" max="16384" width="8.81640625" phonetic="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s" ph="1">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1" t="s" ph="1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s" ph="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1" t="s" ph="1">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s" ph="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1" t="s" ph="1">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B4" s="1" t="s" ph="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s" ph="1">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s" ph="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" ph="1">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s" ph="1">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s" ph="1">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" ph="1">
+        <v>226</v>
+      </c>
+      <c r="C8" t="s" ph="1">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s" ph="1">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="9" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" ph="1">
+        <v>227</v>
+      </c>
+      <c r="C9" t="s" ph="1">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" ph="1">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s" ph="1">
+        <v>228</v>
+      </c>
+      <c r="D10" t="s" ph="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" ph="1">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s" ph="1">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" ph="1">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" ph="1">
+        <v>230</v>
+      </c>
+      <c r="C12" t="s" ph="1">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" ph="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s" ph="1">
+        <v>231</v>
+      </c>
+      <c r="D13" t="s" ph="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s" ph="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C14" t="s" ph="1">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" ph="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s" ph="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s" ph="1">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" ph="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s" ph="1">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s" ph="1">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" ph="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s" ph="1">
+        <v>233</v>
+      </c>
+      <c r="D17" t="s" ph="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s" ph="1">
+        <v>234</v>
+      </c>
+      <c r="C18" t="s" ph="1">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" ph="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s" ph="1">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s" ph="1">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" ph="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s" ph="1">
+        <v>225</v>
+      </c>
+      <c r="D20" t="s" ph="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s" ph="1">
+        <v>235</v>
+      </c>
+      <c r="C21" t="s" ph="1">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" ph="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s" ph="1">
+        <v>236</v>
+      </c>
+      <c r="C22" t="s" ph="1">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" ph="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s" ph="1">
         <v>237</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="C23" t="s" ph="1">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" ph="1">
         <v>216</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2257,7 +1982,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2265,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2281,7 +2006,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2289,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2303,13 +2028,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
@@ -2317,13 +2042,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2331,13 +2056,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2345,21 +2070,21 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2373,13 +2098,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2387,13 +2112,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2401,13 +2126,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2415,13 +2140,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2176,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2459,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2475,7 +2200,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2483,7 +2208,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2497,13 +2222,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2511,13 +2236,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2525,13 +2250,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2539,13 +2264,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2553,13 +2278,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2567,21 +2292,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2589,21 +2314,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2617,13 +2342,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +2379,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2662,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2678,7 +2403,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
@@ -2686,7 +2411,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2697,7 +2422,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
@@ -2705,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2716,7 +2441,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2724,13 +2449,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2738,13 +2463,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2752,13 +2477,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2766,13 +2491,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2780,18 +2505,18 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2799,13 +2524,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2813,13 +2538,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2827,13 +2552,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2841,18 +2566,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2860,13 +2585,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2874,13 +2599,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2911,7 +2636,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2919,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2935,7 +2660,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2943,7 +2668,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2954,7 +2679,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2962,13 +2687,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2976,13 +2701,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2990,13 +2715,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -3004,13 +2729,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3018,18 +2743,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -3037,13 +2762,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>99</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3051,13 +2776,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>101</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3065,13 +2790,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3079,13 +2804,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -3093,13 +2818,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3107,18 +2832,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -3126,13 +2851,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>111</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3140,13 +2865,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>113</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3154,13 +2879,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>115</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3168,13 +2893,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>117</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3182,13 +2907,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>119</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3196,13 +2921,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3232,7 +2957,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3240,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3256,7 +2981,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3264,7 +2989,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3275,7 +3000,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3297,13 +3022,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>125</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3311,18 +3036,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>127</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3344,13 +3069,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>130</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3358,13 +3083,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>132</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3372,7 +3097,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3386,13 +3111,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
         <v>135</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>136</v>
-      </c>
-      <c r="D16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3400,13 +3125,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
         <v>138</v>
-      </c>
-      <c r="C17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3414,13 +3139,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>140</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3428,13 +3153,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>142</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3442,18 +3167,18 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>144</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3475,13 +3200,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>147</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3489,13 +3214,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>149</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3503,18 +3228,18 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>151</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3536,13 +3261,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>154</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3550,13 +3275,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>156</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3564,13 +3289,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>158</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3578,13 +3303,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>160</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3592,13 +3317,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>162</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3606,13 +3331,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3620,13 +3345,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>165</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3634,13 +3359,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>167</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3648,13 +3373,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>169</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3662,13 +3387,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>171</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="169" x14ac:dyDescent="0.2">
@@ -3676,18 +3401,18 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>173</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3695,7 +3420,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3709,13 +3434,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3723,13 +3448,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
         <v>178</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3737,13 +3462,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3751,13 +3476,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
         <v>181</v>
-      </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3787,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3803,7 +3528,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3811,7 +3536,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3822,12 +3547,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -3835,7 +3560,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DC2FF6-B32B-48A0-BC5B-E6F975F9FE4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46A51C7-D793-44A8-875C-8C05151A96D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40680" yWindow="90" windowWidth="13575" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40680" yWindow="90" windowWidth="13575" windowHeight="9645" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="238">
   <si>
     <t>header1</t>
   </si>
@@ -105,10 +105,6 @@
   </si>
   <si>
     <t>win10-0-08.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">顔認証は結構面白くて便利ですが、設定に少し時間かかりますので今はスキップしておきましょう。
-  </t>
   </si>
   <si>
     <t>win10-0-10.svg</t>
@@ -396,12 +392,6 @@
   </t>
   </si>
   <si>
-    <t>win10-5-03.svg</t>
-  </si>
-  <si>
-    <t>win10-5-04.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">「Windowsの更新時に他のMicrosoft製品の更新プログラムも入手します」にチェックを入れてください。これにより、Officeも自動更新されるようになります。
 画面左上の「←」をクリックして、前の画面に戻ってください。
   </t>
@@ -413,19 +403,8 @@
     <t>&lt;h2&gt;&lt;a name="defender"&gt;&lt;/a&gt;Defenderの手動更新とフルスキャン&lt;/h2&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">自動アップデートのタイミング以外にDefenderを更新する方法について説明します。Windowsの自動更新機能で、Defenderは最新状態にたもたれます。しかし、緊急の脆弱性が発表された場合など、すぐに更新した方が良い時もあります。
-ウィンドウ左のリストから「Windows セキュリティ」をクリックし、「Windows Defender セキュリティセンターを開きます」をクリックします。
-  </t>
-  </si>
-  <si>
-    <t>win10-5-06.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">「ウイルスと脅威の防止」をクリックしましょう。
   </t>
-  </si>
-  <si>
-    <t>win10-5-07.svg</t>
   </si>
   <si>
     <t xml:space="preserve">Defenderでは、ウイルスやスパイウェアその他の悪意を持つプログラム全般を「脅威」とし、それらを判別するルールを保存したファイルを「脅威の定義」と呼んでいます。
@@ -437,24 +416,7 @@
     <t>win10-5-08.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">この画面で「更新プログラムのチェック」をクリックすると、脅威の定義の新しいものが出ているか確認を行い、あればそれを入手します。普段は、定期的に自動で確認されているので、これを押す必要はありません。
-ウィンドウ左上の戻る矢印をクリックして前の画面に戻りましょう。
-  </t>
-  </si>
-  <si>
     <t>win10-5-09.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム全体のウイルスチェックを実施する方法を確認します。チェックには時間がかかりますので、講習会の会場では行わないでください。
-システム全体のウイルスチェックを「フルスキャン」と呼びます。それに対して「クイックスキャン」はよく攻撃される場所に限定して調査を行いますので、時間が短くて済みます。
-フルスキャンを行うには「新しい高度なスキャンを実行」をクリックしましょう。
-  </t>
-  </si>
-  <si>
-    <t>win10-5-10.svg</t>
-  </si>
-  <si>
-    <t>win10-5-11.svg</t>
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeのアクティベーション&lt;/h2&gt;</t>
@@ -470,35 +432,7 @@
     <t>win10-5-12.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">「同意してExcelを開始する」をクリックします。
-※この「同意する」は、ソフトウェアの使用許諾契約に同意することを意味します。
-  </t>
-  </si>
-  <si>
     <t>win10-5-13.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があります。
-右上の「サインインしてOffieを最大限に活用しましょう」をクリックしましょう。「Microsoft サインイン」というパネルが出ます。広大メールアドレス（b19xxxxx@hiroshima-u.ac.jp という形式）を記入し、「次へ」をクリックしてください。
-  </t>
-  </si>
-  <si>
-    <t>win10-5-14.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIROSHIMA UNIVERSITYと書かれたパネルが表示されます。広大パスワードを記入して「サインイン」をクリックします。
-  </t>
-  </si>
-  <si>
-    <t>win10-5-15.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「このアカウントをWindowsに追加しますか」と聞かれますので、「はい」と答えます。
-※ 追加しないと、Wordなど他のOfficeアプリケーションなどを起動した時にサインイン作業がまた必要になります。
-  </t>
-  </si>
-  <si>
-    <t>win10-5-16.svg</t>
   </si>
   <si>
     <t>win10-5-17.svg</t>
@@ -874,19 +808,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2019 Win10 conclusion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Microsoft Office365 ProPlus の正規版がすでに入っている場合には、ここを飛ばして&lt;a href="#chrome"&gt;[10]に進んでください&lt;/a&gt;
 。Office2013が入っている場合は、それをそのままにしてOffice 365を追加インストールすることができます。
 デスクトップにコピーした「setup2020-win10」というフォルダをダブルクリックして開きます。さらに中に「officepropluswin-jp」というフォルダがあるので、ダブルクリックして開きます。
 「install」という項目をダブルクリックして実行してください。
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2019 Win10 chap.4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -967,103 +893,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ネットワークに接続した時点で、「Windowsをよりいっそう活用できるようになります」という画面が出ることがあります。これは初期設定のときにスキップした設定をするところですが、ここでは左下の「今はスキップ」をクリックしてください。ここで行う設定は後でできます。</t>
-    <rPh sb="7" eb="9">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カツヨウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>アト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2020 Win10 chap.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>Chromeのインストールはあっという間に終わります。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>自動的にChromeが起動して初期設定を行うよう促してきますが、ここでは左上の×をクリックして閉じてください。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;p class="spl"&gt;※ Windows10にはEdgeというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページがときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;
-  </t>
-    </r>
-    <rPh sb="27" eb="30">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ウナガ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ヒダリウエ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ト</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1081,14 +911,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">三種類の高度なスキャンがありますね。「フルスキャン」を選んで「今すぐスキャン」とすると、フルスキャンが実施されます。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-実施には数時間かかりますので、講習会会場では実施しないでください。講習会終了後、できるだけ早く実施し、点検届を完成させてください。
-右上の×をクリックして、ウィンドウを閉じましょう。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">「しばらくお待ちください」と言う旨のメッセージが表示され、処理が完了すると「準備が完了しました！」となります。「完了」をクリックしてください。
 これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
@@ -1191,6 +1013,114 @@
     <t xml:space="preserve">Surfaceの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとは概ね言われるままにしていけば大丈夫です。
 すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。
  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">顔認証は結構面白くて便利ですが、設定に少し時間がかかりますので今はスキップしておきましょう。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワークに接続した時点で、「Windowsをよりいっそう活用できるようになります」という画面が出ることがあります。これは初期設定のときにスキップした設定をするところですが、ここでは左下の「今はスキップ」をクリックしてください。ここで行う設定は後でできます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromeのインストールはあっという間に終わります。自動的にChromeが起動して初期設定を行うよう促してきますが、ここでは左上の×をクリックして閉じてください。
+&lt;p class="spl"&gt;※ Windows10にはEdgeというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページがときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">自動アップデートのタイミング以外にDefenderを更新する方法について説明します。Windowsの自動更新機能で、Defenderは最新状態にたもたれます。しかし、緊急の脆弱性が発表された場合など、すぐに更新した方が良い時もあります。
+ウィンドウ左のリストから「Windows セキュリティ」をクリックし、「Windows セキュリティを開く」をクリックします。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">この画面で「更新プログラムのチェック」をクリックすると、脅威の定義の新しいものが出ているか確認を行い、あればそれを入手します。普段は、定期的に自動で確認されているので、これを押す必要はありません。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">システム全体のウイルスチェックを実施する方法を確認します。チェックには時間がかかりますので、講習会の会場では行わないでください。
+システム全体のウイルスチェックを「フルスキャン」と呼びます。それに対して「クイックスキャン」はよく攻撃される場所に限定して調査を行いますので、時間が短くて済みます。
+フルスキャンを行うには「現在の脅威」のところにある「スキャンのオプション」をクリックしましょう。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三種類の高度なスキャンがありますね。「フルスキャン」を選んで下の「今すぐスキャン」ボタンを押すと、フルスキャンが実施されます。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+実施には数時間かかりますので、講習会会場では実施しないでください。講習会終了後、できるだけ早く実施し、点検届を完成させてください。
+右上の×をクリックして、ウィンドウを閉じましょう。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「同意してExcelを開始する」をクリックします。
+※この「同意する」は、ソフトウェアの使用許諾契約に同意することを意味します。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があります。
+「サインインしてOffieを設定する」で「サインイン」クリックしましょう。「Officeライセンス認証」というパネルが出ます。広大メールアドレス（b19xxxxx@hiroshima-u.ac.jp という形式）を記入し、「次へ」をクリックしてください。
+  </t>
+    <rPh sb="63" eb="65">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HIROSHIMA UNIVERSITYと書かれたパネルが表示されます。広大パスワードを記入して「サインイン」をクリックします。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「このデバイスではどこでもこのアカウントを使用する」と聞かれますので、「はい」と答えます。
+※ 追加しないと、Wordなど他のOfficeアプリケーションなどを起動した時にサインイン作業がまた必要になります。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Win10 conclusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Win10 chap.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-03a.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-06a.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-07a.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-10a.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-11a.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-14a.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-15a.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-04a.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1229,7 +1159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1239,6 +1169,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1267,6 +1203,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1640,7 +1580,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1648,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1662,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1681,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1723,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1731,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1759,7 +1699,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s" ph="1">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>11</v>
@@ -1773,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s" ph="1">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>11</v>
@@ -1784,10 +1724,10 @@
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s" ph="1">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1795,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s" ph="1">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>11</v>
@@ -1809,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s" ph="1">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>11</v>
@@ -1820,10 +1760,10 @@
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s" ph="1">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1831,13 +1771,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s" ph="1">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1870,10 +1810,10 @@
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s" ph="1">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1881,35 +1821,35 @@
         <v>5</v>
       </c>
       <c r="B18" t="s" ph="1">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B19" t="s" ph="1">
-        <v>21</v>
+      <c r="B19" s="1" t="s" ph="1">
+        <v>217</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s" ph="1">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1917,13 +1857,13 @@
         <v>5</v>
       </c>
       <c r="B21" t="s" ph="1">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1931,13 +1871,13 @@
         <v>5</v>
       </c>
       <c r="B22" t="s" ph="1">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1945,13 +1885,13 @@
         <v>5</v>
       </c>
       <c r="B23" t="s" ph="1">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1965,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1982,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1990,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2006,7 +1946,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2014,7 +1954,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2028,13 +1968,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
@@ -2042,13 +1982,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2056,13 +1996,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2070,21 +2010,21 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2098,13 +2038,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2112,13 +2052,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2126,13 +2066,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2140,13 +2080,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2159,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2176,7 +2116,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2184,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2200,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2208,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2222,13 +2162,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2236,13 +2176,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2250,13 +2190,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2264,13 +2204,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2278,13 +2218,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2292,21 +2232,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>209</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2314,21 +2254,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2342,13 +2282,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2362,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A3" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2379,7 +2319,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2387,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2403,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
@@ -2411,7 +2351,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2422,7 +2362,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
@@ -2430,7 +2370,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2441,7 +2381,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2449,13 +2389,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2463,13 +2403,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2477,13 +2417,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2491,13 +2431,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2505,18 +2445,18 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2524,13 +2464,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2538,13 +2478,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2552,13 +2492,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2566,18 +2506,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2585,27 +2525,27 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2619,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2636,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2644,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2660,7 +2600,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2668,7 +2608,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2679,7 +2619,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2687,13 +2627,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2701,13 +2641,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2715,13 +2655,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2729,13 +2669,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2743,32 +2683,32 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2776,13 +2716,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2790,27 +2730,27 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2818,13 +2758,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2832,18 +2772,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2851,69 +2791,66 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>119</v>
+      <c r="B25" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2921,13 +2858,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +2877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2957,7 +2894,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2965,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2981,7 +2918,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -2989,7 +2926,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3000,7 +2937,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3022,13 +2959,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3036,18 +2973,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3069,13 +3006,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3083,13 +3020,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3097,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3111,13 +3048,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3125,13 +3062,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3139,13 +3076,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3153,13 +3090,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3167,18 +3104,18 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3200,13 +3137,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3214,13 +3151,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3228,18 +3165,18 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3261,13 +3198,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3275,13 +3212,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3289,13 +3226,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3303,13 +3240,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3317,13 +3254,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3331,13 +3268,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3345,13 +3282,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3359,13 +3296,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3373,13 +3310,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3387,13 +3324,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="169" x14ac:dyDescent="0.2">
@@ -3401,18 +3338,18 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3420,7 +3357,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3434,13 +3371,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3448,13 +3385,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3462,13 +3399,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3476,13 +3413,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3496,7 +3433,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3512,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3528,7 +3465,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3536,7 +3473,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3547,12 +3484,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -3560,7 +3497,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46A51C7-D793-44A8-875C-8C05151A96D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BFEDB6-4D03-4CEF-A41C-CF3CD4FD4CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40680" yWindow="90" windowWidth="13575" windowHeight="9645" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40680" yWindow="90" windowWidth="13575" windowHeight="9645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="237">
   <si>
     <t>header1</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>win10-0-01.svg</t>
-  </si>
-  <si>
-    <t>win10-0-02.svg</t>
   </si>
   <si>
     <t>win10-0-03.svg</t>
@@ -736,17 +733,6 @@
  広島大学 情報メディア教育研究センター&lt;br&gt;
  広島大学 消費生活協同組合 
  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">必携PC初期講習会では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。本日おこなうことを以下にあげます。おおむね90分くらいかかると思います。頑張ってください。
-  </t>
-    <rPh sb="73" eb="74">
-      <t>フンクライ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ガンバッテ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1121,6 +1107,11 @@
   </si>
   <si>
     <t>win10-5-04a.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">必携PC初期講習会では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。本日おこなうことを以下にあげます。おおむね90分くらいかかると思います。頑張ってください。
+  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1548,7 +1539,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1580,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1588,7 +1579,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1602,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1614,6 +1605,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1621,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1663,7 +1655,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1671,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1699,35 +1691,32 @@
         <v>5</v>
       </c>
       <c r="B8" t="s" ph="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>11</v>
       </c>
-      <c r="D8" t="s" ph="1">
-        <v>13</v>
-      </c>
     </row>
     <row r="9" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B9" t="s" ph="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s" ph="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1735,13 +1724,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s" ph="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1749,21 +1738,21 @@
         <v>5</v>
       </c>
       <c r="B12" t="s" ph="1">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s" ph="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1771,13 +1760,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1785,13 +1774,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s" ph="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1799,21 +1788,21 @@
         <v>5</v>
       </c>
       <c r="B16" t="s" ph="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s" ph="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1821,13 +1810,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s" ph="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1835,21 +1824,21 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s" ph="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1857,13 +1846,13 @@
         <v>5</v>
       </c>
       <c r="B21" t="s" ph="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1871,13 +1860,13 @@
         <v>5</v>
       </c>
       <c r="B22" t="s" ph="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1885,13 +1874,13 @@
         <v>5</v>
       </c>
       <c r="B23" t="s" ph="1">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1930,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1946,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1954,7 +1943,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1968,13 +1957,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
@@ -1982,13 +1971,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -1996,13 +1985,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2010,21 +1999,21 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2038,13 +2027,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2052,13 +2041,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2066,13 +2055,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2080,13 +2069,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2099,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2116,7 +2105,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2124,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2140,7 +2129,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2148,7 +2137,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2162,13 +2151,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2176,13 +2165,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2190,13 +2179,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2204,13 +2193,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2218,13 +2207,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2232,21 +2221,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2254,21 +2243,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2282,13 +2271,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2319,7 +2308,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2327,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2343,7 +2332,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
@@ -2351,7 +2340,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2362,7 +2351,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
@@ -2370,7 +2359,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2381,7 +2370,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2389,13 +2378,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2403,13 +2392,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2417,13 +2406,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2431,13 +2420,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2445,18 +2434,18 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2464,13 +2453,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2478,13 +2467,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2492,13 +2481,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2506,18 +2495,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2525,13 +2514,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2539,13 +2528,13 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2559,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="B1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2576,7 +2565,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2584,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2600,7 +2589,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2608,7 +2597,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2619,7 +2608,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2627,13 +2616,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2641,13 +2630,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2655,13 +2644,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2669,13 +2658,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2683,18 +2672,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2702,13 +2691,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2716,13 +2705,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2730,13 +2719,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>96</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2744,13 +2733,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2758,13 +2747,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2772,18 +2761,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2791,13 +2780,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>100</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2805,13 +2794,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2819,13 +2808,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2833,7 +2822,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2844,13 +2833,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2858,13 +2847,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +2883,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2902,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2918,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -2926,7 +2915,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2937,7 +2926,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2959,13 +2948,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>107</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2973,18 +2962,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>109</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3006,13 +2995,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3020,13 +3009,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>114</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3034,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3048,13 +3037,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
         <v>117</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>118</v>
-      </c>
-      <c r="D16" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3062,13 +3051,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
         <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3076,13 +3065,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>122</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3090,13 +3079,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>124</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3104,18 +3093,18 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>126</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3137,13 +3126,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>129</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3151,13 +3140,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>131</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3165,18 +3154,18 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>133</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3198,13 +3187,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>136</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3212,13 +3201,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>138</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3226,13 +3215,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>140</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3240,13 +3229,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>142</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3254,13 +3243,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>144</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3268,13 +3257,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3282,13 +3271,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>147</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3296,13 +3285,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>149</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3310,13 +3299,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>151</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3324,13 +3313,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>153</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="169" x14ac:dyDescent="0.2">
@@ -3338,18 +3327,18 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>155</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3357,7 +3346,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3371,13 +3360,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3385,13 +3374,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3399,13 +3388,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3413,13 +3402,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3449,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3465,7 +3454,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3473,7 +3462,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3484,12 +3473,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -3497,7 +3486,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BFEDB6-4D03-4CEF-A41C-CF3CD4FD4CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB7E04D-4089-475D-A615-C07F89064C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40680" yWindow="90" windowWidth="13575" windowHeight="9645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="ch0" sheetId="2" r:id="rId2"/>
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
-    <sheet name="ch2" sheetId="5" r:id="rId4"/>
-    <sheet name="ch3" sheetId="4" r:id="rId5"/>
+    <sheet name="ch2" sheetId="4" r:id="rId4"/>
+    <sheet name="ch3" sheetId="5" r:id="rId5"/>
     <sheet name="ch4" sheetId="6" r:id="rId6"/>
     <sheet name="ch5" sheetId="7" r:id="rId7"/>
     <sheet name="ch6" sheetId="8" r:id="rId8"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="239">
   <si>
     <t>header1</t>
   </si>
@@ -123,12 +123,6 @@
 &lt;li&gt; バッテリー駆動時間 &lt;/li&gt;
 &lt;/ol&gt;
  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">まず、OSのバージョンを確認しましょう。画面左下のウィンドウアイコン を右クリックします。
-&lt;p class="spl"&gt;※「右クリック」はマウスの右ボタンをクリックする操作ですが、Surfaceにはマウスがついていません。その代わりに、タッチパッドの右下のあたりをタップするか、もしくは、画面を長くタップします。もしくは、ペンの側面ボタンを押しながら、ペン先で画面タップでも可。&lt;/p&gt;
-メニューが表示されるので、「システム」を探してクリックしてください。
-   </t>
   </si>
   <si>
     <t>win10-1-01.svg</t>
@@ -993,9 +987,6 @@
   </t>
   </si>
   <si>
-    <t>数分待つと、Windows10のデスクトップ画面が出てきます。Microsoft Teamsのアカウント入力が画面に出ますが、とりあえず左上の×マークをクリックして画面から消しましょう。</t>
-  </si>
-  <si>
     <t xml:space="preserve">Surfaceの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとは概ね言われるままにしていけば大丈夫です。
 すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。
  </t>
@@ -1008,11 +999,6 @@
   </si>
   <si>
     <t>ネットワークに接続した時点で、「Windowsをよりいっそう活用できるようになります」という画面が出ることがあります。これは初期設定のときにスキップした設定をするところですが、ここでは左下の「今はスキップ」をクリックしてください。ここで行う設定は後でできます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chromeのインストールはあっという間に終わります。自動的にChromeが起動して初期設定を行うよう促してきますが、ここでは左上の×をクリックして閉じてください。
-&lt;p class="spl"&gt;※ Windows10にはEdgeというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページがときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;
-  </t>
   </si>
   <si>
     <t xml:space="preserve">自動アップデートのタイミング以外にDefenderを更新する方法について説明します。Windowsの自動更新機能で、Defenderは最新状態にたもたれます。しかし、緊急の脆弱性が発表された場合など、すぐに更新した方が良い時もあります。
@@ -1112,6 +1098,69 @@
   <si>
     <t xml:space="preserve">必携PC初期講習会では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。本日おこなうことを以下にあげます。おおむね90分くらいかかると思います。頑張ってください。
   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromeのインストールはあっという間に終わります。自動的にChromeが起動して初期設定を行うよう促してきますが、ここでは右上の×をクリックして閉じてください。
+&lt;p class="spl"&gt;※ Windows10にはEdgeというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページがときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;
+  </t>
+    <rPh sb="63" eb="65">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数分待つと、Windows10のデスクトップ画面が出てきます。Microsoft Teamsのアカウント入力が画面に出ますが、とりあえず右上の×マークをクリックして画面から消しましょう。</t>
+    <rPh sb="68" eb="69">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-13a.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まず、OSのバージョンを確認しましょう。画面左下のウィンドウアイコン を右クリックします。
+&lt;p class="spl"&gt;※「右クリック」はマウスの右ボタンをクリックする操作ですが、Surfaceにはマウスがついていません。その代わりに、タッチパッドの右下のあたりをタップするか、もしくは、画面を長くタップします。もしくは、ペンの側面ボタンを押しながら、ペン先で画面タップでも可。&lt;/p&gt;
+メニューが表示されるので、「システム」を探してクリックしてください。
+   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Teams について。最近のWindows10パソコンでは、サインイン時にMicrosoft Teams が自動的に起動します。これはMicrosoftが提供しているグループチャットアプリで、広大アカウントでサインインして使うことができます。詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/communication/teams/"&gt;「Microsft Teams」&lt;/a&gt;で。また、使わない場合は画面左下のウィンドウアイコンから「設定」→「アプリ」→「スタートアップ」と進んでTeamsのスイッチを「オフ」にすると、自動起動を止めることができます。</t>
+    <rPh sb="21" eb="23">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="250" eb="251">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="294" eb="295">
+      <t>スス</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1571,7 +1620,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1579,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1593,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1613,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1655,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1663,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1672,11 +1721,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s" ph="1">
+      <c r="B7" s="1" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="C7" t="s" ph="1">
@@ -1686,23 +1735,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B8" t="s" ph="1">
-        <v>202</v>
+      <c r="B8" s="1" t="s" ph="1">
+        <v>201</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B9" t="s" ph="1">
-        <v>203</v>
+      <c r="B9" s="1" t="s" ph="1">
+        <v>202</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>11</v>
@@ -1711,20 +1760,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B10" t="s" ph="1">
+    <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s" ph="1">
+        <v>203</v>
+      </c>
+      <c r="D10" t="s" ph="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s" ph="1">
         <v>204</v>
-      </c>
-      <c r="D10" t="s" ph="1">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s" ph="1">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s" ph="1">
-        <v>205</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>11</v>
@@ -1733,12 +1782,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B12" t="s" ph="1">
-        <v>206</v>
+      <c r="B12" s="1" t="s" ph="1">
+        <v>205</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>11</v>
@@ -1747,33 +1796,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B13" t="s" ph="1">
+    <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s" ph="1">
+        <v>206</v>
+      </c>
+      <c r="D13" t="s" ph="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s" ph="1">
         <v>207</v>
-      </c>
-      <c r="D13" t="s" ph="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s" ph="1">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s" ph="1">
-        <v>208</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B15" t="s" ph="1">
+      <c r="B15" s="1" t="s" ph="1">
         <v>16</v>
       </c>
       <c r="C15" t="s" ph="1">
@@ -1783,11 +1832,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B16" t="s" ph="1">
+      <c r="B16" s="1" t="s" ph="1">
         <v>18</v>
       </c>
       <c r="C16" t="s" ph="1">
@@ -1798,25 +1847,25 @@
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B17" t="s" ph="1">
+      <c r="B17" s="1" t="s" ph="1">
+        <v>208</v>
+      </c>
+      <c r="D17" t="s" ph="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s" ph="1">
         <v>209</v>
-      </c>
-      <c r="D17" t="s" ph="1">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s" ph="1">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s" ph="1">
-        <v>210</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1824,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>11</v>
@@ -1833,34 +1882,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B20" t="s" ph="1">
-        <v>201</v>
+    <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s" ph="1">
+        <v>200</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B21" t="s" ph="1">
-        <v>211</v>
+      <c r="B21" s="1" t="s" ph="1">
+        <v>210</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B22" t="s" ph="1">
-        <v>212</v>
+      <c r="B22" s="1" t="s" ph="1">
+        <v>211</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>11</v>
@@ -1869,18 +1918,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="B23" t="s" ph="1">
-        <v>213</v>
+      <c r="B23" s="1" t="s" ph="1">
+        <v>235</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1894,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1935,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1957,13 +2006,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
@@ -1971,13 +2020,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -1985,13 +2034,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -1999,21 +2048,21 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2027,13 +2076,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2041,13 +2090,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2055,13 +2104,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2069,13 +2118,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2085,11 +2134,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A7" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2105,7 +2154,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2113,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2129,155 +2178,209 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2288,11 +2391,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2308,7 +2411,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2316,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2332,15 +2435,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2349,192 +2452,138 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2548,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A19" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2565,7 +2614,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2573,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2589,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2597,7 +2646,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2608,7 +2657,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2616,13 +2665,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2630,13 +2679,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2644,13 +2693,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2658,13 +2707,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2672,18 +2721,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2691,13 +2740,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2705,13 +2754,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2719,13 +2768,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2733,13 +2782,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2747,13 +2796,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2761,18 +2810,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2780,66 +2829,66 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>99</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>101</v>
+      <c r="C25" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2847,13 +2896,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2864,10 +2913,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2883,7 +2932,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2891,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2907,7 +2956,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -2915,7 +2964,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2926,7 +2975,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2948,13 +2997,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2962,18 +3011,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2995,13 +3044,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>111</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3009,13 +3058,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3023,7 +3072,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3037,13 +3086,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
         <v>116</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>117</v>
-      </c>
-      <c r="D16" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3051,13 +3100,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
         <v>119</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3065,13 +3114,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3079,13 +3128,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>123</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3093,18 +3142,18 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>125</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3126,13 +3175,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>128</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3140,13 +3189,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>130</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3154,18 +3203,18 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>132</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3187,13 +3236,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>135</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3201,13 +3250,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>137</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3215,13 +3264,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>139</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3229,13 +3278,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>141</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3243,13 +3292,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>143</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3257,13 +3306,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3271,13 +3320,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>146</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3285,13 +3334,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>148</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3299,13 +3348,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>150</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3313,13 +3362,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>152</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="169" x14ac:dyDescent="0.2">
@@ -3327,18 +3376,18 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>154</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3346,7 +3395,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3360,13 +3409,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3374,13 +3423,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3388,27 +3437,35 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="97.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s" ph="1">
+        <v>238</v>
+      </c>
+      <c r="D44" t="s" ph="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
         <v>162</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3438,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3454,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3462,7 +3519,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3473,12 +3530,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
@@ -3486,7 +3543,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AA7E66-D608-4D5C-AE3D-7D9E7D79A51F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB342B8-7DAB-4C89-BB40-F068E26F56A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27480" yWindow="2115" windowWidth="13500" windowHeight="8265" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27480" yWindow="2115" windowWidth="13500" windowHeight="8265" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -206,20 +206,11 @@
     <t>win10-2-03.svg</t>
   </si>
   <si>
-    <t>win10-2-04.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">コピーが終わったらUSBメモリを取り外します。ウィンドウ左の「FIRST LEC (D:)」を右クリックして、「取り出し」をクリックします。
   </t>
   </si>
   <si>
-    <t>win10-2-05.svg</t>
-  </si>
-  <si>
     <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>win10-2-06.svg</t>
   </si>
   <si>
     <t>win10-2-07.svg</t>
@@ -1232,6 +1223,18 @@
     <rPh sb="99" eb="101">
       <t>ニンショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-04a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-05.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-06a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1691,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1699,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1713,7 +1716,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1775,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1783,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1811,7 +1814,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>11</v>
@@ -1822,7 +1825,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>11</v>
@@ -1833,10 +1836,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1844,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>11</v>
@@ -1858,21 +1861,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1880,13 +1883,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1919,10 +1922,10 @@
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1930,13 +1933,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1944,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>11</v>
@@ -1955,10 +1958,10 @@
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1966,13 +1969,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -1980,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>11</v>
@@ -1994,13 +1997,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2077,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2105,7 +2108,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2119,7 +2122,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2133,7 +2136,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2147,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2161,7 +2164,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2175,7 +2178,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2208,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2249,7 +2252,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
@@ -2276,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2337,13 +2340,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2351,18 +2354,18 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2370,13 +2373,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2384,13 +2387,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2398,13 +2401,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2412,18 +2415,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2431,13 +2434,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2445,13 +2448,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2482,7 +2485,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2490,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2506,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2514,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2528,13 +2531,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2542,13 +2545,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2556,13 +2559,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2570,13 +2573,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2584,13 +2587,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2598,21 +2601,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2620,13 +2623,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2634,7 +2637,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2648,13 +2651,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +2688,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2693,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2709,7 +2712,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2717,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2728,7 +2731,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2736,13 +2739,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2750,13 +2753,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2764,13 +2767,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2778,13 +2781,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2792,18 +2795,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2811,13 +2814,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2825,13 +2828,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2839,13 +2842,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2853,13 +2856,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2867,13 +2870,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2881,18 +2884,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2900,13 +2903,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2914,13 +2917,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2928,13 +2931,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2942,13 +2945,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2956,7 +2959,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2967,13 +2970,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3004,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3012,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3028,7 +3031,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3036,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3047,7 +3050,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3069,13 +3072,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3083,18 +3086,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3116,13 +3119,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3130,13 +3133,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3144,7 +3147,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3158,13 +3161,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3172,13 +3175,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
         <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3186,13 +3189,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3200,13 +3203,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3214,18 +3217,18 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3247,13 +3250,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3261,13 +3264,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3275,18 +3278,18 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3308,13 +3311,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3322,13 +3325,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3336,13 +3339,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3350,13 +3353,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3364,13 +3367,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3378,13 +3381,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3392,13 +3395,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3406,13 +3409,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3420,13 +3423,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3434,13 +3437,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="169" x14ac:dyDescent="0.2">
@@ -3448,18 +3451,18 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3467,7 +3470,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3481,13 +3484,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3495,13 +3498,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3509,21 +3512,21 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3531,13 +3534,13 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3550,7 +3553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3567,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3583,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3591,7 +3594,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3602,17 +3605,17 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3620,7 +3623,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB342B8-7DAB-4C89-BB40-F068E26F56A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0A1F3A-3527-41BD-9A0A-FA94B35A4D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27480" yWindow="2115" windowWidth="13500" windowHeight="8265" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1234,7 +1234,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-2-06a.svg</t>
+    <t>win10-2-06a.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0A1F3A-3527-41BD-9A0A-FA94B35A4D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10ADC65-4EA2-4F55-A420-0940D4AAF665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27480" yWindow="2115" windowWidth="13500" windowHeight="8265" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30285" yWindow="570" windowWidth="14625" windowHeight="10140" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="242">
   <si>
     <t>header1</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>win10-0-10.svg</t>
-  </si>
-  <si>
-    <t>win10-0-12.svg</t>
   </si>
   <si>
     <t xml:space="preserve">自分のパソコンの基本的なスペックを確認しておきましょう。CPUの型式、OSのビット数、記憶容量など。 </t>
@@ -206,18 +203,10 @@
     <t>win10-2-03.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">コピーが終わったらUSBメモリを取り外します。ウィンドウ左の「FIRST LEC (D:)」を右クリックして、「取り出し」をクリックします。
-  </t>
-  </si>
-  <si>
     <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
   </si>
   <si>
     <t>win10-2-07.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「すぐに完了します」などと出ますが、なかなか終わりません。気長に待ちましょう。10分くらいかかります。
-  </t>
   </si>
   <si>
     <t>win10-2-08.svg</t>
@@ -308,16 +297,6 @@
     <t xml:space="preserve">&lt;div class="panel-heading"&gt;&lt;span class="glyphicon glyphicon-warning-sign"&gt;&lt;/span&gt;
 パスワードを変更したら...&lt;/div&gt;
 &lt;div class="panel-body" style="padding:10px"&gt;この章の一番最初に「一度設定したら次回からは（同じエリアでは）設定不要です」などと書かれていますが、パスワードを変更した場合には再設定が必要になります。 &lt;/div&gt;
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">この章の設定をすると、今後は毎回アカウント名とパスワードを入れなくてもHINET Wi-Fiに接続できます。これは、入力されたものをWindowsが保存して、あなたの代わりに毎回送ってるからですね。
-ということは、パスワードを変更すると保存していたものでは繋がらなくなってしまいます。その際、「パスワードが違います」などという警告が出るわけでもなく、ただ無言で繋がらなくなりますので、メディアセンタに「突然繋がらなくなりました。壊れたんですか」って聞きに来る人も多いです。
-パスワードを変更をした場合は、以下のようにしてHINET Wi-Fiを再設定してください。
-&lt;ol&gt;&lt;li&gt;タスクバーのWi-Fiアイコンをクリック &lt;/li&gt;
-&lt;li&gt;&amp;quot;HU-CUPXX&amp;quot; で右クリック→削除。これを全てのHU-CUPXXで行います。 &lt;/li&gt;
-&lt;li&gt;すると、HU-CUPXXが未接続状態でまた表示されますので、この章でやったようにまた設定 &lt;/li&gt;
-&lt;/ol&gt;
   </t>
   </si>
   <si>
@@ -401,9 +380,6 @@
   </si>
   <si>
     <t>win10-5-12.svg</t>
-  </si>
-  <si>
-    <t>win10-5-13.svg</t>
   </si>
   <si>
     <t>win10-5-17.svg</t>
@@ -632,9 +608,6 @@
   <si>
     <t xml:space="preserve">以降は補足情報であり、講習会のときに設定しません。後日必要に応じて行ってください。
  </t>
-  </si>
-  <si>
-    <t>win10-6-24.svg</t>
   </si>
   <si>
     <t xml:space="preserve">Bb9を便利に利用できるスマホ用アプリもあります。iOSのApp StoreやAndroidのGoogle Playで&amp;quot;Blackboard&amp;quot;と検索してみてください。
@@ -748,14 +721,6 @@
 OneDriveのアプリは、Web版のOneDrive サイトから入手できます。
 詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/onedriveforbusiness/"&gt;「クラウドファイル保管サービス(OneDrive for Business)」&lt;/a&gt;
 で。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Office365 ProPlus の正規版がすでに入っている場合には、ここを飛ばして&lt;a href="#chrome"&gt;[10]に進んでください&lt;/a&gt;
-。Office2013が入っている場合は、それをそのままにしてOffice 365を追加インストールすることができます。
-デスクトップにコピーした「setup2020-win10」というフォルダをダブルクリックして開きます。さらに中に「officepropluswin-jp」というフォルダがあるので、ダブルクリックして開きます。
-「install」という項目をダブルクリックして実行してください。
   </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -855,23 +820,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">「しばらくお待ちください」と言う旨のメッセージが表示され、処理が完了すると「準備が完了しました！」となります。「完了」をクリックしてください。
-これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-以上でこの章の作業は終了です。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-4-11.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-0-11a.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-0-25.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -959,12 +908,6 @@
     <t xml:space="preserve">システム全体のウイルスチェックを実施する方法を確認します。チェックには時間がかかりますので、講習会の会場では行わないでください。
 システム全体のウイルスチェックを「フルスキャン」と呼びます。それに対して「クイックスキャン」はよく攻撃される場所に限定して調査を行いますので、時間が短くて済みます。
 フルスキャンを行うには「現在の脅威」のところにある「スキャンのオプション」をクリックしましょう。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「同意してExcelを開始する」をクリックします。
-※この「同意する」は、ソフトウェアの使用許諾契約に同意することを意味します。
   </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1235,6 +1178,126 @@
   </si>
   <si>
     <t>win10-2-06a.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Office365 ProPlus の正規版がすでに入っている場合には、ここを飛ばして&lt;a href="#chrome"&gt;[10]に進んでください&lt;/a&gt;
+。Office2013が入っている場合は、それをそのままにしてOffice 365 ProPlus を追加インストールすることができます。
+デスクトップにコピーした「setup2020-win10」というフォルダをダブルクリックして開きます。さらに中に「officepropluswin-jp」というフォルダがあるので、ダブルクリックして開きます。
+「install」という項目をダブルクリックして実行してください。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「すぐに完了します」などと出ますが、なかなか終わりません。気長に待ちましょう。10分くらいかかります。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">この章の設定をすると、今後は毎回アカウント名とパスワードを入れなくてもHINET Wi-Fiに接続できます。これは、入力されたものをWindowsが保存して、あなたの代わりに毎回送ってるからですね。
+ということは、パスワードを変更すると保存していたものでは繋がらなくなってしまいます。その際、「パスワードが違います」などという警告が出るわけでもなく、ただ無言で繋がらなくなりますので、メディアセンタに「突然繋がらなくなりました。壊れたんですか」って聞きに来る人も多いです。
+パスワードを変更をした場合は、以下のようにしてHINET Wi-Fiを再設定してください。
+&lt;ol&gt;&lt;li&gt;タスクバーのWi-Fiアイコンをクリック &lt;/li&gt;
+&lt;li&gt;&amp;quot;HU-CUPXX&amp;quot; で右クリック→削除。これを全てのHU-CUPXXで行います。 &lt;/li&gt;
+&lt;li&gt;すると、HU-CUPXXが未接続状態でまた表示されますので、この章でやったようにまた設定します。 &lt;/li&gt;
+&lt;/ol&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-02a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-25.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-11a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-12.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コピーが終わったらUSBメモリを取り外します。ウィンドウ左の「FIRST LEC (D:)」を右クリックして、「取り出し」をクリックします。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「しばらくお待ちください」と言う旨のメッセージが表示され、処理が完了すると「準備が完了しました！」となります。「完了」をクリックしてください。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ライセンス契約に同意します」で「同意する」をクリックします。
+※本来は「利用許諾契約書を読む」で契約事項を読んでから同意するものですが、ここではそこまで厳密にはしません。「ファイル」→「アカウント」→「Excelのバージョン情報」と辿ることで、後でも読めます　これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+以上でこの章の作業は終了です。</t>
+    <rPh sb="6" eb="8">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ケイヤクショ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ゲンミツ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>タド</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-13a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-22.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-24a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1694,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1702,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1716,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1736,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1778,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1786,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1814,18 +1877,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>11</v>
       </c>
+      <c r="D8" t="s" ph="1">
+        <v>232</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>11</v>
@@ -1836,10 +1902,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1847,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>11</v>
@@ -1861,21 +1927,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1883,13 +1949,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1922,10 +1988,10 @@
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1933,13 +1999,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1947,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>11</v>
@@ -1958,10 +2024,10 @@
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>186</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1969,13 +2035,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>185</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -1983,13 +2049,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>20</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1997,13 +2063,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2017,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2034,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2042,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2058,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2066,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2080,13 +2146,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
@@ -2094,13 +2160,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2108,13 +2174,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2122,21 +2188,21 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2150,13 +2216,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2164,13 +2230,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2178,13 +2244,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2192,13 +2258,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2211,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="B12" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2228,7 +2294,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2236,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2252,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
@@ -2260,7 +2326,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2271,7 +2337,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
@@ -2279,7 +2345,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2290,7 +2356,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2298,13 +2364,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2312,13 +2378,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2326,13 +2392,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2340,13 +2406,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2354,18 +2420,18 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2373,13 +2439,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2387,13 +2453,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2401,13 +2467,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2415,18 +2481,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2434,13 +2500,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2448,13 +2514,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2468,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A13" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2485,7 +2551,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2493,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2509,7 +2575,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2517,7 +2583,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2531,13 +2597,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2545,13 +2611,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2559,13 +2625,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2573,13 +2639,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2587,13 +2653,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2601,21 +2667,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2623,21 +2689,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2651,13 +2717,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2671,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="C18" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2688,7 +2754,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2696,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2712,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2720,7 +2786,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2731,7 +2797,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2739,13 +2805,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2753,13 +2819,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2767,13 +2833,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2781,13 +2847,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2795,18 +2861,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2814,13 +2880,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2828,13 +2894,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2842,13 +2908,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2856,13 +2922,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2870,13 +2936,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2884,18 +2950,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2903,55 +2969,55 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2959,24 +3025,27 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>95</v>
+      <c r="B26" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2990,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="C44" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3007,7 +3076,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3015,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3031,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3039,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3050,7 +3119,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3072,13 +3141,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3086,18 +3155,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3119,13 +3188,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3133,13 +3202,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3147,7 +3216,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3161,13 +3230,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3175,13 +3244,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3189,13 +3258,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3203,13 +3272,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3217,18 +3286,18 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3250,13 +3319,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3264,13 +3333,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3278,18 +3347,18 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3311,13 +3380,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3325,13 +3394,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3339,13 +3408,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3353,13 +3422,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3367,13 +3436,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3381,13 +3450,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3395,13 +3464,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3409,13 +3478,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3423,13 +3492,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3437,13 +3506,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="169" x14ac:dyDescent="0.2">
@@ -3451,18 +3520,18 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3470,7 +3539,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3484,13 +3553,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3498,13 +3567,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3512,21 +3581,21 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3534,13 +3603,13 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3586,7 +3655,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3594,7 +3663,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3605,17 +3674,17 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3623,7 +3692,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10ADC65-4EA2-4F55-A420-0940D4AAF665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBA730A-E471-4443-BDF9-A2E9A16CFC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30285" yWindow="570" windowWidth="14625" windowHeight="10140" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32475" yWindow="0" windowWidth="13500" windowHeight="8265" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="247">
   <si>
     <t>header1</t>
   </si>
@@ -424,12 +424,6 @@
   </si>
   <si>
     <t>win10-6-04.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
-Hiroshima Universityと書かれた画面に移動しますので、広大パスワードを入力し「サインイン」をクリックします。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-28.svg" /&gt; &lt;img alt="*screenshot*" class="chart" src="image/win10-6-05.svg" /&gt;  </t>
   </si>
   <si>
     <t xml:space="preserve">Office365で使えるアプリの一覧が表示されます。「Outlook」をクリック。 
@@ -1157,18 +1151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があります。
-「サインインしてOffieを設定する」で「サインイン」をクリックしましょう。「Officeライセンス認証」というパネルが出ます。広大メールアドレス（b20xxxxx@hiroshima-u.ac.jp という形式）を記入し、「次へ」をクリックしてください。
-  </t>
-    <rPh sb="63" eb="65">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-2-04a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1298,6 +1280,45 @@
   </si>
   <si>
     <t>win10-6-24a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があります。
+「サインインしてOffieを設定する」で「サインイン」をクリックしましょう。
+  </t>
+    <rPh sb="63" eb="65">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「Officeライセンス認証」というパネルが出ます。広大メールアドレス（b20xxxxx@hiroshima-u.ac.jp という形式）を記入し、「次へ」をクリックしてください。
+  </t>
+    <rPh sb="12" eb="14">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-23.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-28.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-05.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroshima Universityと書かれた画面に移動しますので、広大パスワードを入力し「サインイン」をクリックします。
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1757,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1765,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1779,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1841,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1849,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1877,13 +1898,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1891,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>11</v>
@@ -1902,10 +1923,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
+        <v>214</v>
+      </c>
+      <c r="D10" t="s" ph="1">
         <v>215</v>
-      </c>
-      <c r="D10" t="s" ph="1">
-        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1913,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>11</v>
@@ -1927,21 +1948,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1949,13 +1970,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1988,10 +2009,10 @@
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1999,13 +2020,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2013,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>11</v>
@@ -2024,10 +2045,10 @@
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2035,13 +2056,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -2049,13 +2070,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2063,13 +2084,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2124,7 +2145,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2146,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2174,7 +2195,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2188,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2202,7 +2223,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2216,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2230,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2244,7 +2265,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2318,7 +2339,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
@@ -2345,7 +2366,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2406,13 +2427,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2420,13 +2441,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2439,13 +2460,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2453,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2467,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2500,7 +2521,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2514,7 +2535,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2575,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2667,7 +2688,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2678,10 +2699,10 @@
     </row>
     <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2717,7 +2738,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -2735,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="C18" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="C21" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2778,7 +2799,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2839,7 +2860,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2847,13 +2868,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2880,13 +2901,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2900,7 +2921,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2922,7 +2943,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2936,13 +2957,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2950,13 +2971,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>223</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2978,46 +2999,40 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
+    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="D22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3025,27 +3040,41 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3057,10 +3086,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3100,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3108,7 +3137,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3211,18 +3240,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3230,275 +3253,275 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
         <v>104</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>105</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
         <v>107</v>
       </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>109</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>111</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>113</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>116</v>
       </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>120</v>
       </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>123</v>
       </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>125</v>
       </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>127</v>
       </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>129</v>
       </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="234" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>131</v>
       </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
+    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>134</v>
       </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>136</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3506,110 +3529,124 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>140</v>
       </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="169" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>142</v>
       </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+    <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>146</v>
+      <c r="B42" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
-      <c r="D42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="D42" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" t="s" ph="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" t="s" ph="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
         <v>149</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3639,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3655,7 +3692,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3663,7 +3700,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3674,17 +3711,17 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3692,7 +3729,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBA730A-E471-4443-BDF9-A2E9A16CFC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1960A15E-7629-42F2-AC3A-EBE49B88925A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32475" yWindow="0" windowWidth="13500" windowHeight="8265" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32475" yWindow="0" windowWidth="13500" windowHeight="8265" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -911,12 +911,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">「このデバイスではどこでもこのアカウントを使用する」と聞かれますので、「はい」と答えます。
-※ 追加しないと、Wordなど他のOfficeアプリケーションなどを起動した時にサインイン作業がまた必要になります。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2020 Win10 conclusion</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1213,8 +1207,69 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>win10-5-13a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-22.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-24a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があります。
+「サインインしてOffieを設定する」で「サインイン」をクリックしましょう。
+  </t>
+    <rPh sb="63" eb="65">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「Officeライセンス認証」というパネルが出ます。広大メールアドレス（b20xxxxx@hiroshima-u.ac.jp という形式）を記入し、「次へ」をクリックしてください。
+  </t>
+    <rPh sb="12" eb="14">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-28.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-05.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroshima Universityと書かれた画面に移動しますので、広大パスワードを入力し「サインイン」をクリックします。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-23.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「このデバイスではどこでもこのアカウントを使用する」と聞かれますので、「はい」と答えます。
+※ これにより、Wordなどの他のOfficeアプリケーションを起動した時のサインイン作業が不要になります。
+  </t>
+    <rPh sb="92" eb="94">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>「ライセンス契約に同意します」で「同意する」をクリックします。
-※本来は「利用許諾契約書を読む」で契約事項を読んでから同意するものですが、ここではそこまで厳密にはしません。「ファイル」→「アカウント」→「Excelのバージョン情報」と辿ることで、後でも読めます　これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
+※本来は「利用許諾契約書を読む」で契約事項を読んでから同意するものですが、ここではそこまで厳密にはしません。「ファイル」→「アカウント」→「Excelのバージョン情報」と辿ることで、いつでも読めます。
+これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 以上でこの章の作業は終了です。</t>
     <rPh sb="6" eb="8">
@@ -1262,63 +1317,9 @@
     <rPh sb="117" eb="118">
       <t>タド</t>
     </rPh>
-    <rPh sb="123" eb="124">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="126" eb="127">
+    <rPh sb="127" eb="128">
       <t>ヨ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-5-13a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-5-22.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-24a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があります。
-「サインインしてOffieを設定する」で「サインイン」をクリックしましょう。
-  </t>
-    <rPh sb="63" eb="65">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「Officeライセンス認証」というパネルが出ます。広大メールアドレス（b20xxxxx@hiroshima-u.ac.jp という形式）を記入し、「次へ」をクリックしてください。
-  </t>
-    <rPh sb="12" eb="14">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-5-23.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-28.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-05.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiroshima Universityと書かれた画面に移動しますので、広大パスワードを入力し「サインイン」をクリックします。
-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1800,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1904,7 +1905,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1923,10 +1924,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
+        <v>213</v>
+      </c>
+      <c r="D10" t="s" ph="1">
         <v>214</v>
-      </c>
-      <c r="D10" t="s" ph="1">
-        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1954,7 +1955,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1962,7 +1963,7 @@
         <v>183</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1976,7 +1977,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -2048,7 +2049,7 @@
         <v>178</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2062,7 +2063,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -2076,7 +2077,7 @@
         <v>11</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2084,13 +2085,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2167,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2237,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2251,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2433,7 +2434,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2441,13 +2442,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2460,13 +2461,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2488,7 +2489,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2535,7 +2536,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2738,7 +2739,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -2758,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2799,7 +2800,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2860,7 +2861,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2874,7 +2875,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2907,7 +2908,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2921,7 +2922,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2963,7 +2964,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2971,13 +2972,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>222</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3001,10 +3002,10 @@
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3012,13 +3013,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3032,7 +3033,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3040,13 +3041,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3054,7 +3055,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3068,13 +3069,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3088,8 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3242,10 +3243,10 @@
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3253,13 +3254,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3596,7 +3597,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3629,10 +3630,10 @@
     </row>
     <row r="45" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3692,7 +3693,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3716,7 +3717,7 @@
     </row>
     <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3729,7 +3730,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1960A15E-7629-42F2-AC3A-EBE49B88925A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273A644E-DA77-4315-A53E-8A8BFD6EEFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32475" yWindow="0" windowWidth="13500" windowHeight="8265" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36660" yWindow="4710" windowWidth="17370" windowHeight="8265" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -951,43 +951,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Microsoft Teams について。最近のWindows10パソコンでは、サインイン時にMicrosoft Teams が自動的に起動します。これはMicrosoftが提供しているグループチャットアプリで、広大メールアドレスとパスワードでサインインして使うことができます。詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/communication/teams/"&gt;「Microsft Teams」&lt;/a&gt;で。また、使わない場合は画面左下のウィンドウアイコンから「設定」→「アプリ」→「スタートアップ」と進んでTeamsのスイッチを「オフ」にすると、自動起動を止めることができます。</t>
-    <rPh sb="21" eb="23">
-      <t>サイキン</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="64" eb="67">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="258" eb="259">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="262" eb="264">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="302" eb="303">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;/dl&gt;情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を開催しています。 
 学生生活を送る上で有用なパソコンの使い方について、一つでも多く身につけてもらえるようさまざまな内容を準備していますので、 興味のあるものが見つかったら、ぜひ参加してください。 
 &lt;ul&gt;&lt;li&gt;&lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
@@ -1254,10 +1217,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-5-23.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">「このデバイスではどこでもこのアカウントを使用する」と聞かれますので、「はい」と答えます。
 ※ これにより、Wordなどの他のOfficeアプリケーションを起動した時のサインイン作業が不要になります。
   </t>
@@ -1267,8 +1226,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>win10-5-23.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>「ライセンス契約に同意します」で「同意する」をクリックします。
-※本来は「利用許諾契約書を読む」で契約事項を読んでから同意するものですが、ここではそこまで厳密にはしません。「ファイル」→「アカウント」→「Excelのバージョン情報」と辿ることで、いつでも読めます。
+※本来は「利用許諾契約書を読む」で契約事項を読んでから同意するものですが、ここではそこまでしません。「ファイル」→「アカウント」→「Excelのバージョン情報」と辿ることで、いつでも読めます。
 これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 以上でこの章の作業は終了です。</t>
@@ -1308,17 +1271,53 @@
     <rPh sb="59" eb="61">
       <t>ドウイ</t>
     </rPh>
-    <rPh sb="77" eb="79">
-      <t>ゲンミツ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
+    <rPh sb="109" eb="111">
       <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="117" eb="118">
+    <rPh sb="113" eb="114">
       <t>タド</t>
     </rPh>
-    <rPh sb="127" eb="128">
+    <rPh sb="123" eb="124">
       <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Teams について。最近のWindows10パソコンでは、サインイン時にMicrosoft Teams が自動的に起動します。これはMicrosoftが提供しているグループチャットアプリで、広大メールアドレスとパスワードでサインインして使うことができます。
+詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/communication/teams/"&gt;「Microsft Teams」&lt;/a&gt;で。
+また、使わない場合は画面左下のウィンドウアイコンから「設定」→「アプリ」→「スタートアップ」と進んでTeamsのスイッチを「オフ」にすると、自動起動を止めることができます。</t>
+    <rPh sb="21" eb="23">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="264" eb="266">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="304" eb="305">
+      <t>スス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1821,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1905,7 +1904,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1924,10 +1923,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
+        <v>212</v>
+      </c>
+      <c r="D10" t="s" ph="1">
         <v>213</v>
-      </c>
-      <c r="D10" t="s" ph="1">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1955,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1963,7 +1962,7 @@
         <v>183</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1977,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -2049,7 +2048,7 @@
         <v>178</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2063,7 +2062,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -2077,7 +2076,7 @@
         <v>11</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2085,13 +2084,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2105,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2238,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2252,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2299,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2434,7 +2433,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2442,13 +2441,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2461,13 +2460,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2489,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2556,7 +2555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2739,7 +2738,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -2759,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A24" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2861,7 +2860,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2875,7 +2874,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2908,7 +2907,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2922,7 +2921,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2964,7 +2963,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2972,13 +2971,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>221</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3002,7 +3001,7 @@
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
         <v>244</v>
@@ -3013,7 +3012,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3041,13 +3040,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3055,7 +3054,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3069,13 +3068,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3089,8 +3088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3243,10 +3242,10 @@
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" t="s">
         <v>240</v>
-      </c>
-      <c r="D15" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3254,13 +3253,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3597,7 +3596,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3628,9 +3627,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="D45" t="s" ph="1">
         <v>202</v>
@@ -3660,7 +3659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3717,7 +3716,7 @@
     </row>
     <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3730,7 +3729,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273A644E-DA77-4315-A53E-8A8BFD6EEFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5267DF5-6092-42EF-BFF3-E9E60F1A9D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36660" yWindow="4710" windowWidth="17370" windowHeight="8265" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41790" yWindow="2685" windowWidth="11580" windowHeight="5505" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -351,16 +351,6 @@
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="defender"&gt;&lt;/a&gt;Defenderの手動更新とフルスキャン&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ウイルスと脅威の防止」をクリックしましょう。
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defenderでは、ウイルスやスパイウェアその他の悪意を持つプログラム全般を「脅威」とし、それらを判別するルールを保存したファイルを「脅威の定義」と呼んでいます。
-「ウイルスと脅威の防止の更新」の下に、前回いつ「脅威の定義」が更新されたかが書かれています。&lt;span class="check"&gt;check-6,7&lt;/span&gt;
-脅威の定義を新しくするには「ウイルスと脅威の防止の更新」をクリックします。
-  </t>
   </si>
   <si>
     <t>win10-5-08.svg</t>
@@ -1319,6 +1309,50 @@
     <rPh sb="304" eb="305">
       <t>スス</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「ウイルスと脅威の防止」をクリックしましょう。
+※この部分に黄色のアイコンが出ている場合があります。これはランサムウェアに備えるためのOneDriveへのデータバックアップが設定されていないことを示していますが、この講習会ではまだ設定しません。気になるようでしたら「無視する」をクリックしてください。
+なおデータバックアップ設定はこのメニューからいつでもできます。
+  </t>
+    <rPh sb="27" eb="29">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="108" eb="111">
+      <t>コウシュウカイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Defenderでは、ウイルスやスパイウェアその他の悪意を持つプログラム全般を「脅威」とし、それらを判別するルールを保存したファイルを「脅威の定義」と呼んでいます。
+「ウイルスと脅威の防止の更新」の下に、前回いつ「脅威の定義」が更新されたかが書かれています。&lt;span class="check"&gt;check-6,7&lt;/span&gt;
+脅威の定義を新しくするには「ウイルスと脅威の防止の更新」をクリックします。
+  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1778,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1786,7 +1820,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1800,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1862,7 +1896,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1870,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1898,13 +1932,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1912,7 +1946,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>11</v>
@@ -1923,10 +1957,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1934,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>11</v>
@@ -1948,21 +1982,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -1970,13 +2004,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -2009,10 +2043,10 @@
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -2020,13 +2054,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2034,7 +2068,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>11</v>
@@ -2045,10 +2079,10 @@
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2056,13 +2090,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -2070,13 +2104,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2084,13 +2118,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2167,7 +2201,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2195,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2209,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2223,7 +2257,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2237,7 +2271,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2251,7 +2285,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2265,7 +2299,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2339,7 +2373,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
@@ -2366,7 +2400,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2427,13 +2461,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2441,13 +2475,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2460,13 +2494,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2474,7 +2508,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2488,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2521,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2535,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2596,7 +2630,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2688,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2699,10 +2733,10 @@
     </row>
     <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2738,7 +2772,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -2758,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:D27"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2799,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2860,7 +2894,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2868,13 +2902,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2901,27 +2935,27 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2929,13 +2963,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2943,13 +2977,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2957,13 +2991,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2971,18 +3005,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2990,21 +3024,21 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3012,13 +3046,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3026,13 +3060,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3040,13 +3074,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3054,13 +3088,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3068,13 +3102,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +3139,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3113,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3129,7 +3163,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3137,7 +3171,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3148,7 +3182,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3170,13 +3204,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3184,18 +3218,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3217,13 +3251,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3231,21 +3265,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3253,13 +3287,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3267,13 +3301,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
         <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3281,13 +3315,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3295,13 +3329,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3309,13 +3343,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3323,18 +3357,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3356,13 +3390,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3370,13 +3404,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3384,18 +3418,18 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3417,13 +3451,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3431,13 +3465,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3445,13 +3479,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3459,13 +3493,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3473,13 +3507,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3487,13 +3521,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3501,13 +3535,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3515,13 +3549,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3529,13 +3563,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3543,13 +3577,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
@@ -3557,18 +3591,18 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3576,7 +3610,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3590,13 +3624,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3604,13 +3638,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3618,21 +3652,21 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3640,13 +3674,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3659,7 +3693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3676,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3692,7 +3726,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3700,7 +3734,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3711,17 +3745,17 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3729,7 +3763,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5267DF5-6092-42EF-BFF3-E9E60F1A9D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1EAE95-7B9A-444B-AEAD-9FFFEEE8EF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41790" yWindow="2685" windowWidth="11580" windowHeight="5505" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1970" yWindow="1980" windowWidth="13500" windowHeight="8260" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -521,20 +521,6 @@
   </si>
   <si>
     <t>win10-6-16.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2回目からはログインしたら、この画面が出ます。
-真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
-ここに並んでいるコースは、あなたが受講する授業に関連したものと、そうでないものがあります。今並んでいるものを簡単に説明すると：
-&lt;dl&gt;&lt;dt&gt;大学教育入門&lt;/dt&gt;
-&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt;
-&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
-&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届け」を提出する必要があります。このコースでは、点検届けが提出できます。この講習会のあとで各自開いて実施してください。&lt;/dd&gt;
-&lt;dt&gt;Information Security and Compliance (情報セキュリティ・コンプライアンス)&lt;/dt&gt;
-&lt;dd&gt;「情報セキュリティ・コンプライアンス講習」は、広島大学でパソコンやネットワークを安全に使うための講座です。学生だけでなく、教職員を含めた全構成員必修の内容です。講習は、教室での講義とオンライン学習（このコース）からなっています。6月末までにこのコースの中にある確認テストに合格し、「&lt;em&gt;アカウント利用確認&lt;/em&gt;
-」の手続きをおこなわないと、アカウントがロックされ、メール等が使えなくなります。&lt;/dd&gt;
- &lt;/dl&gt;
-  </t>
   </si>
   <si>
     <t>win10-6-17.svg</t>
@@ -1352,6 +1338,21 @@
     <t xml:space="preserve">Defenderでは、ウイルスやスパイウェアその他の悪意を持つプログラム全般を「脅威」とし、それらを判別するルールを保存したファイルを「脅威の定義」と呼んでいます。
 「ウイルスと脅威の防止の更新」の下に、前回いつ「脅威の定義」が更新されたかが書かれています。&lt;span class="check"&gt;check-6,7&lt;/span&gt;
 脅威の定義を新しくするには「ウイルスと脅威の防止の更新」をクリックします。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2回目からはログインしたら、この画面が出ます。
+真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
+ここに並んでいるコースは、あなたが受講する授業に関連したものと、そうでないものがあります。今並んでいるものを簡単に説明すると：
+&lt;dl&gt;&lt;dt&gt;大学教育入門&lt;/dt&gt;
+&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt;
+&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
+&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届け」を提出する必要があります。このコースでは、点検届けが提出できます。この講習会のあとで各自開いて実施してください。&lt;/dd&gt;
+&lt;dt&gt;Information Security and Compliance (情報セキュリティ・コンプライアンス)&lt;/dt&gt;
+&lt;dd&gt;「情報セキュリティ・コンプライアンス講習」は、広島大学でパソコンやネットワークを安全に使うための講座です。学生だけでなく、教職員を含めた全構成員必修の内容です。講習は、教室での講義とオンライン学習（このコース）からなっています。6月末までにこのコースの中にある確認テストに合格し、「&lt;em&gt;アカウント利用確認&lt;/em&gt;
+」の手続きをおこなわないと、アカウントがロックされ、メール等が使えなくなります。&lt;/dd&gt;
+ &lt;/dl&gt;
   </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1812,7 +1813,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1820,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1834,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1896,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1904,7 +1905,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1932,13 +1933,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1946,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>11</v>
@@ -1957,10 +1958,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
+        <v>209</v>
+      </c>
+      <c r="D10" t="s" ph="1">
         <v>210</v>
-      </c>
-      <c r="D10" t="s" ph="1">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1968,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>11</v>
@@ -1982,21 +1983,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -2004,13 +2005,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -2043,10 +2044,10 @@
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -2054,13 +2055,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2068,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>11</v>
@@ -2079,10 +2080,10 @@
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2090,13 +2091,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -2104,13 +2105,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2118,13 +2119,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2179,7 +2180,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2201,7 +2202,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2229,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2243,7 +2244,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2257,7 +2258,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2271,7 +2272,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2285,7 +2286,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2299,7 +2300,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2373,7 +2374,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
@@ -2400,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2461,13 +2462,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2475,13 +2476,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2494,13 +2495,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2508,7 +2509,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2522,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2555,7 +2556,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2569,7 +2570,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2630,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2722,7 +2723,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2733,10 +2734,10 @@
     </row>
     <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2772,7 +2773,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -2792,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2833,7 +2834,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2894,7 +2895,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2902,13 +2903,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2935,13 +2936,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2949,13 +2950,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2963,7 +2964,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2977,7 +2978,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2991,13 +2992,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3005,13 +3006,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>218</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3035,10 +3036,10 @@
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3046,13 +3047,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3060,13 +3061,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3074,13 +3075,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3088,7 +3089,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3102,13 +3103,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3122,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3163,7 +3164,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3171,7 +3172,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3276,10 +3277,10 @@
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" t="s">
         <v>237</v>
-      </c>
-      <c r="D15" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3287,13 +3288,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3507,13 +3508,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>128</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3521,13 +3522,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3535,13 +3536,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>131</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3549,13 +3550,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>133</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3563,13 +3564,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>135</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3577,13 +3578,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>137</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
@@ -3591,18 +3592,18 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>139</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3610,7 +3611,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3624,13 +3625,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3638,13 +3639,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3652,21 +3653,21 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3674,18 +3675,19 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3694,7 +3696,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3710,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3726,7 +3728,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3734,7 +3736,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3745,17 +3747,17 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3763,7 +3765,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1EAE95-7B9A-444B-AEAD-9FFFEEE8EF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F260479-B229-4799-B6CD-A466AEBBBE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1970" yWindow="1980" windowWidth="13500" windowHeight="8260" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37710" yWindow="1830" windowWidth="13500" windowHeight="8265" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="ch0" sheetId="2" r:id="rId2"/>
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
-    <sheet name="ch2" sheetId="4" r:id="rId4"/>
-    <sheet name="ch3" sheetId="5" r:id="rId5"/>
-    <sheet name="ch4" sheetId="6" r:id="rId6"/>
-    <sheet name="ch5" sheetId="7" r:id="rId7"/>
-    <sheet name="ch6" sheetId="8" r:id="rId8"/>
+    <sheet name="ch2" sheetId="5" r:id="rId4"/>
+    <sheet name="ch3" sheetId="4" r:id="rId5"/>
+    <sheet name="ch4" sheetId="9" r:id="rId6"/>
+    <sheet name="ch5" sheetId="6" r:id="rId7"/>
+    <sheet name="ch6" sheetId="7" r:id="rId8"/>
+    <sheet name="ch7" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="244">
   <si>
     <t>header1</t>
   </si>
@@ -83,11 +84,6 @@
   </si>
   <si>
     <t>win10-0-04.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCを使うときのユーザ名を記入します。自分で使いやすいものをきめてください。
-「ユーザ名」は、&amp;quot;ayase&amp;quot; など名前をローマ字にしたものが一般的です。日本語も使えますが、そうするとたまに動かないソフトがあります。ユーザ名には日本語を使わないようにしましょう。
-  </t>
   </si>
   <si>
     <t>win10-0-07.svg</t>
@@ -122,15 +118,6 @@
     <t>win10-1-01.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">「バージョン情報」という名前のウィンドウが開きます。中にPCに関する情報がたくさん表示されています。
-「Windowsの仕様」をみると「エディション」のところに「Windows 10 Pro」とありますね。これがOSの種類です。「バージョン」のところには詳細なバージョン番号（いつ時点に出されたOSか）が書かれています。&lt;span class="check"&gt;check-1&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-その上の方に「デバイスの仕様」がありますね。ここの「システムの種類」を見ると、OSのビット数がわかります。&amp;quot;64ビットオペレーティングシステム&amp;quot; とあります。64ビットですね。二進法で64桁のデータを一度に処理できるOSであるということを示しています。&lt;span class="check"&gt;check-2&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-その上に「実装RAM」と書かれたところがあります。ここを見ると、主記憶装置（メインメモリ）の容量がわかります。8GB（ギガバイト）ですね。この容量が大きいほど、大量のデータを一括して扱えたり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。
-  </t>
-  </si>
-  <si>
     <t>win10-1-02.svg</t>
   </si>
   <si>
@@ -152,73 +139,15 @@
     <t>win10-1-13.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">左メニューの真ん中あたりにある「レイアウトを変更する」をクリックしてください。
- すると青い画面がでますので，「英語キーボード(101/102キー）」となっているのを「日本語キーボード(106/109キー）」に変更し、「サインアウト」をクリックしてください。 これでキーボードが日本語の設定になりました。 一度サインアウトしていますので，4ページで設定した、このパソコンのIDとパスワードでもう一度入り直してください。   </t>
-  </si>
-  <si>
     <t>win10-1-14.svg</t>
   </si>
   <si>
-    <t>Windowsを最新版にアップデートし、Microsoft Office などをインストールしましょう。</t>
-  </si>
-  <si>
     <t>必要なソフトウェアのインストール</t>
   </si>
   <si>
-    <t xml:space="preserve">ソフトのインストールに必要なファイルを、USBメモリにいれて配布しますので、まずそれを各々のPCにコピーしてください。そのあと、インストールを開始します。ここでは、Microsoft OfficeとGoogle Chromeインストールを行います。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#copy"&gt;USBメモリからファイルをコピーする&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Officeを入れる&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#chrome"&gt;Chromeを入れる&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
-  </si>
-  <si>
     <t>&lt;h2&gt;この章を始める前に&lt;/h2&gt;</t>
   </si>
   <si>
-    <t>&lt;h2&gt;&lt;a name="copy"&gt;&lt;/a&gt;USBメモリからファイルをコピーする&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">配布されたUSBメモリをUSBポートに挿します。PCがUSBメモリを正常に認識すると、ぽんぽこりんという音がします。
-  </t>
-  </si>
-  <si>
-    <t>win10-2-01.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画面の右下に「FIRST LECというリムーバブルドライブをはじめて認識したけどどうする？」という旨のメッセージが出ます。それをクリックしてください。
-  </t>
-  </si>
-  <si>
-    <t>win10-2-02.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画面右上に可能な操作のリストが表示されます。「フォルダーを開いてファイルを表示」を選んでください。
-  </t>
-  </si>
-  <si>
-    <t>win10-2-03.svg</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>win10-2-07.svg</t>
-  </si>
-  <si>
-    <t>win10-2-08.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">このような画面になったらできあがりです。「閉じる」をクリックして作業終了。
-  </t>
-  </si>
-  <si>
-    <t>win10-2-09.svg</t>
-  </si>
-  <si>
     <t>&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;Chromeを入れる&lt;/h2&gt;</t>
   </si>
   <si>
@@ -232,10 +161,6 @@
   </si>
   <si>
     <t>学内ネットワークへの接続</t>
-  </si>
-  <si>
-    <t xml:space="preserve">広島大学では、図書館、講義室、福利施設など学内の多くの共用スペースで、「HiNET Wi-Fi」が利用できます。ここでは、HiNET Wi-Fiを通して、あなたのPCで学内ネットワークとインターネットを利用できるようにしましょう。一度設定すると、次回からは（同じエリアでは）設定不要です。
- </t>
   </si>
   <si>
     <t xml:space="preserve">設定にはいる前に、広島大学で情報サービスを使うときに必要がIDが二種類あることを確認しましょう。二種類とも学生番号をもとにしています。
@@ -248,18 +173,7 @@
     <t>win10-4-01.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">PCをHINET Wi-Fiに接続する設定をおこないます。
-画面右下のWi-Fiアイコンをみてください。最初の指示通りWi-Fi機能をオフにしている場合には、&lt;img height="30px" src="image/win10-wifi-indicator_3.png" /&gt;のようなアイコンになっています。まずこれをクリックして、&amp;quot;Wi-Fi&amp;quot;のボタンをクリック、Wi-Fi機能をオンにしましょう
-Wi-Fi機能がオンになるとタスクバーのアイコンが&lt;img height="30px" src="image/win10-wifi-indicator_1.png" /&gt;となります。次の項目に進みましょう
-  </t>
-  </si>
-  <si>
     <t>win10-4-02.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wi-Fiの一覧が出ますので，「HU-CUPXX」(XXは数字) を選択します。数字の部分はエリアで異なります。 総合科学部付近では「HU-CUP30」に接続できます。霞は「HU-CUP40」、東千田は「HU-CUP50」です。 
-&lt;p class="spl"&gt;※ 教室で「HU-CUPXX」が表示されない場合は、あなたのパソコンが教室の無線LANに対応していないのかもしれません。メディアセンターに相談してください。&lt;/p&gt;
-  </t>
   </si>
   <si>
     <t>win10-4-03.svg</t>
@@ -287,38 +201,10 @@
     <t>win10-4-06.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">手順 [3] で選んだ HU-CUPXX ですが、どのエリアでどんな名前のアクセスポイントが使われているかを示します。
-  </t>
-  </si>
-  <si>
     <t>win10-4-07.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div class="panel-heading"&gt;&lt;span class="glyphicon glyphicon-warning-sign"&gt;&lt;/span&gt;
-パスワードを変更したら...&lt;/div&gt;
-&lt;div class="panel-body" style="padding:10px"&gt;この章の一番最初に「一度設定したら次回からは（同じエリアでは）設定不要です」などと書かれていますが、パスワードを変更した場合には再設定が必要になります。 &lt;/div&gt;
-  </t>
-  </si>
-  <si>
     <t>win10-4-10.png</t>
-  </si>
-  <si>
-    <t>Microsoft Update を使って、Windows と Office がつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。</t>
-  </si>
-  <si>
-    <t>自動アップデートとソフトのセットアップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Update を使って、WindowとOfficeがつねに最新版で使えるように設定します。また、Officeを利用するには、広大メールアドレスでのサインインが必要ですので、これをやっておきましょう。
-さらに、Defenderでのフルスキャン（全てのファイルに対するウィルスチェック）のやり方を確認しておきます。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Windows Updateの設定&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#defender"&gt;Defenderの手動更新とフルスキャン&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Officeのアクティベーション&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;Windows Updateの設定&lt;/h2&gt;</t>
@@ -357,16 +243,6 @@
   </si>
   <si>
     <t>win10-5-09.svg</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeのアクティベーション&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、Officeのアクティベートをします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための作業です。
-Officeに含まれるアプリを起動しましょう。どれでも良いのですが、ここではExcelを起動します。
-左下のWindowsアイコンをクリックし、表示されるメニューから「Excel」を探してクリックしましょう。
-※ 見つからない時は、キーボードから「Excel」と打ち込んでみてください。
-  </t>
   </si>
   <si>
     <t>win10-5-12.svg</t>
@@ -611,12 +487,6 @@
     <t>&lt;h3&gt;F3S講習会&lt;/h3&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div class="panel-heading"&gt;&lt;span class="glyphicon glyphicon-warning-sign"&gt;&lt;/span&gt;&lt;a name="wrongkb"&gt;&lt;/a&gt; Surfaceを利用されているみなさん&lt;/div&gt;
-&lt;div class="panel-body" style="padding:10px"&gt;パソコンのスペック確認はここまでです。Surfaceをつかっている方は、タイプカバーキーボード設定に不具合がある場合が多いようなので、確認しておきましょう。不具合の内容は、キーボードが日本語用のものなのに、英語用になっているというものです。文字キーは同じですが、記号の配列が違うため、正常に入力できません。 &lt;/div&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">次に、HDD/SSDの容量を調べましょう。HDD (Hard Disk Drive)や SSD (Solid State Drive) は、メインメモリほど読み書きが速くないですが、大容量でPCの電源を切っても内容が消えません。
 まず画面下の帯の部分（タスクバー）のフォルダアイコンをクリックします。
 表示されるウィンドウの左の「PC」をクリックしてください。
@@ -646,12 +516,6 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2020 Win10 chap.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FIRST LECというウィンドウが開きます。その中に入っている「setup2020-win10」というフォルダをデスクトップにドラッグしてコピーしましょう。
-※ コピーをするには、フォルダを選択してcontrol-C （コピー）、デスクトップをクリックして control-V （貼り付け）する方法もあります。
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -695,40 +559,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">この章では、初期講習会の会場で配布されるUSBメモリの使用を前提に説明しています。
-講習会に参加できなかった方が以降の作業を行いたい場合は、以下のいずれかをしてください。
-&lt;ol&gt;&lt;li&gt;メディアセンターのカウンターに行ってUSBメモリを借り、この章の説明にしたがって行う。&lt;/li&gt;
-&lt;li&gt;Web上の配布サイトから直接ダウンロードしてインストールし、次の章に進む。 ※ 以下のサイトの説明に従ってください。開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
-&lt;ul&gt;&lt;li&gt;&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2013Pro.html"&gt;Office&lt;/a&gt;
- &lt;/li&gt;
-&lt;li&gt;&lt;a href="https://www.google.com/chrome/"&gt;Chrome（Webブラウザ）&lt;/a&gt;
- &lt;/li&gt;
-&lt;/ul&gt;
- &lt;/li&gt;
- &lt;/ol&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">プログラムをインストールするときは、文書を作成するなどの通常の利用とは違う場所にファイルを作成しますので、このような警告が表示されます。「はい」をクリックしてください。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">まず、大学のプリンタへの印刷について。
 学内ネットワークからであれば、必携PCから大学のプリンタへ印刷できます。印刷したいものをPDFで用意し、Webブラウザで印刷用のWebサーバに送ります。そのあと、プリンタが設置してあるところに行って、印刷操作をしてください。その際、印刷料金がかかります。白黒印刷は1枚4円、カラー印刷は1枚13円です。MYple（学生証にチャージする生協の電子マネー）で支払ってください。 
 詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/print/webprint"&gt;「Webプリントサービス」&lt;/a&gt;
 で。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">最後にバッテリー駆動時間を確認しましょう。
-画面下のタスクバーのバッテリーアイコンをクリックしてください。すると、バッテリー残量がパーセント表示され、およそあと何時間利用できるかの推定値が表示されます。
-100%充電時のここの残り時間表示が、あなたのPCのバッテリー駆動時間の推定値ということになります。（例：80%で「残り6時間」であれば、6÷0.8=7.5なので、バッテリー駆動時間は7.5時間）
-&lt;div class="spl"&gt;※ 残り時間は、システム起動後ある程度時間が経過し、しかも使用状況が安定した状態でないと表示されないようです。
-時間を置いて何度か試してみても表示されないようであれば、カタログなどで仕様を確認して記入してください。
- &lt;/div&gt;
   </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -776,12 +610,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">次にGoogle Chromeを入れます。USBメモリからコピーしたWindowsフォルダにある &amp;quot;ChromeStandaloneSetup64&amp;quot;をダブルクリックして開いてください。
-「このアプリがデバイスに変更を加えることを許可しますか」と聞かれるので「はい」と答えてください。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">ウィルス対策ソフトのDefenderを含めて、Windows基本システムは定期的に自動更新されます。
 このウィンドウの上の方で更新状況が確認できます。&lt;span class="check"&gt;check-4&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
@@ -817,13 +645,6 @@
   </t>
   </si>
   <si>
-    <t xml:space="preserve">ネットワークに接続するための画面がでます。あとで設定しますので、ここでは左下の「インターネットに接続していません」をクリックし、何もせずに飛ばします。
-  </t>
-  </si>
-  <si>
-    <t>「インターネットに接続すると、・・・」と再度確認の画面が出ます。左下の「制限された設定で続行する」をクリックして飛ばします。</t>
-  </si>
-  <si>
     <t xml:space="preserve">Windows 10の使用許諾契約が表示されます。
 ここには、みなさんがどういう条件でWindows を利用できるかということが細かく書かれています。内容を確認して「同意」をクリックしてください。
 ※ この内容は、「設定」→「システム」→「バージョン情報」の画面で「マイクロソフトライセンス条項を読む」をクリックすると、いつでも読めます。
@@ -833,20 +654,7 @@
     <t>「パスワードの確認」として、先ほど決めたパスワードをもう一度入力します。</t>
   </si>
   <si>
-    <t xml:space="preserve">「このアカウントのセキュリティの質問」を作成するように促されます。これは、パスワードを忘れてしまった時に、代わりになる質問を入れておく機能です。
-しかしこのPCに触れる人なら誰でもこの質問を使ってログインできてしまうので、あなたのPCが乗っ取られる危険性を大きくするものです。あまり良い機能ではありません。
-何か記入をしないと次に進めないので、あえて質問とは関係のない答を入れるのがおススメです。
-  </t>
-  </si>
-  <si>
     <t xml:space="preserve">「デジタルアシスタントの利用」も、今の所は「拒否」としておきます。後から使うように変更できます。
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">「デバイスのプライバシー設定の選択」では、あなたのプライバシー情報がMicrosoftのサーバなどに送られる可能性がある機能のオン／オフを設定します。
-本来は、利便性とプライバシーを比較して各個人で決定するものです。
-Microsoftは全部をオンにすることを勧めていますが、「音声認識」と「位置情報」以外の五つは利用者にとってそれほどメリットがあるものではないので、オフにしておいたら良いでしょう。
-「同意」をクリックします。これで設定項目は終了です。しばらく待ちましょう。
   </t>
   </si>
   <si>
@@ -856,14 +664,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">顔認証は結構面白くて便利ですが、設定に少し時間がかかりますので今はスキップしておきましょう。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネットワークに接続した時点で、「Windowsをよりいっそう活用できるようになります」という画面が出ることがあります。これは初期設定のときにスキップした設定をするところですが、ここでは左下の「今はスキップ」をクリックしてください。ここで行う設定は後でできます。</t>
-  </si>
-  <si>
     <t xml:space="preserve">自動アップデートのタイミング以外にDefenderを更新する方法について説明します。Windowsの自動更新機能で、Defenderは最新状態にたもたれます。しかし、緊急の脆弱性が発表された場合など、すぐに更新した方が良い時もあります。
 ウィンドウ左のリストから「Windows セキュリティ」をクリックし、「Windows セキュリティを開く」をクリックします。
   </t>
@@ -871,13 +671,6 @@
   </si>
   <si>
     <t xml:space="preserve">この画面で「更新プログラムのチェック」をクリックすると、脅威の定義の新しいものが出ているか確認を行い、あればそれを入手します。普段は、定期的に自動で確認されているので、これを押す必要はありません。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">システム全体のウイルスチェックを実施する方法を確認します。チェックには時間がかかりますので、講習会の会場では行わないでください。
-システム全体のウイルスチェックを「フルスキャン」と呼びます。それに対して「クイックスキャン」はよく攻撃される場所に限定して調査を行いますので、時間が短くて済みます。
-フルスキャンを行うには「現在の脅威」のところにある「スキャンのオプション」をクリックしましょう。
   </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -974,16 +767,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>数分待つと、Windows10のデスクトップ画面が出てきます。Microsoft Teamsのアカウント入力要求が画面に出ますが、とりあえず右上の×マークをクリックして画面から消しましょう。</t>
-    <rPh sb="54" eb="56">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">歯車のアイコン「設定」をクリックして、出てくるメニューの中から「時刻と言語」をクリックしてください。
   </t>
     <rPh sb="19" eb="20">
@@ -995,35 +778,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">画面左下のWindowsアイコンをクリックした後Shiftキーを押しながら、「２」を押してみてください。
- そのときに「”」（ダブルクォーテーション）が出るならばキーボード設定は正常なので、下の項目は飛ばして次の章に進んでください。「＠」が出るならばキーボードの設定が間違って英語になっていますので、下の項目に進んで変更しましょう。  </t>
-    <rPh sb="76" eb="77">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-0-05a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1069,57 +823,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">三種類の高度なスキャンがありますね。「フルスキャン」を選んで下の「今すぐスキャン」ボタンを押すと、フルスキャンが実施されます。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-実施には数時間かかりますので、講習会会場では実施しないでください。講習会終了後、できるだけ早く実施し、点検届を完成させてください。
-右上の×をクリックして、ウィンドウを閉じましょう。
-  </t>
-    <rPh sb="179" eb="181">
-      <t>ミギウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-5-11a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-2-04a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-05.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-06a.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Office365 ProPlus の正規版がすでに入っている場合には、ここを飛ばして&lt;a href="#chrome"&gt;[10]に進んでください&lt;/a&gt;
-。Office2013が入っている場合は、それをそのままにしてOffice 365 ProPlus を追加インストールすることができます。
-デスクトップにコピーした「setup2020-win10」というフォルダをダブルクリックして開きます。さらに中に「officepropluswin-jp」というフォルダがあるので、ダブルクリックして開きます。
-「install」という項目をダブルクリックして実行してください。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「すぐに完了します」などと出ますが、なかなか終わりません。気長に待ちましょう。10分くらいかかります。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この章の設定をすると、今後は毎回アカウント名とパスワードを入れなくてもHINET Wi-Fiに接続できます。これは、入力されたものをWindowsが保存して、あなたの代わりに毎回送ってるからですね。
-ということは、パスワードを変更すると保存していたものでは繋がらなくなってしまいます。その際、「パスワードが違います」などという警告が出るわけでもなく、ただ無言で繋がらなくなりますので、メディアセンタに「突然繋がらなくなりました。壊れたんですか」って聞きに来る人も多いです。
-パスワードを変更をした場合は、以下のようにしてHINET Wi-Fiを再設定してください。
-&lt;ol&gt;&lt;li&gt;タスクバーのWi-Fiアイコンをクリック &lt;/li&gt;
-&lt;li&gt;&amp;quot;HU-CUPXX&amp;quot; で右クリック→削除。これを全てのHU-CUPXXで行います。 &lt;/li&gt;
-&lt;li&gt;すると、HU-CUPXXが未接続状態でまた表示されますので、この章でやったようにまた設定します。 &lt;/li&gt;
-&lt;/ol&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-0-02a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1136,11 +843,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">コピーが終わったらUSBメモリを取り外します。ウィンドウ左の「FIRST LEC (D:)」を右クリックして、「取り出し」をクリックします。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">「しばらくお待ちください」と言う旨のメッセージが表示され、処理が完了すると「準備が完了しました！」となります。「完了」をクリックしてください。
   </t>
     <phoneticPr fontId="1"/>
@@ -1155,15 +857,6 @@
   </si>
   <si>
     <t>win10-6-24a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があります。
-「サインインしてOffieを設定する」で「サインイン」をクリックしましょう。
-  </t>
-    <rPh sb="63" eb="65">
-      <t>セッテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1203,59 +896,6 @@
   </si>
   <si>
     <t>win10-5-23.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ライセンス契約に同意します」で「同意する」をクリックします。
-※本来は「利用許諾契約書を読む」で契約事項を読んでから同意するものですが、ここではそこまでしません。「ファイル」→「アカウント」→「Excelのバージョン情報」と辿ることで、いつでも読めます。
-これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-以上でこの章の作業は終了です。</t>
-    <rPh sb="6" eb="8">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホンライ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>キョダク</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>ケイヤクショ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>タド</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>ヨ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1354,6 +994,961 @@
 」の手続きをおこなわないと、アカウントがロックされ、メール等が使えなくなります。&lt;/dd&gt;
  &lt;/dl&gt;
   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「インターネットに接続すると、・・・」と再度確認の画面が出ます。左下の「制限された設定で続行する」をクリックして飛ばします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「このアカウントのセキュリティの質問」を作成するように促されます。これは、パスワードを忘れてしまった時に、代わりになる質問を入れておく機能です。
+しかしこのPCに触れる人なら誰でもこの質問を使ってログインできてしまうので、あなたのPCが乗っ取られる危険性を大きくするものです。あまり良い機能ではありません。
+何か記入をしないと次に進めないので、あえて質問とは関係のない答を入れるのがおススメです。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワークに接続するための画面がでます。広大の必携PCとして使う場合は、ここで接続設定をしないでください。ここでは左下の「インターネットに接続していません」をクリックして飛ばします。
+  </t>
+    <rPh sb="31" eb="32">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PCを使うときのユーザ名を記入します。自分で使いやすいものをきめてください。
+「ユーザ名」は、&amp;quot;ayase&amp;quot; など名前をローマ字にしたものにするのが一般的です。漢字やひらがななども使えますが、そうするとたまに動かないソフトがあります。ユーザ名には漢字やひらがななどを使わないようにしましょう。   </t>
+    <rPh sb="90" eb="92">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">顔認証は結構面白くて便利ですが、設定に少し時間がかかりますので今はスキップしておきましょう。後から使うように設定できます。   </t>
+    <rPh sb="46" eb="47">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「デバイスのプライバシー設定の選択」では、あなたのプライバシー情報がMicrosoftのサーバなどに送られる可能性がある機能のオン／オフを設定します。
+本来は、利便性とプライバシーを比較して各個人で決定するものです。
+Microsoftは全部をオンにすることを勧めていますが、「音声認識」と「位置情報」以外の五つは利用者にとってそれほどメリットがあるものではないので、ここではオフにしておきましょう。後で必要に応じて設定しなおせます。
+「同意」をクリックします。これで設定項目は終了です。しばらく待ちましょう。
+  </t>
+    <rPh sb="200" eb="201">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数分待つと、Windows10のデスクトップ画面が出てきます。Microsoft Teamsが自動的に画面に出てきますが、とりあえず右上の×マークをクリックして画面から消しましょう。</t>
+    <rPh sb="47" eb="50">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「バージョン情報」という名前のウィンドウが開きます。中にPCに関する情報がたくさん表示されています。
+「Windowsの仕様」をみると「エディション」のところに「Windows 10 Pro」とありますね。これがOSの種類です。「バージョン」のところには詳細なバージョン番号（いつの時点のOSか）が書かれています。&lt;span class="check"&gt;check-1&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+その上の方に「デバイスの仕様」がありますね。ここの「システムの種類」を見ると、OSのビット数がわかります。&amp;quot;64ビットオペレーティングシステム&amp;quot; とあります。この場合は64ビットですね。二進法で64桁のデータを一度に処理できるOSであるということを示しています。&lt;span class="check"&gt;check-2&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+その上に「実装RAM」と書かれたところがあります。ここを見ると、主記憶装置（メインメモリ）の容量がわかります。この場合は8GB（ギガバイト）ですね。この容量が大きいほど、大量のデータを一括して扱えたり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。
+  </t>
+    <rPh sb="298" eb="300">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="455" eb="457">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最後にバッテリー駆動時間を確認しましょう。
+画面下のタスクバーのバッテリーアイコンをクリックしてください。すると、バッテリー残量がパーセント表示され、およそあと何時間利用できるかの推定値が表示されます。
+100%充電時のここの残り時間表示が、あなたのPCのバッテリー駆動時間の推定値ということになります。（例：80%で「残り6時間」であれば、6÷0.8=7.5なので、バッテリー駆動時間は7.5時間）
+&lt;div class="spl"&gt;※ 残り時間は、システム起動後ある程度時間が経過し、しかも使用状況が安定した状態でないと表示されないようです。
+時間を置いて何度か試してみても表示されないようであれば、カタログなどで仕様を確認してください。
+ &lt;/div&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class="panel-heading"&gt;&lt;span class="glyphicon glyphicon-warning-sign"&gt;&lt;/span&gt;&lt;a name="wrongkb"&gt;&lt;/a&gt; Surfaceを利用されているみなさん&lt;/div&gt;
+&lt;div class="panel-body" style="padding:10px"&gt;パソコンのスペック確認はここまでです。Surfaceをつかっている方は、タイプカバーキーボード設定に不具合があることがあるので、確認しておきましょう。不具合の内容は、キーボードが日本語用のものなのに、英語用になっているというものです。文字キーは同じですが、記号の配列が違うため、正常に入力できません。 &lt;/div&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">画面左下のWindowsアイコンをクリックした後Shiftキーを押しながら、「２」を押してみてください。
+ そのときに「”」（ダブルクォーテーション）が出るならばキーボード設定は正常なので、この下の項目は飛ばして次の章に進んでください。「＠」が出るならばキーボードの設定が間違って英語になっていますので、次の項目に進んで変更しましょう。  </t>
+    <rPh sb="76" eb="77">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">左メニューの真ん中あたりにある「レイアウトを変更する」をクリックしてください。
+ すると青い画面がでますので，「英語キーボード(101/102キー）」となっているのを「日本語キーボード(106/109キー）」に変更し、「サインアウト」をクリックしてください。 これでキーボードが日本語の設定になりました。 一度サインアウトしてから、このパソコンのユーザ名とパスワードでもう一度入り直してください。   </t>
+    <rPh sb="176" eb="177">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では、Wi-Fiで広島大学の学内ネットワークに接続するための設定を行います。
+この章の作業はあなたが広島大学の中にいるときに行ってください。
+自宅などにいてWi-Fiを利用したインターネット接続環境がある場合は、そのWi-Fiを利用する接続設定をしてから次の章へ進み、この章の学内ネットワークへの接続設定は後日行ってください。</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ゴジツ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学では、図書館、講義室、福利施設など学内の多くの共用スペースで、「HiNET Wi-Fi」が利用できます。ここでは、HiNET Wi-Fiを通して、あなたのPCで学内ネットワークとインターネットを利用できるようにする方法を説明します。一度設定すると、次回からは（同じエリアでは）設定不要です。
+右の図では、どのエリアでどんな名前のアクセスポイントが使われているかを示します。
+ </t>
+    <rPh sb="111" eb="113">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PCをHINET Wi-Fiに接続する設定をおこないます。
+画面右下のWi-Fiアイコンをみてください。Wi-Fi機能をオフにしている場合には、&lt;img height="30px" src="image/win10-wifi-indicator_3.png" /&gt;のようなアイコンになっています。その場合は、まずこれをクリックして&amp;quot;Wi-Fi&amp;quot;のボタンをクリック、Wi-Fi機能をオンにしましょう
+Wi-Fi機能がオンになるとタスクバーのアイコンが&lt;img height="30px" src="image/win10-wifi-indicator_1.png" /&gt;となります。次の項目に進みましょう
+  </t>
+    <rPh sb="150" eb="152">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Wi-Fiの一覧が出ますので，「HU-CUPXX」(XXは数字) を選択します。数字の部分はエリアで異なります。 総合科学部付近では「HU-CUP30」に接続できます。霞は「HU-CUP40」、東千田は「HU-CUP50」です。 
+&lt;p class="spl"&gt;※ 教室（講義室）で「HU-CUPXX」が表示されない場合は、あなたのパソコンが教室の無線LANに対応していないのかもしれません。その場合は、メディアセンターに相談してください。&lt;/p&gt;
+  </t>
+    <rPh sb="133" eb="135">
+      <t>キョウシツ</t>
+    </rPh>
+    <rPh sb="136" eb="139">
+      <t>コウギシツ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワークに接続した時点で、「Windowsをよりいっそう活用できるようになります」という画面が出ることがあります。これはパソコンの初期設定のときにスキップした設定をするところですが、ここでは左下の「今はスキップ」をクリックしてください。ここにある設定は後でできます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class="panel-heading"&gt;&lt;span class="glyphicon glyphicon-warning-sign"&gt;&lt;/span&gt;
+パスワードを変更したら...&lt;/div&gt;
+&lt;div class="panel-body" style="padding:10px"&gt;この章の最初に「一度設定したら次回からは（同じエリアでは）設定不要です」と書かれていますが、パスワードを変更した場合には再設定が必要になります。 &lt;/div&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">この章の設定をすると、次回からは毎回アカウント名とパスワードを入れなくてもHINET Wi-Fiに接続できます。これは、入力されたものをWindowsが保存して、あなたの代わりに毎回送ってるからですね。
+ということは、パスワードを変更すると保存していたものでは繋がらなくなってしまいます。「パスワードが違います」などという警告も出ずにただ繋がらなくなるので、メディアセンタに「突然繋がらなくなりました。壊れたんですか」って聞きに来る人も多いのです。
+パスワードを変更をした場合は、以下のようにしてHINET Wi-Fiを再設定してください。
+&lt;ol&gt;&lt;li&gt;タスクバーのWi-Fiアイコンをクリック &lt;/li&gt;
+&lt;li&gt;&amp;quot;HU-CUPXX&amp;quot; で右クリック→削除。これを全てのHU-CUPXXで行います。 &lt;/li&gt;
+&lt;li&gt;すると、HU-CUPXXが未接続状態でまた表示されますので、この章でやったようにまた設定します。 &lt;/li&gt;
+&lt;/ol&gt;
+  </t>
+    <rPh sb="11" eb="13">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ここでは、Google Chrome と Microsoft Officeのインストールとアクティベーションを行います。
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Chrome と Microsoft Office をインストールしましょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
+    <rPh sb="32" eb="33">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「このアプリがデバイスに変更を加えることを許可しますか」と聞かれるので「はい」と答えてください。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">まずGoogle Chromeを入れます。Web上の配布サイトから直接ダウンロードしましょう。
+&lt;a href="https://www.google.com/chrome/"&gt;https://www.google.com/chrome/&lt;/a&gt;
+（または「Chrome インストール」を検索して出てくるChromeダウンロードページ）
+で、「Chromeをダウンロード」をクリックしてください。
+</t>
+    <rPh sb="144" eb="146">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Chrome 利用規約が表示されるので、「同意してインストール」をクリックします。
+</t>
+    <rPh sb="14" eb="16">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ドウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロードしたファイルを実行します。</t>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Win10 App.A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
+Microsoft Office については、広島大学の学生は個人所有のPCでいくつでも無償で利用することができます。
+ただし卒業までに継続利用手続きを行った１つ以外は卒業（もしくは退学）後は利用できなくなりますので、ご注意ください。
+※ここで紹介する配布サイトの中に「継続利用手続き」についても説明があります。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ムス</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>サダ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ムショウ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>ムショウ</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="246" eb="247">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="251" eb="253">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="261" eb="263">
+      <t>タイガク</t>
+    </rPh>
+    <rPh sb="264" eb="265">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="266" eb="268">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="280" eb="282">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="292" eb="294">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="296" eb="298">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="302" eb="303">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="318" eb="320">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">※ 以下のサイト「Office365 ProPlus Windows PC向け インストール手順」をブラウザで開き、説明に従ってください。
+開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
+&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2013Pro.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2013Pro.html&lt;/a&gt;
+ </t>
+    <rPh sb="55" eb="56">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このページの説明をひととおり下まで読んでから、左側メニューの「各種ソフトウェアのダウンロード」をクリックして進みます。</t>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「学生の個人所有PCへのインストールはここから」をクリック、さらに表示されるページの「個人所有PCのOffice製品は、Office365 Pro Plusをご利用ください」をクリックします。</t>
+    <rPh sb="1" eb="3">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「職場または学校アカウントでサインインする」には広大メールアドレスを入力してください。パスワードには広大パスワードを入力します。</t>
+    <rPh sb="1" eb="3">
+      <t>ショクバ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あとは画面に従ってインストーラーをダウンロードして保存し、そのインストーラーを起動するとOffice365ProPlusがインストールされます。画面に従って進行し、最後に使用許諾契約を承諾するために「同意する」をクリックすると、インストール完了です。
+※この方法でインストールしたOfficeはアクティベーションも完了しているので、すぐに使うことができます。ただしこの章の最初に書いたように、&lt;strong&gt;広島大学を卒業した後は利用できなくなります&lt;/strong&gt;ので注意してください。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ショウダク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="213" eb="214">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、Microsoft Officeに含まれるアプリを起動しましょう。どれでも良いのですが、ここではExcelを起動します。
+左下のWindowsアイコンをクリックし、表示されるメニューから「Excel」を探してクリックしましょう。
+※ 見つからない時は、キーボードから「Excel」と打ち込んでみてください。
+それでもExcelが見つからないか起動しない場合は、まずPCにOfficeをインストールする必要があります。このテキストの次の章「Officeのインストール」に進んでOfficeのインストールを行ってください。
+  </t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="220" eb="221">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="254" eb="255">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでは、まだOfficeがインストールされていないPCにOfficeをインストールする方法を説明します。</t>
+    <rPh sb="44" eb="46">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生個人所有のPCにMicrosoft Office をインストールする方法</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（付録A）Officeのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ライセンス契約に同意します」で「同意する」をクリックします。
+※本来は「利用許諾契約書を読む」で契約事項を読んでから同意するものです。「ファイル」→「アカウント」→「Excelのバージョン情報」と辿ればいつでも読めるので、時間のある時に読んでおいてください。
+これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+以上でこの章の作業は終了です。
+次の章「（付録A）Officeのインストール」は飛ばして、その次の章へ進んでください。</t>
+    <rPh sb="6" eb="8">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ケイヤクショ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>タド</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="229" eb="231">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="248" eb="249">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="257" eb="258">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="259" eb="260">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Update を使って、Windows と Office がつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows Update を使って、WindowとOfficeがつねに最新版で使えるように設定します。
+さらに、Defenderでのフルスキャン（全てのファイルに対するウィルスチェック）のやり方を確認しておきます。
+&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Windows Updateの設定&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#defender"&gt;Defenderの手動更新とフルスキャン&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">システム全体のウイルスチェックを実施する方法を確認します。ただしチェックには数時間がかかりますので、実施する際には時間の余裕を確認し、必ず電源アダプタをつないでください。、
+システム全体のウイルスチェックを「フルスキャン」と呼びます。それに対して「クイックスキャン」はよく攻撃される場所に限定して調査を行いますので、時間が短くて済みます。
+フルスキャンを行うには「現在の脅威」のところにある「スキャンのオプション」をクリックしましょう。
+  </t>
+    <rPh sb="38" eb="39">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>デンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三種類の高度なスキャンがありますね。「フルスキャン」を選んで下の「今すぐスキャン」ボタンを押すと、フルスキャンが実施されます。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+実施には数時間かかります。時間の余裕のあるときにできるだけ早く実施し、点検届を完成させてください。
+右上の×をクリックして、ウィンドウを閉じましょう。
+  </t>
+    <rPh sb="126" eb="128">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動アップデートのセットアップと、PCのフルスキャン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-41.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-42.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-43.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">右のように「サインインしてOffieを設定する」の画面が出た場合は、Officeのアクティベーションが必要です。これは、ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための作業です。Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があるわけです。
+「サインインしてOffieを設定する」で「サインイン」をクリックして、下の項目に進んでください。
+※右のような画面が出ずにExcelを使い始められる場合は、そのまま使っていただいて構いません。この下の項目と次の章を飛ばして、次の次の章「自動アップデートのセットアップと、PCのフルスキャン」に進んでください。
+  </t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="220" eb="221">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="243" eb="244">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="251" eb="252">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="256" eb="257">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="265" eb="266">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="267" eb="268">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="269" eb="270">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="299" eb="300">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-21.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-22.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1781,7 +2376,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1813,7 +2408,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1821,7 +2416,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1835,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1855,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1897,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -1905,7 +2500,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>5</v>
@@ -1933,13 +2528,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>225</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1947,7 +2542,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>11</v>
@@ -1958,10 +2553,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -1969,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>11</v>
@@ -1983,21 +2578,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>207</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>208</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -2005,27 +2600,27 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -2033,21 +2628,21 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -2055,13 +2650,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>173</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2069,21 +2664,21 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>226</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2091,13 +2686,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>227</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -2105,13 +2700,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>228</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2119,13 +2714,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>11</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2139,458 +2734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="130" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2607,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2615,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2631,15 +2775,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2648,118 +2792,304 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
       <c r="D8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2773,13 +3103,236 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2790,11 +3343,136 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2810,7 +3488,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2818,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2834,15 +3512,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2853,7 +3531,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2861,13 +3539,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2875,13 +3553,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2889,13 +3567,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2903,13 +3581,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>171</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2917,18 +3595,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2936,13 +3614,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2950,13 +3628,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2964,13 +3642,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2978,13 +3656,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2992,124 +3670,27 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3119,12 +3700,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3140,7 +3721,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3148,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3164,7 +3745,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3172,7 +3753,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3183,7 +3764,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3205,13 +3786,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3219,18 +3800,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3252,13 +3833,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3266,21 +3847,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3288,13 +3869,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3302,13 +3883,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3316,13 +3897,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3330,13 +3911,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3344,13 +3925,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3358,18 +3939,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3391,13 +3972,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3405,13 +3986,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3419,18 +4000,18 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3452,13 +4033,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3466,13 +4047,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3480,13 +4061,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3494,13 +4075,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3508,13 +4089,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3522,13 +4103,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3536,13 +4117,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3550,13 +4131,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3564,13 +4145,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3578,13 +4159,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
@@ -3592,18 +4173,18 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3611,7 +4192,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3625,13 +4206,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3639,13 +4220,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3653,21 +4234,21 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>199</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3675,13 +4256,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3691,12 +4272,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3712,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3728,7 +4309,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3736,7 +4317,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3747,17 +4328,17 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3765,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F260479-B229-4799-B6CD-A466AEBBBE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23D6F55-BBFF-4EDC-8A79-CCDC98D2A3CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37710" yWindow="1830" windowWidth="13500" windowHeight="8265" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
     <sheet name="ch2" sheetId="5" r:id="rId4"/>
     <sheet name="ch3" sheetId="4" r:id="rId5"/>
-    <sheet name="ch4" sheetId="9" r:id="rId6"/>
-    <sheet name="ch5" sheetId="6" r:id="rId7"/>
-    <sheet name="ch6" sheetId="7" r:id="rId8"/>
-    <sheet name="ch7" sheetId="8" r:id="rId9"/>
+    <sheet name="ch4" sheetId="6" r:id="rId6"/>
+    <sheet name="ch5" sheetId="7" r:id="rId7"/>
+    <sheet name="ch6" sheetId="8" r:id="rId8"/>
+    <sheet name="chA" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="246">
   <si>
     <t>header1</t>
   </si>
@@ -1469,66 +1469,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">※ 以下のサイト「Office365 ProPlus Windows PC向け インストール手順」をブラウザで開き、説明に従ってください。
-開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
-&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2013Pro.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2013Pro.html&lt;/a&gt;
- </t>
-    <rPh sb="55" eb="56">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このページの説明をひととおり下まで読んでから、左側メニューの「各種ソフトウェアのダウンロード」をクリックして進みます。</t>
-    <rPh sb="6" eb="8">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カクシュ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「学生の個人所有PCへのインストールはここから」をクリック、さらに表示されるページの「個人所有PCのOffice製品は、Office365 Pro Plusをご利用ください」をクリックします。</t>
-    <rPh sb="1" eb="3">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「職場または学校アカウントでサインインする」には広大メールアドレスを入力してください。パスワードには広大パスワードを入力します。</t>
     <rPh sb="1" eb="3">
       <t>ショクバ</t>
@@ -1551,131 +1491,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あとは画面に従ってインストーラーをダウンロードして保存し、そのインストーラーを起動するとOffice365ProPlusがインストールされます。画面に従って進行し、最後に使用許諾契約を承諾するために「同意する」をクリックすると、インストール完了です。
-※この方法でインストールしたOfficeはアクティベーションも完了しているので、すぐに使うことができます。ただしこの章の最初に書いたように、&lt;strong&gt;広島大学を卒業した後は利用できなくなります&lt;/strong&gt;ので注意してください。</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>キョダク</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ショウダク</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="169" eb="170">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="186" eb="188">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="189" eb="190">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="206" eb="208">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="209" eb="211">
-      <t>ソツギョウ</t>
-    </rPh>
-    <rPh sb="213" eb="214">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="215" eb="217">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="236" eb="238">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、Microsoft Officeに含まれるアプリを起動しましょう。どれでも良いのですが、ここではExcelを起動します。
-左下のWindowsアイコンをクリックし、表示されるメニューから「Excel」を探してクリックしましょう。
-※ 見つからない時は、キーボードから「Excel」と打ち込んでみてください。
-それでもExcelが見つからないか起動しない場合は、まずPCにOfficeをインストールする必要があります。このテキストの次の章「Officeのインストール」に進んでOfficeのインストールを行ってください。
-  </t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="220" eb="221">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="237" eb="238">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="254" eb="255">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここでは、まだOfficeがインストールされていないPCにOfficeをインストールする方法を説明します。</t>
-    <rPh sb="44" eb="46">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学生個人所有のPCにMicrosoft Office をインストールする方法</t>
     <rPh sb="0" eb="2">
       <t>ガクセイ</t>
@@ -1693,90 +1508,6 @@
   </si>
   <si>
     <t>（付録A）Officeのインストール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ライセンス契約に同意します」で「同意する」をクリックします。
-※本来は「利用許諾契約書を読む」で契約事項を読んでから同意するものです。「ファイル」→「アカウント」→「Excelのバージョン情報」と辿ればいつでも読めるので、時間のある時に読んでおいてください。
-これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-以上でこの章の作業は終了です。
-次の章「（付録A）Officeのインストール」は飛ばして、その次の章へ進んでください。</t>
-    <rPh sb="6" eb="8">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホンライ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>キョダク</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>ケイヤクショ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>タド</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="224" eb="225">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="226" eb="227">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="229" eb="231">
-      <t>フロク</t>
-    </rPh>
-    <rPh sb="248" eb="249">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="255" eb="256">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="257" eb="258">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="259" eb="260">
-      <t>スス</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1859,9 +1590,58 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>win10-4-21.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-22.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、Microsoft Officeに含まれるアプリを起動しましょう。どれでも良いのですが、ここではExcelを起動します。
+左下のWindowsアイコンをクリックし、表示されるメニューから「Excel」を探してクリックしましょう。
+※ 見つからない時は、キーボードから「Excel」と打ち込んでみてください。
+それでもExcelが見つからないか起動しない場合は、まずPCにOfficeをインストールする必要があります。このテキストの一番後ろにある章「（付録A）Officeのインストール」に進んでOfficeのインストールを行ってください。
+  </t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="220" eb="221">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="264" eb="265">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">右のように「サインインしてOffieを設定する」の画面が出た場合は、Officeのアクティベーションが必要です。これは、ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための作業です。Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があるわけです。
 「サインインしてOffieを設定する」で「サインイン」をクリックして、下の項目に進んでください。
-※右のような画面が出ずにExcelを使い始められる場合は、そのまま使っていただいて構いません。この下の項目と次の章を飛ばして、次の次の章「自動アップデートのセットアップと、PCのフルスキャン」に進んでください。
+※右のような画面が出ずにExcelを使い始められる場合は、そのまま使っていただいて構いません。この下の項目は飛ばして、次の章「自動アップデートのセットアップと、PCのフルスキャン」に進んでください。
   </t>
     <rPh sb="0" eb="1">
       <t>ミギ</t>
@@ -1921,34 +1701,267 @@
       <t>コウモク</t>
     </rPh>
     <rPh sb="256" eb="257">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="261" eb="262">
       <t>ツギ</t>
     </rPh>
-    <rPh sb="258" eb="259">
+    <rPh sb="263" eb="264">
       <t>ショウ</t>
     </rPh>
-    <rPh sb="260" eb="261">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="265" eb="266">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="267" eb="268">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="269" eb="270">
+    <rPh sb="293" eb="294">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ライセンス契約に同意します」で「同意する」をクリックします。
+※本来は「利用許諾契約書を読む」で契約事項を読んでから同意するものです。「ファイル」→「アカウント」→「Excelのバージョン情報」と辿ればいつでも読めるので、時間のある時に読んでおいてください。
+これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+以上でこの章の作業は終了です。</t>
+    <rPh sb="6" eb="8">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ケイヤクショ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>タド</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このテキストの第４章「自動アップデートのセットアップと、PCのフルスキャン」に戻ってください。</t>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
       <t>ショウ</t>
     </rPh>
-    <rPh sb="299" eb="300">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-4-21.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-4-22.png</t>
+    <rPh sb="39" eb="40">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでは、まだOfficeがインストールされていないPCに広島大学の提供するOffice365ProPlusをインストールする方法を説明します。</t>
+    <rPh sb="29" eb="31">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;広島大学学生向けOffice365ProPlusのインストール&lt;/h2&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以下のサイト「Office365 ProPlus Windows PC向け インストール手順」をブラウザで開き、説明に従ってください。
+開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
+&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2013Pro.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2013Pro.html&lt;/a&gt;
+ </t>
+    <rPh sb="53" eb="54">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このページの説明をひととおり下まで読んでから、左側メニューの「各種ソフトウェアのダウンロード」をクリックします。</t>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「学生の個人所有PCへのインストールはここから」をクリック、さらに表示されるページにある「個人所有PCのOffice製品は、Office365 Pro Plusをご利用ください」をクリックします。</t>
+    <rPh sb="1" eb="3">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あとは画面に従ってインストーラーをダウンロードして保存し、そのインストーラーを起動するとOffice365ProPlusがインストールされます。画面に従って進行し、最後に使用許諾契約を承諾するために「同意する」をクリックすると、インストール完了です。
+※この方法でインストールしたOfficeはアクティベーションも済んでいるので、すぐに使うことができます。ただしこの章の最初に書いたように、&lt;strong&gt;広島大学を卒業した後は利用できなくなります&lt;/strong&gt;ので注意してください。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ショウダク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="212" eb="213">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>チュウイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3123,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3191,7 +3204,7 @@
         <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3199,7 +3212,7 @@
         <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3207,7 +3220,7 @@
         <v>220</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3248,7 +3261,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3259,7 +3272,7 @@
     </row>
     <row r="15" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
         <v>190</v>
@@ -3321,12 +3334,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>5</v>
@@ -3343,11 +3356,906 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" t="s" ph="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3363,7 +4271,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3371,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3390,12 +4298,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3414,945 +4322,60 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>225</v>
+        <v>243</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="D12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" t="s" ph="1">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23D6F55-BBFF-4EDC-8A79-CCDC98D2A3CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5361FD4-18C7-46A1-B98F-D04B1967B47F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="ch4" sheetId="6" r:id="rId6"/>
     <sheet name="ch5" sheetId="7" r:id="rId7"/>
     <sheet name="ch6" sheetId="8" r:id="rId8"/>
-    <sheet name="chA" sheetId="9" r:id="rId9"/>
+    <sheet name="ch7" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,12 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="248">
   <si>
     <t>header1</t>
-  </si>
-  <si>
-    <t>広島大学必携PC初期講習会</t>
   </si>
   <si>
     <t>template</t>
@@ -146,9 +143,6 @@
   </si>
   <si>
     <t>&lt;h2&gt;この章を始める前に&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;Chromeを入れる&lt;/h2&gt;</t>
   </si>
   <si>
     <t>win10-2-10.svg</t>
@@ -696,11 +690,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">必携PC初期講習会では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。本日おこなうことを以下にあげます。おおむね90分くらいかかると思います。頑張ってください。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Chromeのインストールはあっという間に終わります。自動的にChromeが起動して初期設定を行うよう促してきますが、ここでは右上の×をクリックして閉じてください。
 &lt;p class="spl"&gt;※ Windows10にはEdgeというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページがときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;
   </t>
@@ -1282,13 +1271,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
-    <rPh sb="32" eb="33">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">「このアプリがデバイスに変更を加えることを許可しますか」と聞かれるので「はい」と答えてください。
   </t>
     <phoneticPr fontId="1"/>
@@ -1466,48 +1448,6 @@
     <rPh sb="318" eb="320">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「職場または学校アカウントでサインインする」には広大メールアドレスを入力してください。パスワードには広大パスワードを入力します。</t>
-    <rPh sb="1" eb="3">
-      <t>ショクバ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生個人所有のPCにMicrosoft Office をインストールする方法</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（付録A）Officeのインストール</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1526,54 +1466,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">システム全体のウイルスチェックを実施する方法を確認します。ただしチェックには数時間がかかりますので、実施する際には時間の余裕を確認し、必ず電源アダプタをつないでください。、
-システム全体のウイルスチェックを「フルスキャン」と呼びます。それに対して「クイックスキャン」はよく攻撃される場所に限定して調査を行いますので、時間が短くて済みます。
-フルスキャンを行うには「現在の脅威」のところにある「スキャンのオプション」をクリックしましょう。
-  </t>
-    <rPh sb="38" eb="39">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>デンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">三種類の高度なスキャンがありますね。「フルスキャン」を選んで下の「今すぐスキャン」ボタンを押すと、フルスキャンが実施されます。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-実施には数時間かかります。時間の余裕のあるときにできるだけ早く実施し、点検届を完成させてください。
-右上の×をクリックして、ウィンドウを閉じましょう。
-  </t>
-    <rPh sb="126" eb="128">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>ミギウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自動アップデートのセットアップと、PCのフルスキャン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1595,185 +1487,6 @@
   </si>
   <si>
     <t>win10-4-22.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、Microsoft Officeに含まれるアプリを起動しましょう。どれでも良いのですが、ここではExcelを起動します。
-左下のWindowsアイコンをクリックし、表示されるメニューから「Excel」を探してクリックしましょう。
-※ 見つからない時は、キーボードから「Excel」と打ち込んでみてください。
-それでもExcelが見つからないか起動しない場合は、まずPCにOfficeをインストールする必要があります。このテキストの一番後ろにある章「（付録A）Officeのインストール」に進んでOfficeのインストールを行ってください。
-  </t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="220" eb="221">
-      <t>ウシ</t>
-    </rPh>
-    <rPh sb="225" eb="226">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="228" eb="230">
-      <t>フロク</t>
-    </rPh>
-    <rPh sb="247" eb="248">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="264" eb="265">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">右のように「サインインしてOffieを設定する」の画面が出た場合は、Officeのアクティベーションが必要です。これは、ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための作業です。Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があるわけです。
-「サインインしてOffieを設定する」で「サインイン」をクリックして、下の項目に進んでください。
-※右のような画面が出ずにExcelを使い始められる場合は、そのまま使っていただいて構いません。この下の項目は飛ばして、次の章「自動アップデートのセットアップと、PCのフルスキャン」に進んでください。
-  </t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="193" eb="194">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="203" eb="204">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="208" eb="210">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="211" eb="212">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="220" eb="221">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="222" eb="223">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="227" eb="229">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="235" eb="236">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="243" eb="244">
-      <t>カマ</t>
-    </rPh>
-    <rPh sb="251" eb="252">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="253" eb="255">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="256" eb="257">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="261" eb="262">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="263" eb="264">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="293" eb="294">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ライセンス契約に同意します」で「同意する」をクリックします。
-※本来は「利用許諾契約書を読む」で契約事項を読んでから同意するものです。「ファイル」→「アカウント」→「Excelのバージョン情報」と辿ればいつでも読めるので、時間のある時に読んでおいてください。
-これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-以上でこの章の作業は終了です。</t>
-    <rPh sb="6" eb="8">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホンライ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>キョダク</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>ケイヤクショ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>タド</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>ヨ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1786,25 +1499,6 @@
     </rPh>
     <rPh sb="39" eb="40">
       <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここでは、まだOfficeがインストールされていないPCに広島大学の提供するOffice365ProPlusをインストールする方法を説明します。</t>
-    <rPh sb="29" eb="31">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1961,6 +1655,337 @@
     </rPh>
     <rPh sb="235" eb="237">
       <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-23.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-24.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「職場または学校アカウントでサインインする」には広大メールアドレス（ IMCアカウント名@hiroshima-u.ac.jp ）を入力してください。パスワードには広大パスワードを入力します。</t>
+    <rPh sb="1" eb="3">
+      <t>ショクバ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">右のように「サインインしてOffieを設定する」の画面が出た場合は、Officeのアクティベーションが必要です。これは、ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための作業です。Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があるわけです。
+「サインインしてOffieを設定する」で「サインイン」をクリックして、下の項目に進んでください。
+&lt;p class="spl"&gt;※右のような画面が出ずにExcelを使い始められる場合は、そのまま使っていただいて構いません。この下の項目は飛ばして、次の章「自動アップデートのセットアップと、PCのフルスキャン」に進んでください。&lt;/p&gt;
+  </t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="250" eb="251">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="266" eb="267">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="308" eb="309">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、Microsoft Officeに含まれるアプリを起動しましょう。どれでも良いのですが、ここではExcelを起動します。
+左下のWindowsアイコンをクリックし、表示されるメニューから「Excel」を探してクリックしましょう。
+&lt;p class="spl"&gt;※ 見つからない時は、キーボードから「Excel」と打ち込んでみてください。
+それでもExcelが見つからないか起動しない場合は、まずPCにOfficeをダウンロードする必要があります。このテキストの一番後ろにある章「（付録A）Officeのダウンロード」に進んでください。&lt;/p&gt;
+  </t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（付録A）Officeのダウンロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでは、まだOfficeがインストールされていないPCに広島大学の提供するOffice365ProPlusをダウンロードしてインストールする方法を説明します。</t>
+    <rPh sb="29" eb="31">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生個人所有のPCにMicrosoft Office をダウンロードする方法</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ライセンス契約に同意します」で「同意する」をクリックします。
+&lt;p class="spl"&gt;※本来は「利用許諾契約書を読む」で契約事項を読んでから同意するものです。「ファイル」→「アカウント」→「Excelのバージョン情報」と辿ればいつでも読めるので、時間のある時に読んでおいてください。&lt;/p&gt;
+これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+以上でこの章の作業は終了です。</t>
+    <rPh sb="6" eb="8">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ケイヤクショ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>タド</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学必携PC初期講習会（オンライン版）</t>
+    <rPh sb="8" eb="10">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>コウシュウカイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">必携PC初期講習会（オンライン版）では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。ここでおこなうことを以下にあげます。おおむね90分くらいかかると思います。頑張ってください。
+  </t>
+    <rPh sb="4" eb="6">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;Google Chromeを入れる&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Microsoft Officeを入れる&lt;/h2&gt;</t>
+    <rPh sb="42" eb="43">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三種類の高度なスキャンがありますね。「フルスキャン」を選んで下の「今すぐスキャン」ボタンを押すと、フルスキャンが実施されます。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+フルスキャンの実施には数時間かかります。時間の余裕のあるときにできるだけ早く実施し、点検届を完成させてください。
+右上の×をクリックして、ウィンドウを閉じましょう。
+  </t>
+    <rPh sb="133" eb="135">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">システム全体のウイルスチェックを実施する方法を確認します。ただしチェックには数時間かかりますので、実施する際には時間の余裕を確認し、必ず電源アダプタをつないでください。、
+システム全体のウイルスチェックを「フルスキャン」と呼びます。それに対して「クイックスキャン」はよく攻撃される場所に限定して調査を行いますので、時間が短くて済みます。
+フルスキャンを行うには「現在の脅威」のところにある「スキャンのオプション」をクリックしましょう。
+  </t>
+    <rPh sb="38" eb="39">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>デンゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2000,7 +2025,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2010,12 +2035,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2044,10 +2063,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2389,7 +2408,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2405,51 +2424,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2463,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -2478,10 +2497,10 @@
   <sheetData>
     <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s" ph="1">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s" ph="1">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2489,251 +2508,251 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s" ph="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s" ph="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" ph="1">
         <v>10</v>
       </c>
-      <c r="C7" t="s" ph="1">
+      <c r="D7" t="s" ph="1">
         <v>11</v>
-      </c>
-      <c r="D7" t="s" ph="1">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s" ph="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s" ph="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s" ph="1">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s" ph="1">
         <v>16</v>
-      </c>
-      <c r="C16" t="s" ph="1">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" ph="1">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s" ph="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s" ph="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2746,1423 +2765,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" t="s" ph="1">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -4178,69 +2780,174 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4250,11 +2957,205 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
-  <dimension ref="A1:D15"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -4268,10 +3169,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4279,103 +3180,1224 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="5" customFormat="1" ht="91" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" t="s" ph="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="D8" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5361FD4-18C7-46A1-B98F-D04B1967B47F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19720A68-9961-4584-975B-AAB593A36601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18230" windowHeight="11400" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="250">
   <si>
     <t>header1</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>&lt;h2&gt;この章を始める前に&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>win10-2-10.svg</t>
   </si>
   <si>
     <t>win10-2-11.svg</t>
@@ -652,12 +649,6 @@
   </t>
   </si>
   <si>
-    <t xml:space="preserve">Surfaceの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとは概ね言われるままにしていけば大丈夫です。
-すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">自動アップデートのタイミング以外にDefenderを更新する方法について説明します。Windowsの自動更新機能で、Defenderは最新状態にたもたれます。しかし、緊急の脆弱性が発表された場合など、すぐに更新した方が良い時もあります。
 ウィンドウ左のリストから「Windows セキュリティ」をクリックし、「Windows セキュリティを開く」をクリックします。
   </t>
@@ -809,10 +800,6 @@
   </si>
   <si>
     <t>win10-5-06a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-5-11a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1262,15 +1249,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ここでは、Google Chrome と Microsoft Officeのインストールとアクティベーションを行います。
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Google Chrome と Microsoft Office をインストールしましょう。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">「このアプリがデバイスに変更を加えることを許可しますか」と聞かれるので「はい」と答えてください。
   </t>
     <phoneticPr fontId="1"/>
@@ -1303,13 +1281,6 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ドウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダウンロードしたファイルを実行します。</t>
-    <rPh sb="13" eb="15">
-      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1470,23 +1441,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-2-41.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-2-42.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-43.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-4-21.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-4-22.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1663,10 +1618,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-4-24.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「職場または学校アカウントでサインインする」には広大メールアドレス（ IMCアカウント名@hiroshima-u.ac.jp ）を入力してください。パスワードには広大パスワードを入力します。</t>
     <rPh sb="1" eb="3">
       <t>ショクバ</t>
@@ -1763,44 +1714,6 @@
       <t>ショウ</t>
     </rPh>
     <rPh sb="308" eb="309">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、Microsoft Officeに含まれるアプリを起動しましょう。どれでも良いのですが、ここではExcelを起動します。
-左下のWindowsアイコンをクリックし、表示されるメニューから「Excel」を探してクリックしましょう。
-&lt;p class="spl"&gt;※ 見つからない時は、キーボードから「Excel」と打ち込んでみてください。
-それでもExcelが見つからないか起動しない場合は、まずPCにOfficeをダウンロードする必要があります。このテキストの一番後ろにある章「（付録A）Officeのダウンロード」に進んでください。&lt;/p&gt;
-  </t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="235" eb="236">
-      <t>ウシ</t>
-    </rPh>
-    <rPh sb="240" eb="241">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="243" eb="245">
-      <t>フロク</t>
-    </rPh>
-    <rPh sb="262" eb="263">
       <t>スス</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1987,6 +1900,187 @@
     <rPh sb="68" eb="70">
       <t>デンゲン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ここでは、Google Chrome と Microsoft Officeのインストールとアクティベーションを行います。
+&lt;ul&gt;&lt;li&gt;&lt;a href="#chrome"&gt;Google Chromeのインストール&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#office"&gt;Microsoft Officeのアクティベーション&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Chrome と Microsoft Office を使えるようにしましょう。</t>
+    <rPh sb="34" eb="35">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Surfaceの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとはだいたい言われるままにしていけば大丈夫です。
+すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-41.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-43.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-44.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しばらくすると画面の下のところでアイコンが黄色く点滅するので、それをクリックします。
+&lt;p class="spl"&gt;※自動的に画面が切り替わることもありますので、その場合は下の項目に進んでください。&lt;/p&gt;</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-10a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロードしたファイルを実行します。
+&lt;p class="spl"&gt;※右図はWebブラウザにMicrosoft Edgeを使った場合の表示です。他のブラウザを使った場合、表示が少し違うものになりますが「ダウンロードしたファイルを実行する」ことは同じです。</t>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、Microsoft Officeに含まれるアプリを起動しましょう。どれでも良いのですが、ここではExcelを起動します。
+左下のWindowsアイコンをクリックし、表示されるメニューから「Excel」を探してクリックしましょう。
+&lt;p class="spl"&gt;※ 見つからない時は、キーボードから「Excel」と打ち込んでみてください。&lt;/p&gt;
+&lt;p class="spl"&gt;それでもExcelが見つからないか起動しない場合は、まずPCにOfficeをダウンロードする必要があります。このテキストの一番後ろにある「（付録A）Officeのダウンロード」の章に進んでください。&lt;/p&gt;
+  </t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="254" eb="255">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="261" eb="263">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="280" eb="281">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="282" eb="283">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-5-11b.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-24.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-21.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-22.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2424,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2440,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2448,7 +2542,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2462,7 +2556,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2482,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -2524,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -2532,7 +2626,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -2560,13 +2654,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2574,7 +2668,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>10</v>
@@ -2585,10 +2679,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2596,7 +2690,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>10</v>
@@ -2610,21 +2704,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -2632,13 +2726,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
@@ -2646,7 +2740,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>10</v>
@@ -2671,10 +2765,10 @@
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -2682,13 +2776,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2696,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>10</v>
@@ -2707,10 +2801,10 @@
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2718,13 +2812,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -2732,13 +2826,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -2746,13 +2840,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>10</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2766,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2807,7 +2901,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2829,7 +2923,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2843,7 +2937,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2857,7 +2951,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -2871,7 +2965,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2885,7 +2979,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -2899,7 +2993,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -2913,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2927,7 +3021,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2941,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2961,7 +3055,201 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2978,7 +3266,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2986,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3002,209 +3290,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3215,128 +3309,122 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="D11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>236</v>
+      <c r="C15" t="s">
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3344,27 +3432,41 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="91" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" ht="91" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3378,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="B16" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3395,7 +3497,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3403,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3419,7 +3521,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3427,7 +3529,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3438,7 +3540,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3446,13 +3548,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3460,13 +3562,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3474,13 +3576,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -3488,13 +3590,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3502,18 +3604,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3521,13 +3623,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -3535,13 +3637,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3549,13 +3651,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3563,13 +3665,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -3577,13 +3679,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3591,13 +3693,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>246</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3628,7 +3730,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3636,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3652,7 +3754,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3660,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3671,7 +3773,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3693,13 +3795,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3707,18 +3809,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3740,13 +3842,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3754,21 +3856,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3776,13 +3878,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3790,13 +3892,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
         <v>72</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3804,13 +3906,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
         <v>75</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3818,13 +3920,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3832,13 +3934,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3846,18 +3948,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3879,13 +3981,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3893,13 +3995,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3907,18 +4009,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>88</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3940,13 +4042,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3954,13 +4056,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3968,13 +4070,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3982,13 +4084,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>97</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3996,13 +4098,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4010,13 +4112,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4024,13 +4126,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>101</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4038,13 +4140,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
         <v>103</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4052,13 +4154,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>105</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4066,13 +4168,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>107</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
@@ -4080,18 +4182,18 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
         <v>109</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4099,7 +4201,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -4113,13 +4215,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4127,13 +4229,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4141,21 +4243,21 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -4163,13 +4265,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4200,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4216,7 +4318,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4224,7 +4326,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4235,17 +4337,17 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4253,7 +4355,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4274,7 +4376,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4290,7 +4392,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4298,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4314,7 +4416,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4322,7 +4424,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4338,15 +4440,15 @@
     </row>
     <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4354,13 +4456,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4368,36 +4470,36 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19720A68-9961-4584-975B-AAB593A36601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96BE367-941C-4451-83F1-C1FAA05D618E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18230" windowHeight="11400" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37095" yWindow="2535" windowWidth="13500" windowHeight="8265" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="ch5" sheetId="7" r:id="rId7"/>
     <sheet name="ch6" sheetId="8" r:id="rId8"/>
     <sheet name="ch7" sheetId="9" r:id="rId9"/>
+    <sheet name="ch8" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="280">
   <si>
     <t>header1</t>
   </si>
@@ -1289,139 +1290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
-Microsoft Office については、広島大学の学生は個人所有のPCでいくつでも無償で利用することができます。
-ただし卒業までに継続利用手続きを行った１つ以外は卒業（もしくは退学）後は利用できなくなりますので、ご注意ください。
-※ここで紹介する配布サイトの中に「継続利用手続き」についても説明があります。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ホウカツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ムス</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>サダ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ヨウリョウ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>ムショウ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="193" eb="195">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="198" eb="200">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="214" eb="216">
-      <t>ムショウ</t>
-    </rPh>
-    <rPh sb="217" eb="219">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>ソツギョウ</t>
-    </rPh>
-    <rPh sb="238" eb="240">
-      <t>ケイゾク</t>
-    </rPh>
-    <rPh sb="240" eb="242">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="242" eb="244">
-      <t>テツヅ</t>
-    </rPh>
-    <rPh sb="246" eb="247">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="251" eb="253">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="261" eb="263">
-      <t>タイガク</t>
-    </rPh>
-    <rPh sb="264" eb="265">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="266" eb="268">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="280" eb="282">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="292" eb="294">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="296" eb="298">
-      <t>ハイフ</t>
-    </rPh>
-    <rPh sb="302" eb="303">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="318" eb="320">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Microsoft Update を使って、Windows と Office がつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1503,143 +1371,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「学生の個人所有PCへのインストールはここから」をクリック、さらに表示されるページにある「個人所有PCのOffice製品は、Office365 Pro Plusをご利用ください」をクリックします。</t>
-    <rPh sb="1" eb="3">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あとは画面に従ってインストーラーをダウンロードして保存し、そのインストーラーを起動するとOffice365ProPlusがインストールされます。画面に従って進行し、最後に使用許諾契約を承諾するために「同意する」をクリックすると、インストール完了です。
-※この方法でインストールしたOfficeはアクティベーションも済んでいるので、すぐに使うことができます。ただしこの章の最初に書いたように、&lt;strong&gt;広島大学を卒業した後は利用できなくなります&lt;/strong&gt;ので注意してください。</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>キョダク</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ショウダク</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="157" eb="158">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="183" eb="184">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="205" eb="207">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="208" eb="210">
-      <t>ソツギョウ</t>
-    </rPh>
-    <rPh sb="212" eb="213">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="214" eb="216">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="235" eb="237">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-4-23.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「職場または学校アカウントでサインインする」には広大メールアドレス（ IMCアカウント名@hiroshima-u.ac.jp ）を入力してください。パスワードには広大パスワードを入力します。</t>
-    <rPh sb="1" eb="3">
-      <t>ショクバ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1855,54 +1587,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">三種類の高度なスキャンがありますね。「フルスキャン」を選んで下の「今すぐスキャン」ボタンを押すと、フルスキャンが実施されます。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-フルスキャンの実施には数時間かかります。時間の余裕のあるときにできるだけ早く実施し、点検届を完成させてください。
-右上の×をクリックして、ウィンドウを閉じましょう。
-  </t>
-    <rPh sb="133" eb="135">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>ミギウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">システム全体のウイルスチェックを実施する方法を確認します。ただしチェックには数時間かかりますので、実施する際には時間の余裕を確認し、必ず電源アダプタをつないでください。、
-システム全体のウイルスチェックを「フルスキャン」と呼びます。それに対して「クイックスキャン」はよく攻撃される場所に限定して調査を行いますので、時間が短くて済みます。
-フルスキャンを行うには「現在の脅威」のところにある「スキャンのオプション」をクリックしましょう。
-  </t>
-    <rPh sb="38" eb="39">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>デンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">ここでは、Google Chrome と Microsoft Officeのインストールとアクティベーションを行います。
 &lt;ul&gt;&lt;li&gt;&lt;a href="#chrome"&gt;Google Chromeのインストール&lt;/a&gt;
 &lt;/li&gt;
@@ -1983,53 +1667,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダウンロードしたファイルを実行します。
-&lt;p class="spl"&gt;※右図はWebブラウザにMicrosoft Edgeを使った場合の表示です。他のブラウザを使った場合、表示が少し違うものになりますが「ダウンロードしたファイルを実行する」ことは同じです。</t>
-    <rPh sb="13" eb="15">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">次に、Microsoft Officeに含まれるアプリを起動しましょう。どれでも良いのですが、ここではExcelを起動します。
 左下のWindowsアイコンをクリックし、表示されるメニューから「Excel」を探してクリックしましょう。
 &lt;p class="spl"&gt;※ 見つからない時は、キーボードから「Excel」と打ち込んでみてください。&lt;/p&gt;
@@ -2081,6 +1718,537 @@
   </si>
   <si>
     <t>win10-4-22.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">システム全体のウイルスチェックを実施する方法を確認します。ただしチェックには数時間かかる可能性があるので、実施する際には時間の余裕を確認し、必ず電源アダプタをつないでください。、
+システム全体のウイルスチェックを「フルスキャン」と呼びます。それに対して「クイックスキャン」はよく攻撃される場所に限定して調査を行いますので、時間が短くて済みます。
+フルスキャンを行うには「現在の脅威」のところにある「スキャンのオプション」をクリックしましょう。
+  </t>
+    <rPh sb="38" eb="39">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>デンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三種類の高度なスキャンがありますね。「フルスキャン」を選んで下の「今すぐスキャン」ボタンを押すと、フルスキャンが実施されます。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+フルスキャンの実施には数時間（新品のPCでも３０分程度）かかります。時間の余裕のあるときにできるだけ早く実施し、点検届を完成させてください。
+右上の×をクリックして、ウィンドウを閉じましょう。
+  </t>
+    <rPh sb="128" eb="130">
+      <t>シンピン</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Win10 App.B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（付録B）USBメモリからのソフトウェアインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネットからのソフトウェアダウンロードがうまくいかない場合は、メディアセンターで借りられる配布用USBメモリを使います。</t>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="copy"&gt;&lt;/a&gt;USBメモリからファイルをコピーする&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配布されたUSBメモリをUSBポートに挿します。PCがUSBメモリを正常に認識すると、ぽんぽこりんという音がします。
+  </t>
+  </si>
+  <si>
+    <t>win10-2-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画面の右下に「FIRST LECというリムーバブルドライブをはじめて認識したけどどうする？」という旨のメッセージが出ます。それをクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-2-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画面右上に可能な操作のリストが表示されます。「フォルダーを開いてファイルを表示」を選んでください。
+  </t>
+  </si>
+  <si>
+    <t>win10-2-03.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRST LECというウィンドウが開きます。その中に入っている「setup2020-win10」というフォルダをデスクトップにドラッグしてコピーしましょう。
+※ コピーをするには、フォルダを選択してcontrol-C （コピー）、デスクトップをクリックして control-V （貼り付け）する方法もあります。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-04a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コピーが終わったらUSBメモリを取り外します。ウィンドウ左の「FIRST LEC (D:)」を右クリックして、「取り出し」をクリックします。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-05.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Office365 ProPlus の正規版がすでに入っている場合には、ここを飛ばして&lt;a href="#chrome"&gt;[10]に進んでください&lt;/a&gt;
+。Office2013が入っている場合は、それをそのままにしてOffice 365 ProPlus を追加インストールすることができます。
+デスクトップにコピーした「setup2020-win10」というフォルダをダブルクリックして開きます。さらに中に「officepropluswin-jp」というフォルダがあるので、ダブルクリックして開きます。
+「install」という項目をダブルクリックして実行してください。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-06a.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">プログラムをインストールするときは、文書を作成するなどの通常の利用とは違う場所にファイルを作成しますので、このような警告が表示されます。「はい」をクリックしてください。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-07.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「すぐに完了します」などと出ますが、なかなか終わりません。気長に待ちましょう。10分くらいかかります。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-08.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このような画面になったらできあがりです。「閉じる」をクリックして作業終了。
+  </t>
+  </si>
+  <si>
+    <t>win10-2-09.svg</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;Chromeを入れる&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次にGoogle Chromeを入れます。USBメモリからコピーしたWindowsフォルダにある &amp;quot;ChromeStandaloneSetup64&amp;quot;をダブルクリックして開いてください。
+「このアプリがデバイスに変更を加えることを許可しますか」と聞かれるので「はい」と答えてください。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-10.svg</t>
+  </si>
+  <si>
+    <t>ここでは、第３章、第４章および付録Aで説明しているソフトウェアのダウンロードがうまくいかない場合に、メディアセンターで配布用USBを借りてソフトウェアをインストールする方法を説明します。
+&lt;ul&gt;&lt;li&gt;&lt;a href="#copy"&gt;USBメモリからファイルをコピーする&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#office"&gt;Officeを入れる&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#chrome"&gt;Chromeを入れる&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;</t>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必携PC使用時の問い合わせ窓口と、PC活用講習会（F3S講習会）を案内します。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>コウシュウカイ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>コウシュウカイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>アンナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロードしたファイルを実行します。
+&lt;p class="spl"&gt;※右の図はWebブラウザにMicrosoft Edgeを使った場合の表示です。他のブラウザを使った場合、表示が少し違うものになりますが「ダウンロードしたファイルを実行する」ことは同じです。</t>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
+Microsoft Office については、広島大学の学生は個人所有のPCで５台まで無償で利用することができます。
+&lt;p class="spl"&gt;※厳密には「Windows or MacOSのPC、タブレット、スマートフォン各５台（合計１５台）」まで使えます。&lt;strong&gt;ただし卒業までに継続利用手続きを行った１台以外は卒業後は利用できなくなりますので、ご注意ください。&lt;/strong&gt;ここで紹介する配布サイトの中に「継続利用手続き」についても説明があります。&lt;/p&gt;
+</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ムス</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>サダ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ムショウ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>ゲンミツ</t>
+    </rPh>
+    <rPh sb="283" eb="284">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="285" eb="286">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="287" eb="289">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="291" eb="292">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="296" eb="297">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="329" eb="330">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「学生の個人所有PCへのインストールはここから」をクリックします。</t>
+    <rPh sb="1" eb="3">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右のような画面になるので、「個人所有PCのOffice製品は、Office365 Pro Plusをご利用ください」をクリックします。</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-25.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上に出る「Officeをインストール」をクリックします。あとは画面の指示に従ってインストーラーを保存し、そのインストーラーを起動するとOffice365ProPlusがインストールされます。最後に使用許諾契約を承諾するために「同意する」をクリックすると、インストール完了です。
+&lt;p class="spl"&gt;※この方法でインストールしたOfficeは広大メールアドレスによるライセンス認証も済んでいるので、すぐに使うことができます。ただしこの章の最初に書いたように、&lt;strong&gt;広島大学を卒業した後は利用できなくなります&lt;/strong&gt;ので注意してください。&lt;/p&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ショウダク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="224" eb="226">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="227" eb="228">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="247" eb="249">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="251" eb="252">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="274" eb="276">
+      <t>チュウイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2518,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2556,13 +2724,251 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE55CB3-6071-425E-AC50-32B3ECB80AAD}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2626,7 +3032,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -3249,8 +3655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3266,7 +3672,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3298,7 +3704,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3309,7 +3715,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3317,7 +3723,7 @@
         <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3325,23 +3731,23 @@
         <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3355,7 +3761,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3374,7 +3780,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -3382,7 +3788,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3393,7 +3799,7 @@
     </row>
     <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
         <v>184</v>
@@ -3460,7 +3866,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>4</v>
@@ -3480,8 +3886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="B1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3497,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3505,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3529,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3679,7 +4085,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -3693,13 +4099,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3713,8 +4119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4283,10 +4689,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4299,68 +4705,76 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4373,10 +4787,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4392,7 +4806,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4400,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4424,7 +4838,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4438,17 +4852,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4456,13 +4870,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4470,36 +4884,61 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="D13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="D14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>217</v>
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96BE367-941C-4451-83F1-C1FAA05D618E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6253718-6FAE-4B15-81ED-4822F605D3BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37095" yWindow="2535" windowWidth="13500" windowHeight="8265" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="ch0" sheetId="2" r:id="rId2"/>
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
     <sheet name="ch2" sheetId="5" r:id="rId4"/>
-    <sheet name="ch3" sheetId="4" r:id="rId5"/>
-    <sheet name="ch4" sheetId="6" r:id="rId6"/>
+    <sheet name="ch3" sheetId="6" r:id="rId5"/>
+    <sheet name="ch4" sheetId="4" r:id="rId6"/>
     <sheet name="ch5" sheetId="7" r:id="rId7"/>
     <sheet name="ch6" sheetId="8" r:id="rId8"/>
     <sheet name="ch7" sheetId="9" r:id="rId9"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="283">
   <si>
     <t>header1</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">購入したばかりの Windows 10 の電源を入れて、使い始められるようになるまでに必要な設定作業を説明します。 </t>
   </si>
   <si>
     <t>初期設定</t>
@@ -96,9 +93,6 @@
   </si>
   <si>
     <t>win10-0-10.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自分のパソコンの基本的なスペックを確認しておきましょう。CPUの型式、OSのビット数、記憶容量など。 </t>
   </si>
   <si>
     <t>パソコンのスペック確認</t>
@@ -155,13 +149,6 @@
     <t>学内ネットワークへの接続</t>
   </si>
   <si>
-    <t xml:space="preserve">設定にはいる前に、広島大学で情報サービスを使うときに必要がIDが二種類あることを確認しましょう。二種類とも学生番号をもとにしています。
-一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名(IMCアカウント名)」です。こちらは、先頭の一文字を小文字にしたものになっています。
-対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
-IMCアカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、5節で紹介します。
-  </t>
-  </si>
-  <si>
     <t>win10-4-01.svg</t>
   </si>
   <si>
@@ -246,9 +233,6 @@
     <t>電子メールやクラウドストレージが使えるOffice365、オンライン履修登録などをおこなう「もみじ」、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるように設定します。</t>
   </si>
   <si>
-    <t>大学のオンラインサービスへのログイン</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="momiji"&gt;&lt;/a&gt;もみじ (広大学生用ポータルサイト)&lt;/h2&gt; </t>
   </si>
   <si>
@@ -427,15 +411,6 @@
   </si>
   <si>
     <t>win10-6-22.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">このようなパネルが表示されます。
-まず、保存されるファイルの名称と種類を確認しましょう。Edgeを使っていると、教員がつけたファイル名がここに出ているはずです。出ていなかったら、適切な名前を記入してください。ファイル形式も「PDF」になっていることを確認しましょう。HTMLとか別のものになっている場合は、違う場所で右クリックしていた可能性があります。
-次にファイルが保存されるフォルダを確認します。初期状態では「ダウンロード」フォルダです。わかりやすい場所にこれ用のフォルダを作ってそこに保存するのも良いでしょう。「ダウンロード」以外のフォルダに保存したい場合は、左側の欄を利用してフォルダを指定できます。指定したフォルダが、図の「(2) 保存先の...」のところに表示されていることを確認しましょう。
-右下の「保存」ボタンをクリックすれば保存されます。
-第1週の授業で説明されるのは&lt;em&gt;第1章と第6章&lt;/em&gt;
-です。これらの章のファイルを同様にして保存してください。&lt;span class="check"&gt;check-12&lt;/span&gt;
-  </t>
   </si>
   <si>
     <t>win10-6-23.svg</t>
@@ -915,65 +890,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">「ウイルスと脅威の防止」をクリックしましょう。
-※この部分に黄色のアイコンが出ている場合があります。これはランサムウェアに備えるためのOneDriveへのデータバックアップが設定されていないことを示していますが、この講習会ではまだ設定しません。気になるようでしたら「無視する」をクリックしてください。
-なおデータバックアップ設定はこのメニューからいつでもできます。
-  </t>
-    <rPh sb="27" eb="29">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="108" eb="111">
-      <t>コウシュウカイ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>ムシ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Defenderでは、ウイルスやスパイウェアその他の悪意を持つプログラム全般を「脅威」とし、それらを判別するルールを保存したファイルを「脅威の定義」と呼んでいます。
-「ウイルスと脅威の防止の更新」の下に、前回いつ「脅威の定義」が更新されたかが書かれています。&lt;span class="check"&gt;check-6,7&lt;/span&gt;
-脅威の定義を新しくするには「ウイルスと脅威の防止の更新」をクリックします。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2回目からはログインしたら、この画面が出ます。
-真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
-ここに並んでいるコースは、あなたが受講する授業に関連したものと、そうでないものがあります。今並んでいるものを簡単に説明すると：
-&lt;dl&gt;&lt;dt&gt;大学教育入門&lt;/dt&gt;
-&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt;
-&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
-&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届け」を提出する必要があります。このコースでは、点検届けが提出できます。この講習会のあとで各自開いて実施してください。&lt;/dd&gt;
-&lt;dt&gt;Information Security and Compliance (情報セキュリティ・コンプライアンス)&lt;/dt&gt;
-&lt;dd&gt;「情報セキュリティ・コンプライアンス講習」は、広島大学でパソコンやネットワークを安全に使うための講座です。学生だけでなく、教職員を含めた全構成員必修の内容です。講習は、教室での講義とオンライン学習（このコース）からなっています。6月末までにこのコースの中にある確認テストに合格し、「&lt;em&gt;アカウント利用確認&lt;/em&gt;
-」の手続きをおこなわないと、アカウントがロックされ、メール等が使えなくなります。&lt;/dd&gt;
- &lt;/dl&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「インターネットに接続すると、・・・」と再度確認の画面が出ます。左下の「制限された設定で続行する」をクリックして飛ばします。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1124,60 +1040,6 @@
  すると青い画面がでますので，「英語キーボード(101/102キー）」となっているのを「日本語キーボード(106/109キー）」に変更し、「サインアウト」をクリックしてください。 これでキーボードが日本語の設定になりました。 一度サインアウトしてから、このパソコンのユーザ名とパスワードでもう一度入り直してください。   </t>
     <rPh sb="176" eb="177">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この章では、Wi-Fiで広島大学の学内ネットワークに接続するための設定を行います。
-この章の作業はあなたが広島大学の中にいるときに行ってください。
-自宅などにいてWi-Fiを利用したインターネット接続環境がある場合は、そのWi-Fiを利用する接続設定をしてから次の章へ進み、この章の学内ネットワークへの接続設定は後日行ってください。</t>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガクナイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>ゴジツ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1305,10 +1167,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自動アップデートのセットアップと、PCのフルスキャン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-2-42.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1372,82 +1230,6 @@
   </si>
   <si>
     <t>win10-4-23.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">右のように「サインインしてOffieを設定する」の画面が出た場合は、Officeのアクティベーションが必要です。これは、ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための作業です。Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があるわけです。
-「サインインしてOffieを設定する」で「サインイン」をクリックして、下の項目に進んでください。
-&lt;p class="spl"&gt;※右のような画面が出ずにExcelを使い始められる場合は、そのまま使っていただいて構いません。この下の項目は飛ばして、次の章「自動アップデートのセットアップと、PCのフルスキャン」に進んでください。&lt;/p&gt;
-  </t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="193" eb="194">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="218" eb="219">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="226" eb="227">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="235" eb="236">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="237" eb="238">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="242" eb="244">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="250" eb="251">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="258" eb="259">
-      <t>カマ</t>
-    </rPh>
-    <rPh sb="266" eb="267">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="268" eb="270">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="271" eb="272">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="276" eb="277">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="278" eb="279">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="308" eb="309">
-      <t>スス</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1604,12 +1386,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Surfaceの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとはだいたい言われるままにしていけば大丈夫です。
-すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-2-41.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1751,32 +1527,6 @@
     </rPh>
     <rPh sb="72" eb="74">
       <t>デンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">三種類の高度なスキャンがありますね。「フルスキャン」を選んで下の「今すぐスキャン」ボタンを押すと、フルスキャンが実施されます。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-フルスキャンの実施には数時間（新品のPCでも３０分程度）かかります。時間の余裕のあるときにできるだけ早く実施し、点検届を完成させてください。
-右上の×をクリックして、ウィンドウを閉じましょう。
-  </t>
-    <rPh sb="128" eb="130">
-      <t>シンピン</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ミギウエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2248,6 +1998,444 @@
     </rPh>
     <rPh sb="274" eb="276">
       <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動アップデートのセットアップと、PCのフルスキャン方法の確認</t>
+    <rPh sb="26" eb="28">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三種類の高度なスキャンがありますね。「フルスキャン」を選んで下の「今すぐスキャン」ボタンを押すと、フルスキャンが実施されます。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+フルスキャンの実施には数時間（新品のPCでも３０分程度）かかります。時間の余裕のあるときにできるだけ早く実施してください。
+右上の×をクリックして、ウィンドウを閉じましょう。
+  </t>
+    <rPh sb="128" eb="130">
+      <t>シンピン</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2回目からはログインしたら、この画面が出ます。
+真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
+ここに並んでいるコースは、あなたが受講する授業に関連したものと、そうでないものがあります。今並んでいるものを簡単に説明すると：
+&lt;dl&gt;&lt;dt&gt;大学教育入門&lt;/dt&gt;
+&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt;
+&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
+&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届け」を提出する必要があります。このコースでは、点検届けが提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
+&lt;dt&gt;Information Security and Compliance (情報セキュリティ・コンプライアンス)&lt;/dt&gt;
+&lt;dd&gt;「情報セキュリティ・コンプライアンス講習」は、広島大学でパソコンやネットワークを安全に使うための講座です。学生だけでなく、教職員を含めた全構成員必修の内容です。講習は、教室での講義とオンライン学習（このコース）からなっています。6月末までにこのコースの中にある確認テストに合格し、「&lt;em&gt;アカウント利用確認&lt;/em&gt;
+」の手続きをおこなわないと、アカウントがロックされ、メール等が使えなくなります。&lt;/dd&gt;
+ &lt;/dl&gt;
+  </t>
+    <rPh sb="383" eb="385">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="386" eb="388">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="389" eb="390">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="401" eb="402">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="410" eb="411">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このようなパネルが表示されます。
+まず、保存されるファイルの名称と種類を確認しましょう。Edgeを使っていると、教員がつけたファイル名がここに出ているはずです。出ていなかったら、適切な名前を記入してください。ファイル形式も「PDF」になっていることを確認しましょう。HTMLとか別のものになっている場合は、違う場所で右クリックしていた可能性があります。
+次にファイルが保存されるフォルダを確認します。初期状態では「ダウンロード」フォルダです。わかりやすい場所にこれ用のフォルダを作ってそこに保存するのも良いでしょう。「ダウンロード」以外のフォルダに保存したい場合は、左側の欄を利用してフォルダを指定できます。指定したフォルダが、図の「(2) 保存先の...」のところに表示されていることを確認しましょう。
+右下の「保存」ボタンをクリックすれば保存されます。
+第1週の授業で説明されるのは&lt;em&gt;第1章と第6章&lt;/em&gt;
+です。これらの章のファイルを同様にして保存してください。&lt;span class="check"&gt;check-12&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「ウイルスと脅威の防止」をクリックしましょう。
+&lt;p class="spl"&gt;※この部分に黄色のアイコンが出ている場合があります。これはランサムウェアに備えるためのOneDriveへのデータバックアップが設定されていないことを示していますが、この講習会ではまだ設定しません。気になるようでしたら「無視する」をクリックしてください。となおデータバックアップ設定はこのメニューからいつでもできます。&lt;/p&gt;
+  </t>
+    <rPh sb="42" eb="44">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="123" eb="126">
+      <t>コウシュウカイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Defenderでは、ウイルスやスパイウェアその他の悪意を持つプログラム全般を「脅威」とし、それらを判別するルールを保存したファイルを「脅威の定義」と呼んでいます。
+「ウイルスと脅威の防止の更新」の下に、前回いつ「脅威の定義」が更新されたかが書かれています。&lt;span class="check"&gt;check-6,7&lt;/span&gt;
+&lt;p class="spl"&gt;※ここで「他のプログラム（ウィルスバスター、マカフィーリブセーフなど）が有効になっている」という旨の表示がされた場合、ウィルス対策はその表示されたプログラムが行っています。その場合はこの下の項目は飛ばして、別途そのプログラムの「利用期限」と「更新方法」「フルスキャンの実施方法」を確認してください。とくに「利用期限」が切れてウィルス対策に穴ができることがないよう注意してください。あとで Defender の利用に戻すこともできます。&lt;/p&gt;
+脅威の定義を新しくするには「ウイルスと脅威の防止の更新」をクリックします。
+  </t>
+    <rPh sb="217" eb="219">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="229" eb="230">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="269" eb="271">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="274" eb="275">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="276" eb="278">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="279" eb="280">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="284" eb="286">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="295" eb="297">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="297" eb="299">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="302" eb="304">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="304" eb="306">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="315" eb="317">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="317" eb="319">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="321" eb="323">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="336" eb="338">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="340" eb="341">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="347" eb="349">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="350" eb="351">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="362" eb="364">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="385" eb="387">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="388" eb="389">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">設定にはいる前に、広島大学で情報サービスを使うときに必要がIDが二種類あることを確認しましょう。二種類とも学生番号をもとにしています。
+一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名(IMCアカウント名)」です。こちらは、先頭の一文字を小文字にしたものになっています。
+対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
+IMCアカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、第５章で紹介します。
+  </t>
+    <rPh sb="343" eb="344">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="345" eb="346">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学で情報サービスを使うときに必要な２種類のIDをもういちど確認しましょう。二種類とも学生番号をもとにしています。
+一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名(IMCアカウント名)」です。こちらは、先頭の一文字を小文字にしたものになっています。
+対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
+IMCアカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、第５章で紹介します。
+  </t>
+    <rPh sb="21" eb="23">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="335" eb="336">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="337" eb="338">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt; この章から先は、学生証に書かれている学生番号と、学生証とともにもらえる「広大パスワード」が必要です。学生証をもらってから、作業を進めてください。&lt;/strong&gt;</t>
+    <rPh sb="11" eb="12">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では、Wi-Fiで広島大学の学内ネットワークに接続するための設定を行います。
+自宅などにいてWi-Fiを利用したインターネット接続環境がある場合は、そのWi-Fiを利用する接続設定をして次の章へ進み、この章にある学内ネットワークへの接続設定は後で大学に来たときに行ってください。</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;この章の作業はあなたが広島大学の学生証をもらってから、広島大学の中にいるときに行ってください。&lt;/strong&gt;
+&lt;p class="spl"&gt;※学生証に書かれている学生番号と、学生証と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
+    <rPh sb="81" eb="84">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Surfaceの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとはだいたい言われるままにしていけば大丈夫です。 すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">購入したばかりの Windows 10 の電源を入れて、使い始められるようになるまでに必要な設定作業を説明します。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自分のパソコンの基本的なスペックを確認しておきましょう。CPUの型式、OSのビット数、記憶容量など。
+なお、この章までは広大の学生証をもらう前に実施することができます。 </t>
+    <rPh sb="56" eb="57">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学のオンラインサービスへのログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">右のように「サインインしてOffieを設定する」の画面が出た場合は、Officeのアクティベーションが必要です。これは、ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための作業です。Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があるわけです。
+「サインインしてOffieを設定する」で「サインイン」をクリックして、下の項目に進んでください。
+&lt;p class="spl"&gt;※右のような画面が出ずにExcelを使い始められる場合は、そのまま使っていただいて構いません。この下の項目は飛ばして、次の章「大学のオンラインサービスへのログイン」に進んでください。なお後日に、Exceｌのメニューで「ファイル」→「アカウント」と進んで「利用期限」を確認しておいてください。&lt;/p&gt;
+  </t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="250" eb="251">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="266" eb="267">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="300" eb="301">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="310" eb="312">
+      <t>ゴジツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2686,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2702,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2710,7 +2898,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2724,7 +2912,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2761,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2769,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2777,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2785,7 +2973,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2793,7 +2981,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2804,7 +2992,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2812,13 +3000,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2826,13 +3014,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2840,13 +3028,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2854,13 +3042,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2868,18 +3056,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2887,13 +3075,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2901,13 +3089,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2915,13 +3103,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2929,18 +3117,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2948,13 +3136,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2962,13 +3150,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2982,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -3000,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>6</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -3008,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s" ph="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -3016,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -3024,15 +3212,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -3046,13 +3234,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" ph="1">
         <v>9</v>
       </c>
-      <c r="C7" t="s" ph="1">
+      <c r="D7" t="s" ph="1">
         <v>10</v>
-      </c>
-      <c r="D7" t="s" ph="1">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
@@ -3060,13 +3248,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3074,21 +3262,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3096,13 +3284,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
@@ -3110,21 +3298,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -3132,13 +3320,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
@@ -3146,13 +3334,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -3160,21 +3348,21 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s" ph="1">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s" ph="1">
         <v>15</v>
-      </c>
-      <c r="C16" t="s" ph="1">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s" ph="1">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -3182,13 +3370,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3196,21 +3384,21 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3218,13 +3406,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -3232,13 +3420,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3246,13 +3434,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3266,8 +3454,203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3283,7 +3666,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3291,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3299,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3307,147 +3690,151 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3457,12 +3844,245 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D16"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="B1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3478,7 +4098,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3486,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3494,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3502,146 +4122,207 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
       <c r="D12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" ht="91" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3651,12 +4332,682 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D21"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" t="s" ph="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3672,7 +5023,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3680,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3688,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3696,15 +5047,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3715,1206 +5066,72 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>236</v>
+      <c r="C11" t="s">
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" ht="91" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" t="s" ph="1">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4922,23 +5139,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6253718-6FAE-4B15-81ED-4822F605D3BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565B908C-86DB-4CF7-A061-1396F0A8C77A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -685,44 +685,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>必携PCを使っていて、わからないことや困ったことがあったら、情報メディア教育研究センターに相談してください。
-&lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F）&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;アクセスマップ&lt;/a&gt;&lt;/dd&gt;&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
-&lt;/dd&gt;</t>
-    <rPh sb="99" eb="100">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ブンシツ</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="104" eb="107">
-      <t>トショカン</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="126" eb="129">
-      <t>トショカン</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>ナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">歯車のアイコン「設定」をクリックして、出てくるメニューの中から「時刻と言語」をクリックしてください。
   </t>
     <rPh sb="19" eb="20">
@@ -2436,6 +2398,105 @@
     </rPh>
     <rPh sb="310" eb="312">
       <t>ゴジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必携PCの設定・点検についてわからないことや困ったことがあったら、下記窓口に相談してください。
+&lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;初期講習会会場（日時場所は下記Webページ内）&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
+&lt;dd&gt;（4/4～5 13:00～17:00）メディアセンター本館特設会場&lt;/dd&gt;
+&lt;dd&gt;（平日 8:45～16:45）メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F）&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;アクセスマップ&lt;/a&gt;
+&lt;dd&gt;（4/4～5 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター&lt;/dd&gt;
+&lt;/dd&gt;&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
+&lt;/dd&gt;&lt;dt&gt;メール質問窓口: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;&lt;/dd&gt;</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t>コウシュウカイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="256" eb="258">
+      <t>トクセツ</t>
+    </rPh>
+    <rPh sb="258" eb="260">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="271" eb="273">
+      <t>ヘイジツ</t>
+    </rPh>
+    <rPh sb="296" eb="297">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="297" eb="299">
+      <t>ブンシツ</t>
+    </rPh>
+    <rPh sb="300" eb="301">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="301" eb="304">
+      <t>トショカン</t>
+    </rPh>
+    <rPh sb="304" eb="305">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="319" eb="320">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="321" eb="323">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="323" eb="326">
+      <t>トショカン</t>
+    </rPh>
+    <rPh sb="326" eb="327">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="456" eb="458">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="458" eb="460">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="460" eb="462">
+      <t>セイキョウ</t>
+    </rPh>
+    <rPh sb="462" eb="465">
+      <t>シンニュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2874,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2912,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2949,7 +3010,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2957,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2973,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2981,7 +3042,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2992,7 +3053,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3000,13 +3061,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>236</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3014,13 +3075,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>238</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3028,13 +3089,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>240</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3042,13 +3103,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>242</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3056,18 +3117,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>244</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3075,13 +3136,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>247</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3089,13 +3150,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>249</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3103,13 +3164,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3117,18 +3178,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3136,13 +3197,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>256</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3170,8 +3231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A19" zoomScale="79" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -3188,7 +3249,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -3220,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -3254,7 +3315,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3273,10 +3334,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s" ph="1">
         <v>157</v>
-      </c>
-      <c r="D10" t="s" ph="1">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3298,21 +3359,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -3326,7 +3387,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
@@ -3334,7 +3395,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
@@ -3370,7 +3431,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>9</v>
@@ -3384,7 +3445,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
@@ -3398,7 +3459,7 @@
         <v>134</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3412,7 +3473,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -3420,13 +3481,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3434,13 +3495,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3471,7 +3532,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3531,7 +3592,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3559,7 +3620,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3573,7 +3634,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3587,7 +3648,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -3601,7 +3662,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3629,7 +3690,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3649,8 +3710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3695,12 +3756,12 @@
     </row>
     <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3708,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3722,7 +3783,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3736,7 +3797,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3750,7 +3811,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3803,7 +3864,7 @@
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D15" t="s">
         <v>131</v>
@@ -3814,7 +3875,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -3828,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -3849,7 +3910,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3865,7 +3926,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3873,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3897,7 +3958,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3950,7 +4011,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -3964,7 +4025,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3997,7 +4058,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4005,13 +4066,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -4019,7 +4080,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -4047,13 +4108,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4061,13 +4122,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4081,8 +4142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="B17" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4098,7 +4159,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4130,7 +4191,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4146,7 +4207,7 @@
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -4154,7 +4215,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -4165,39 +4226,39 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4205,13 +4266,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4230,7 +4291,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4238,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -4249,10 +4310,10 @@
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4260,7 +4321,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -4288,13 +4349,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4302,7 +4363,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -4316,13 +4377,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +4398,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4361,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4490,10 +4551,10 @@
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" t="s">
         <v>174</v>
-      </c>
-      <c r="D15" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4501,13 +4562,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4721,7 +4782,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -4805,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -4844,7 +4905,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4877,7 +4938,7 @@
     </row>
     <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D45" t="s" ph="1">
         <v>149</v>
@@ -4908,8 +4969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4922,10 +4983,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4971,9 +5032,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5023,7 +5084,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5031,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5047,7 +5108,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5055,7 +5116,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5071,15 +5132,15 @@
     </row>
     <row r="8" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -5087,13 +5148,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5101,37 +5162,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" t="s">
         <v>264</v>
-      </c>
-      <c r="D13" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" t="s">
         <v>174</v>
-      </c>
-      <c r="D14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5139,23 +5200,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565B908C-86DB-4CF7-A061-1396F0A8C77A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F6CD49-831B-4C83-8423-1A7C19AA1033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28170" yWindow="270" windowWidth="17925" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1118,17 +1118,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Windows Update を使って、WindowとOfficeがつねに最新版で使えるように設定します。
-さらに、Defenderでのフルスキャン（全てのファイルに対するウィルスチェック）のやり方を確認しておきます。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Windows Updateの設定&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#defender"&gt;Defenderの手動更新とフルスキャン&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-2-42.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1292,30 +1281,6 @@
     </rPh>
     <rPh sb="134" eb="135">
       <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広島大学必携PC初期講習会（オンライン版）</t>
-    <rPh sb="8" eb="10">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>コウシュウカイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>バン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">必携PC初期講習会（オンライン版）では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。ここでおこなうことを以下にあげます。おおむね90分くらいかかると思います。頑張ってください。
-  </t>
-    <rPh sb="4" eb="6">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>バン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2402,12 +2367,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">Windows Update を使って、WindowsとOfficeがつねに最新版で使えるように設定します。
+さらに、Defenderでのフルスキャン（全てのファイルに対するウィルスチェック）のやり方を確認しておきます。
+&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Windows Updateの設定&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#defender"&gt;Defenderの手動更新とフルスキャン&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>必携PCの設定・点検についてわからないことや困ったことがあったら、下記窓口に相談してください。
 &lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
 &lt;dt&gt; &lt;/dt&gt;
 &lt;dd&gt;初期講習会会場（日時場所は下記Webページ内）&lt;/dd&gt;
 &lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
-&lt;dd&gt;（4/4～5 13:00～17:00）メディアセンター本館特設会場&lt;/dd&gt;
+&lt;dd&gt;（4/4 12:30～15:30, 4/5 9:00～17:00）メディアセンター本館特設会場&lt;/dd&gt;
 &lt;dd&gt;（平日 8:45～16:45）メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F）&lt;/dd&gt;
 &lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;アクセスマップ&lt;/a&gt;
 &lt;dd&gt;（4/4～5 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター&lt;/dd&gt;
@@ -2450,53 +2426,89 @@
     <rPh sb="102" eb="103">
       <t>ナイ</t>
     </rPh>
-    <rPh sb="256" eb="258">
+    <rPh sb="270" eb="272">
       <t>トクセツ</t>
     </rPh>
-    <rPh sb="258" eb="260">
+    <rPh sb="272" eb="274">
       <t>カイジョウ</t>
     </rPh>
-    <rPh sb="271" eb="273">
+    <rPh sb="285" eb="287">
       <t>ヘイジツ</t>
     </rPh>
-    <rPh sb="296" eb="297">
+    <rPh sb="310" eb="311">
       <t>ヒガシ</t>
     </rPh>
-    <rPh sb="297" eb="299">
+    <rPh sb="311" eb="313">
       <t>ブンシツ</t>
     </rPh>
-    <rPh sb="300" eb="301">
+    <rPh sb="314" eb="315">
       <t>ヒガシ</t>
     </rPh>
-    <rPh sb="301" eb="304">
+    <rPh sb="315" eb="318">
       <t>トショカン</t>
     </rPh>
-    <rPh sb="304" eb="305">
+    <rPh sb="318" eb="319">
       <t>ナイ</t>
     </rPh>
-    <rPh sb="319" eb="320">
+    <rPh sb="333" eb="334">
       <t>ナイ</t>
     </rPh>
-    <rPh sb="321" eb="323">
+    <rPh sb="335" eb="337">
       <t>チュウオウ</t>
     </rPh>
-    <rPh sb="323" eb="326">
+    <rPh sb="337" eb="340">
       <t>トショカン</t>
     </rPh>
-    <rPh sb="326" eb="327">
+    <rPh sb="340" eb="341">
       <t>ナイ</t>
     </rPh>
-    <rPh sb="456" eb="458">
+    <rPh sb="470" eb="472">
       <t>ヒロシマ</t>
     </rPh>
-    <rPh sb="458" eb="460">
+    <rPh sb="472" eb="474">
       <t>ダイガク</t>
     </rPh>
-    <rPh sb="460" eb="462">
+    <rPh sb="474" eb="476">
       <t>セイキョウ</t>
     </rPh>
-    <rPh sb="462" eb="465">
+    <rPh sb="476" eb="479">
       <t>シンニュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学必携PC初期講習会（自習形式）</t>
+    <rPh sb="8" eb="10">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>コウシュウカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">必携PC初期講習会（自習形式）では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。ここでおこなうことを以下にあげます。おおむね６０分程度かかると思います。頑張ってください。
+  </t>
+    <rPh sb="4" eb="6">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>テイド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2918,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2935,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2973,7 +2985,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3010,7 +3022,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3018,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3034,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3042,7 +3054,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3053,7 +3065,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3061,13 +3073,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3075,13 +3087,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3089,13 +3101,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3103,13 +3115,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3117,18 +3129,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3136,13 +3148,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3150,13 +3162,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3164,13 +3176,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3178,18 +3190,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3197,13 +3209,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3231,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="79" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -3249,7 +3261,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -3281,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -3532,7 +3544,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3756,12 +3768,12 @@
     </row>
     <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3783,7 +3795,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3910,7 +3922,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3934,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3958,7 +3970,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4066,7 +4078,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -4080,7 +4092,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -4108,7 +4120,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -4122,13 +4134,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4159,7 +4171,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4191,7 +4203,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4207,7 +4219,7 @@
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -4215,7 +4227,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -4226,7 +4238,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4234,7 +4246,7 @@
         <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4242,23 +4254,23 @@
         <v>200</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4272,7 +4284,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4291,7 +4303,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4299,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -4310,7 +4322,7 @@
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D19" t="s">
         <v>178</v>
@@ -4377,7 +4389,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>4</v>
@@ -4422,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4782,7 +4794,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -4866,7 +4878,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -4969,7 +4981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4983,10 +4995,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5034,7 +5046,7 @@
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5084,7 +5096,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5092,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5116,7 +5128,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5132,15 +5144,15 @@
     </row>
     <row r="8" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -5148,13 +5160,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5162,29 +5174,29 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5211,12 +5223,12 @@
     </row>
     <row r="16" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F6CD49-831B-4C83-8423-1A7C19AA1033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0B499F-6945-4696-9F68-04B6669B02E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28170" yWindow="270" windowWidth="17925" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35145" yWindow="1455" windowWidth="17925" windowHeight="12450" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -2930,7 +2930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3722,8 +3722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3922,7 +3922,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4154,8 +4154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="B1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4410,7 +4410,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4981,7 +4981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5079,7 +5079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0B499F-6945-4696-9F68-04B6669B02E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75431178-EF5B-436F-B240-9570DEEC90CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35145" yWindow="1455" windowWidth="17925" windowHeight="12450" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29295" yWindow="2070" windowWidth="17925" windowHeight="12450" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -98,15 +98,6 @@
     <t>パソコンのスペック確認</t>
   </si>
   <si>
-    <t xml:space="preserve">最初に、目の前のPCがどんなものなのかを確認しましょう。PCの処理能力や容量の目安になるさまざまな要素を「スペック」と呼ぶことがあります。ここでは以下のスペックを確認しましょう。
-&lt;ol&gt;&lt;li&gt; OSのバージョン &lt;/li&gt;
-&lt;li&gt; メモリ容量（主記憶容量） &lt;/li&gt;
-&lt;li&gt; HDD/SDD容量（副記憶容量） &lt;/li&gt;
-&lt;li&gt; バッテリー駆動時間 &lt;/li&gt;
-&lt;/ol&gt;
- </t>
-  </si>
-  <si>
     <t>win10-1-01.svg</t>
   </si>
   <si>
@@ -285,13 +276,6 @@
     <t>win10-6-06.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">メールの画面が開きます。
-大学からの電子メールでの連絡は、広大メールで来ます。
-常にメールチェックするようにしてください。&lt;span class="check"&gt;check-10&lt;/span&gt;
-スマホのOutlookアプリでも、複雑な設定は必要なくメールの送受信が可能です。ここは必携PC設定の手順を示していますので、Web版をお知らせしましたが、スマホ版の方が使いやすく、新規メールが届いた時の通知もありますので、おすすめです。
-&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
-  </si>
-  <si>
     <t>win10-6-07.svg</t>
   </si>
   <si>
@@ -321,12 +305,6 @@
   </si>
   <si>
     <t>win10-6-10.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">するとこのような画面になります。&lt;span class="check"&gt;check-11&lt;/span&gt;
-履修登録をしたり、成績を確認することができます。
-また「掲示」では、授業や学部からの連絡が表示されます。
-  </t>
   </si>
   <si>
     <t>win10-6-11.svg</t>
@@ -1995,16 +1973,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">このようなパネルが表示されます。
-まず、保存されるファイルの名称と種類を確認しましょう。Edgeを使っていると、教員がつけたファイル名がここに出ているはずです。出ていなかったら、適切な名前を記入してください。ファイル形式も「PDF」になっていることを確認しましょう。HTMLとか別のものになっている場合は、違う場所で右クリックしていた可能性があります。
-次にファイルが保存されるフォルダを確認します。初期状態では「ダウンロード」フォルダです。わかりやすい場所にこれ用のフォルダを作ってそこに保存するのも良いでしょう。「ダウンロード」以外のフォルダに保存したい場合は、左側の欄を利用してフォルダを指定できます。指定したフォルダが、図の「(2) 保存先の...」のところに表示されていることを確認しましょう。
-右下の「保存」ボタンをクリックすれば保存されます。
-第1週の授業で説明されるのは&lt;em&gt;第1章と第6章&lt;/em&gt;
-です。これらの章のファイルを同様にして保存してください。&lt;span class="check"&gt;check-12&lt;/span&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">「ウイルスと脅威の防止」をクリックしましょう。
 &lt;p class="spl"&gt;※この部分に黄色のアイコンが出ている場合があります。これはランサムウェアに備えるためのOneDriveへのデータバックアップが設定されていないことを示していますが、この講習会ではまだ設定しません。気になるようでしたら「無視する」をクリックしてください。となおデータバックアップ設定はこのメニューからいつでもできます。&lt;/p&gt;
   </t>
@@ -2037,89 +2005,6 @@
     </rPh>
     <rPh sb="177" eb="179">
       <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Defenderでは、ウイルスやスパイウェアその他の悪意を持つプログラム全般を「脅威」とし、それらを判別するルールを保存したファイルを「脅威の定義」と呼んでいます。
-「ウイルスと脅威の防止の更新」の下に、前回いつ「脅威の定義」が更新されたかが書かれています。&lt;span class="check"&gt;check-6,7&lt;/span&gt;
-&lt;p class="spl"&gt;※ここで「他のプログラム（ウィルスバスター、マカフィーリブセーフなど）が有効になっている」という旨の表示がされた場合、ウィルス対策はその表示されたプログラムが行っています。その場合はこの下の項目は飛ばして、別途そのプログラムの「利用期限」と「更新方法」「フルスキャンの実施方法」を確認してください。とくに「利用期限」が切れてウィルス対策に穴ができることがないよう注意してください。あとで Defender の利用に戻すこともできます。&lt;/p&gt;
-脅威の定義を新しくするには「ウイルスと脅威の防止の更新」をクリックします。
-  </t>
-    <rPh sb="217" eb="219">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="229" eb="230">
-      <t>ムネ</t>
-    </rPh>
-    <rPh sb="244" eb="246">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="249" eb="251">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="260" eb="261">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="269" eb="271">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="274" eb="275">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="276" eb="278">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="279" eb="280">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="284" eb="286">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="295" eb="297">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="297" eb="299">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="302" eb="304">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="304" eb="306">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="315" eb="317">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="317" eb="319">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="321" eb="323">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="334" eb="336">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="336" eb="338">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="340" eb="341">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="347" eb="349">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="350" eb="351">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="362" eb="364">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="385" eb="387">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="388" eb="389">
-      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2264,26 +2149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">自分のパソコンの基本的なスペックを確認しておきましょう。CPUの型式、OSのビット数、記憶容量など。
-なお、この章までは広大の学生証をもらう前に実施することができます。 </t>
-    <rPh sb="56" eb="57">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="63" eb="66">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大学のオンラインサービスへのログイン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2364,17 +2229,6 @@
     <rPh sb="310" eb="312">
       <t>ゴジツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Update を使って、WindowsとOfficeがつねに最新版で使えるように設定します。
-さらに、Defenderでのフルスキャン（全てのファイルに対するウィルスチェック）のやり方を確認しておきます。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Windows Updateの設定&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#defender"&gt;Defenderの手動更新とフルスキャン&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2510,6 +2364,163 @@
     <rPh sb="81" eb="83">
       <t>テイド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自分のパソコンの基本的なスペックを確認しておきましょう。CPUの型式、OSのビット数、記憶容量など。
+なお、この章は広島大学の学生証をもらう前に実施することができます。 </t>
+    <rPh sb="56" eb="57">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最初に、目の前のPCがどんなものなのかを確認しましょう。PCの処理能力や容量の目安になるさまざまな要素を「スペック」と呼ぶことがあります。ここでは以下のスペックを確認しましょう。
+&lt;ol&gt;&lt;li&gt; OSのバージョン &lt;/li&gt;
+&lt;li&gt; メモリ容量（主記憶容量） &lt;/li&gt;
+&lt;li&gt; HDD/SDD容量（副記憶容量） &lt;/li&gt;
+&lt;li&gt; バッテリー駆動時間 &lt;/li&gt;
+&lt;/ol&gt;
+この章は広島大学の学生証をもらう前に実施することができます。 
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows Update を使って、WindowsとOfficeがつねに最新版で使えるように設定します。
+さらに、Defenderでのフルスキャン（全てのファイルに対するウィルスチェック）のやり方を確認しておきます。
+&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Windows Updateの設定&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#defender"&gt;Defenderの手動更新とフルスキャン&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+この章は、インターネットに接続していれば、広島大学の学生証をもらう前に実施することができます。 
+ </t>
+    <rPh sb="248" eb="250">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Defenderでは、ウイルスやスパイウェアその他の悪意を持つプログラム全般を「脅威」とし、それらを判別するルールを保存したファイルを「脅威の定義」と呼んでいます。
+「ウイルスと脅威の防止の更新」の下に、前回いつ「脅威の定義」が更新されたかが書かれています。&lt;span class="check"&gt;check-5,6&lt;/span&gt;
+&lt;p class="spl"&gt;※ここで「他のプログラム（ウィルスバスター、マカフィーリブセーフなど）が有効になっている」という旨の表示がされた場合、ウィルス対策はその表示されたプログラムが行っています。その場合はこの下の項目は飛ばして、別途そのプログラムの「利用期限」と「更新方法」「フルスキャンの実施方法」を確認してください。とくに「利用期限」が切れてウィルス対策に穴ができることがないよう注意してください。あとで Defender の利用に戻すこともできます。&lt;/p&gt;
+脅威の定義を新しくするには「ウイルスと脅威の防止の更新」をクリックします。
+  </t>
+    <rPh sb="216" eb="218">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="259" eb="260">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="273" eb="274">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="275" eb="277">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="283" eb="285">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="294" eb="296">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="296" eb="298">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="301" eb="303">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="303" eb="305">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="314" eb="316">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="316" eb="318">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="320" eb="322">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="333" eb="335">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="335" eb="337">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="339" eb="340">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="346" eb="348">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="349" eb="350">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="361" eb="363">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="384" eb="386">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="387" eb="388">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">メールの画面が開きます。
+大学からの電子メールでの連絡は、広大メールで来ます。
+常にメールチェックするようにしてください。&lt;span class="check"&gt;check-9&lt;/span&gt;
+スマホのOutlookアプリでも、複雑な設定は必要なくメールの送受信が可能です。ここは必携PC設定の手順を示していますので、Web版をお知らせしましたが、スマホ版の方が使いやすく、新規メールが届いた時の通知もありますので、おすすめです。
+&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">するとこのような画面になります。&lt;span class="check"&gt;check-10&lt;/span&gt;
+履修登録をしたり、成績を確認することができます。
+また「掲示」では、授業や学部からの連絡が表示されます。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このようなパネルが表示されます。
+まず、保存されるファイルの名称と種類を確認しましょう。Edgeを使っていると、教員がつけたファイル名がここに出ているはずです。出ていなかったら、適切な名前を記入してください。ファイル形式も「PDF」になっていることを確認しましょう。HTMLとか別のものになっている場合は、違う場所で右クリックしていた可能性があります。
+次にファイルが保存されるフォルダを確認します。初期状態では「ダウンロード」フォルダです。わかりやすい場所にこれ用のフォルダを作ってそこに保存するのも良いでしょう。「ダウンロード」以外のフォルダに保存したい場合は、左側の欄を利用してフォルダを指定できます。指定したフォルダが、図の「(2) 保存先の...」のところに表示されていることを確認しましょう。
+右下の「保存」ボタンをクリックすれば保存されます。
+第1週の授業で説明されるのは&lt;em&gt;第1章と第6章&lt;/em&gt;
+です。これらの章のファイルを同様にして保存してください。&lt;span class="check"&gt;check-11&lt;/span&gt;
+  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2947,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2963,7 +2974,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2971,7 +2982,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2985,7 +2996,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3022,7 +3033,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3030,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3046,7 +3057,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3054,7 +3065,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3065,7 +3076,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3073,13 +3084,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3087,13 +3098,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3101,13 +3112,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3115,13 +3126,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3129,18 +3140,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3148,13 +3159,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3162,13 +3173,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3176,13 +3187,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3190,18 +3201,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3209,13 +3220,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3223,13 +3234,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3261,7 +3272,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -3285,7 +3296,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
@@ -3293,7 +3304,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -3321,13 +3332,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3335,7 +3346,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
@@ -3346,10 +3357,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3357,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
@@ -3371,21 +3382,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -3393,13 +3404,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
@@ -3407,7 +3418,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
@@ -3432,10 +3443,10 @@
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -3443,13 +3454,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3457,7 +3468,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
@@ -3468,10 +3479,10 @@
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3479,13 +3490,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -3493,13 +3504,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3507,13 +3518,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3527,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3568,15 +3579,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3590,13 +3601,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
@@ -3604,13 +3615,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3618,13 +3629,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -3632,21 +3643,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3660,13 +3671,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3674,13 +3685,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3688,13 +3699,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3702,13 +3713,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3722,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3739,7 +3750,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3747,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3763,17 +3774,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3781,13 +3792,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3795,13 +3806,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3809,13 +3820,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3823,13 +3834,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3837,13 +3848,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3851,13 +3862,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -3865,29 +3876,29 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -3901,13 +3912,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3921,8 +3932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B17" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3938,7 +3949,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3946,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3962,15 +3973,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3981,7 +3992,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3989,13 +4000,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4003,13 +4014,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4017,13 +4028,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4031,13 +4042,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4045,18 +4056,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4064,13 +4075,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4078,13 +4089,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -4092,13 +4103,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4106,13 +4117,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4120,13 +4131,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4134,13 +4145,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4154,8 +4165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B19" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4171,7 +4182,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4179,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4195,7 +4206,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -4203,7 +4214,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4214,12 +4225,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -4227,50 +4238,50 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" t="s">
         <v>200</v>
-      </c>
-      <c r="D12" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4278,13 +4289,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4292,18 +4303,18 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4311,21 +4322,21 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4333,13 +4344,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4347,13 +4358,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4361,13 +4372,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4375,13 +4386,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="5" customFormat="1" ht="91" x14ac:dyDescent="0.2">
@@ -4389,13 +4400,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4409,8 +4420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4426,7 +4437,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4434,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4450,7 +4461,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -4458,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4469,7 +4480,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4491,13 +4502,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4505,18 +4516,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4538,13 +4549,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4552,21 +4563,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4574,13 +4585,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4588,13 +4599,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4602,13 +4613,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4616,13 +4627,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4630,13 +4641,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4644,18 +4655,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4677,13 +4688,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4691,13 +4702,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4705,18 +4716,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4738,13 +4749,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4752,13 +4763,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4766,13 +4777,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4780,13 +4791,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -4794,13 +4805,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4808,13 +4819,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4822,13 +4833,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4836,13 +4847,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4850,13 +4861,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4864,13 +4875,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
@@ -4878,18 +4889,18 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4897,7 +4908,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -4911,13 +4922,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4925,13 +4936,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4939,21 +4950,21 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -4961,13 +4972,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4995,10 +5006,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5006,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5022,7 +5033,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5030,7 +5041,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5041,17 +5052,17 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -5059,7 +5070,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5079,8 +5090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5096,7 +5107,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5104,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5120,7 +5131,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5128,7 +5139,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5139,20 +5150,20 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -5160,13 +5171,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5174,37 +5185,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5212,23 +5223,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75431178-EF5B-436F-B240-9570DEEC90CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527CC9F5-B032-430E-BE5C-C897BD9BA8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29295" yWindow="2070" windowWidth="17925" windowHeight="12450" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30930" yWindow="1545" windowWidth="17925" windowHeight="12450" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="284">
   <si>
     <t>header1</t>
   </si>
@@ -155,14 +155,6 @@
   </si>
   <si>
     <t>win10-4-04.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ユーザ名」のところにアカウント名を入力します。
-&lt;p class="spl"&gt;※ アカウント名は学生番号の最初のアルファベットが小文字のものになります&lt;/p&gt;
-「パスワード」には広大パスワードを記入します。
-&lt;p class="spl"&gt;※ 大文字を入力するときは、SHIFTキーを押しながら文字キーを押します。&lt;/p&gt;
-両方を入力したら「OK」をクリックしてください。
-   </t>
   </si>
   <si>
     <t>win10-4-05.svg</t>
@@ -599,10 +591,6 @@
     <t>「パスワードの確認」として、先ほど決めたパスワードをもう一度入力します。</t>
   </si>
   <si>
-    <t xml:space="preserve">「デジタルアシスタントの利用」も、今の所は「拒否」としておきます。後から使うように変更できます。
-  </t>
-  </si>
-  <si>
     <t xml:space="preserve">自動アップデートのタイミング以外にDefenderを更新する方法について説明します。Windowsの自動更新機能で、Defenderは最新状態にたもたれます。しかし、緊急の脆弱性が発表された場合など、すぐに更新した方が良い時もあります。
 ウィンドウ左のリストから「Windows セキュリティ」をクリックし、「Windows セキュリティを開く」をクリックします。
   </t>
@@ -827,10 +815,6 @@
     <rPh sb="304" eb="305">
       <t>スス</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「インターネットに接続すると、・・・」と再度確認の画面が出ます。左下の「制限された設定で続行する」をクリックして飛ばします。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2521,6 +2505,82 @@
 第1週の授業で説明されるのは&lt;em&gt;第1章と第6章&lt;/em&gt;
 です。これらの章のファイルを同様にして保存してください。&lt;span class="check"&gt;check-11&lt;/span&gt;
   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「ユーザ名」のところにアカウント名を入力します。
+&lt;p class="spl"&gt;※ アカウント名は学生番号の最初のアルファベットが小文字のものになります&lt;/p&gt;
+「パスワード」には広大パスワードを記入します。
+&lt;p class="spl"&gt;※ 大文字を入力するときは、SHIFTキーを押しながら文字キーを押します。&lt;/p&gt;
+両方を入力したら「OK」をクリックしてください。
+   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「インターネットに接続すると、・・・」と再度確認の画面が出ます。左下の「制限された設定で続行する」をクリックして飛ばします。
+&lt;p class="spl"&gt;※ Surface GO では右下の選択肢から「No」をクリックして飛ばします。&lt;/p&gt;
+</t>
+    <rPh sb="93" eb="95">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="96" eb="99">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再起動した後、再度ネットワークへの接続を促されますが、もう一度「インターネットに接続していません」「制限された設定で続行する」をクリックして飛ばします。</t>
+    <rPh sb="0" eb="3">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ゾッコウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「デジタルアシスタントの利用」も、今の所は「拒否」としておきます。後から使うように変更できます。
+&lt;p class="spl"&gt;※ Surface GO ではCortanaを使うかどうかを尋ねられます。やはり「拒否」をクリックして飛 ばします。&lt;/p&gt;
+  </t>
+    <rPh sb="87" eb="88">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>タズ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>キョヒ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2958,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2974,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2982,7 +3042,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2996,7 +3056,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3033,7 +3093,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3041,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3057,7 +3117,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3065,7 +3125,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3076,7 +3136,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3084,13 +3144,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3098,13 +3158,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3112,13 +3172,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3126,13 +3186,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3140,18 +3200,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3159,13 +3219,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3173,13 +3233,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3187,13 +3247,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3201,18 +3261,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3220,13 +3280,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3234,7 +3294,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -3252,10 +3312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A13" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -3272,7 +3332,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -3296,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
@@ -3304,7 +3364,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -3332,13 +3392,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3346,7 +3406,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
@@ -3357,10 +3417,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3368,7 +3428,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
@@ -3382,149 +3442,157 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>177</v>
+        <v>281</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s" ph="1">
-        <v>4</v>
-      </c>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>135</v>
-      </c>
-      <c r="C14" t="s" ph="1">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s" ph="1">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s" ph="1">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s" ph="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s" ph="1">
-        <v>136</v>
-      </c>
-      <c r="D17" t="s" ph="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s" ph="1">
-        <v>4</v>
-      </c>
+    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>178</v>
-      </c>
-      <c r="C18" t="s" ph="1">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s" ph="1">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s" ph="1">
+        <v>178</v>
+      </c>
+      <c r="C20" t="s" ph="1">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s" ph="1">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s" ph="1">
-        <v>131</v>
-      </c>
-      <c r="D20" t="s" ph="1">
-        <v>162</v>
-      </c>
-    </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s" ph="1">
-        <v>4</v>
-      </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>137</v>
-      </c>
-      <c r="C21" t="s" ph="1">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>283</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>155</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s" ph="1">
+        <v>180</v>
+      </c>
+      <c r="C24" t="s" ph="1">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s" ph="1">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3539,7 +3607,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3555,7 +3623,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3579,7 +3647,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3587,7 +3655,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3601,7 +3669,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3615,7 +3683,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3629,7 +3697,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -3643,7 +3711,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3657,7 +3725,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3671,7 +3739,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -3685,7 +3753,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3699,7 +3767,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3713,7 +3781,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3733,8 +3801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3774,17 +3842,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3792,13 +3860,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3806,7 +3874,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3820,7 +3888,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3834,7 +3902,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3862,13 +3930,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -3876,21 +3944,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3898,7 +3966,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -3912,13 +3980,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3933,7 +4001,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView topLeftCell="B17" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3949,7 +4017,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3957,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3973,7 +4041,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3981,7 +4049,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3992,7 +4060,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4000,13 +4068,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4014,13 +4082,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4028,13 +4096,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4042,13 +4110,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4056,18 +4124,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4075,13 +4143,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4089,13 +4157,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -4103,13 +4171,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4117,13 +4185,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4131,13 +4199,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4145,13 +4213,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4182,7 +4250,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4206,7 +4274,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -4214,7 +4282,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4230,7 +4298,7 @@
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -4238,7 +4306,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -4249,39 +4317,39 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" t="s">
         <v>197</v>
-      </c>
-      <c r="D12" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4289,13 +4357,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4303,7 +4371,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -4314,7 +4382,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4322,21 +4390,21 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4344,13 +4412,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4358,13 +4426,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4372,13 +4440,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4386,13 +4454,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="5" customFormat="1" ht="91" x14ac:dyDescent="0.2">
@@ -4400,13 +4468,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4420,7 +4488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -4437,7 +4505,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4445,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4461,7 +4529,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -4469,7 +4537,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4480,7 +4548,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4502,13 +4570,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4516,18 +4584,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4549,13 +4617,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4563,21 +4631,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4585,13 +4653,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4599,13 +4667,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4613,13 +4681,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
         <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4627,13 +4695,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4641,13 +4709,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4655,18 +4723,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4688,13 +4756,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4702,13 +4770,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4716,18 +4784,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>80</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4749,13 +4817,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4763,13 +4831,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>85</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4777,13 +4845,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4791,13 +4859,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -4805,13 +4873,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4819,13 +4887,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4833,13 +4901,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>93</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4847,13 +4915,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
         <v>95</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4861,13 +4929,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4875,13 +4943,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>99</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
@@ -4889,18 +4957,18 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4908,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -4922,13 +4990,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4936,13 +5004,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4950,21 +5018,21 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -4972,13 +5040,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5006,10 +5074,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5017,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5033,7 +5101,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5041,7 +5109,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5052,17 +5120,17 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -5070,7 +5138,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5107,7 +5175,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5115,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5131,7 +5199,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5139,7 +5207,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5155,15 +5223,15 @@
     </row>
     <row r="8" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -5171,13 +5239,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5185,37 +5253,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5223,23 +5291,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527CC9F5-B032-430E-BE5C-C897BD9BA8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66C5D05-1C06-42A4-A935-55AAE76D38E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30930" yWindow="1545" windowWidth="17925" windowHeight="12450" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35655" yWindow="735" windowWidth="17925" windowHeight="11400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="278">
   <si>
     <t>header1</t>
   </si>
@@ -346,41 +344,6 @@
   </si>
   <si>
     <t>win10-6-17.svg</t>
-  </si>
-  <si>
-    <t>win10-6-18.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左メニューの「テキスト・スライド資料」をクリックすると右側にフォルダが表示されます。各週の資料がまとめられていますね。
-「第1章　大学で何を学ぶか（各学部・プログラム）」をクリックして開きましょう。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-19.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フォルダの中には三つのファイルがありました。
-「第1章テキスト (PDF)」の内容を確認してみましょう。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-20.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。
-内容を確認したら、上の方の閲覧履歴が出てるところの「第1章...」をクリックして前の画面に戻りましょう。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-21.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">掲載されているファイルを保存（ダウンロード）する一番簡単な方法は、この画面でリンクを右クリック→保存とすることです。
-「第1章テキスト (PDF)」を左クリックして表示されるメニューから「対象をファイルに保存」とします。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-22.svg</t>
   </si>
   <si>
     <t>win10-6-23.svg</t>
@@ -476,15 +439,6 @@
 &lt;ul&gt; &lt;/ul&gt;
 &lt;/ul&gt;
 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Bb9で配布されている教材を開けることを確認するため、「大学教育入門」のコースをみてみましょう。
-転入生の方は、「大学教育入門」がありませんので、「Information Security and Compliance」のコースを開いて、スライドなどがみられることを確認してください。
- 「大学教育入門」では、授業に参加する前に各自必携PCに教材をダウンロードしておくことが求められています。先ほど開いたメールにその旨の指示が来ていたと思います。
-ここでは、第1週に実施される講義の資料をダウンロードする手順を紹介しておきます。
-まず、コース一覧から「2020大学教育入門...」をクリックしてコースを開きましょう。
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1927,36 +1881,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">2回目からはログインしたら、この画面が出ます。
-真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
-ここに並んでいるコースは、あなたが受講する授業に関連したものと、そうでないものがあります。今並んでいるものを簡単に説明すると：
-&lt;dl&gt;&lt;dt&gt;大学教育入門&lt;/dt&gt;
-&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt;
-&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
-&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届け」を提出する必要があります。このコースでは、点検届けが提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
-&lt;dt&gt;Information Security and Compliance (情報セキュリティ・コンプライアンス)&lt;/dt&gt;
-&lt;dd&gt;「情報セキュリティ・コンプライアンス講習」は、広島大学でパソコンやネットワークを安全に使うための講座です。学生だけでなく、教職員を含めた全構成員必修の内容です。講習は、教室での講義とオンライン学習（このコース）からなっています。6月末までにこのコースの中にある確認テストに合格し、「&lt;em&gt;アカウント利用確認&lt;/em&gt;
-」の手続きをおこなわないと、アカウントがロックされ、メール等が使えなくなります。&lt;/dd&gt;
- &lt;/dl&gt;
-  </t>
-    <rPh sb="383" eb="385">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="386" eb="388">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="389" eb="390">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="401" eb="402">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="410" eb="411">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">「ウイルスと脅威の防止」をクリックしましょう。
 &lt;p class="spl"&gt;※この部分に黄色のアイコンが出ている場合があります。これはランサムウェアに備えるためのOneDriveへのデータバックアップが設定されていないことを示していますが、この講習会ではまだ設定しません。気になるようでしたら「無視する」をクリックしてください。となおデータバックアップ設定はこのメニューからいつでもできます。&lt;/p&gt;
   </t>
@@ -2498,16 +2422,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">このようなパネルが表示されます。
-まず、保存されるファイルの名称と種類を確認しましょう。Edgeを使っていると、教員がつけたファイル名がここに出ているはずです。出ていなかったら、適切な名前を記入してください。ファイル形式も「PDF」になっていることを確認しましょう。HTMLとか別のものになっている場合は、違う場所で右クリックしていた可能性があります。
-次にファイルが保存されるフォルダを確認します。初期状態では「ダウンロード」フォルダです。わかりやすい場所にこれ用のフォルダを作ってそこに保存するのも良いでしょう。「ダウンロード」以外のフォルダに保存したい場合は、左側の欄を利用してフォルダを指定できます。指定したフォルダが、図の「(2) 保存先の...」のところに表示されていることを確認しましょう。
-右下の「保存」ボタンをクリックすれば保存されます。
-第1週の授業で説明されるのは&lt;em&gt;第1章と第6章&lt;/em&gt;
-です。これらの章のファイルを同様にして保存してください。&lt;span class="check"&gt;check-11&lt;/span&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">「ユーザ名」のところにアカウント名を入力します。
 &lt;p class="spl"&gt;※ アカウント名は学生番号の最初のアルファベットが小文字のものになります&lt;/p&gt;
 「パスワード」には広大パスワードを記入します。
@@ -2580,6 +2494,188 @@
     </rPh>
     <rPh sb="105" eb="107">
       <t>キョヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bb9で配布されている教材をダウンロードできることを確認するため、「ノートパソコン点検届」のコースをみてみましょう。
+まず、コース一覧から「ノートパソコン点検届2020」をクリックしてコースを開きましょう。
+  </t>
+    <rPh sb="41" eb="43">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>トドケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">左メニューの「教材」をクリックすると右側にフォルダが表示されます。いちばん上は、点検届を提出するためのリンクです。
+２番目にある「点検届ワークシート/Checkllist worksheet」をクリックして開きましょう。
+  </t>
+    <rPh sb="7" eb="9">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>トドケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">掲載されているファイルを保存（ダウンロード）する一番簡単な方法は、この画面で表示内容を右クリックして保存することです。
+左クリックして表示されるメニューから「名前を付けて保存」をクリックします。
+  </t>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このようなパネルが表示されます。
+まず、保存されるファイルの名称と種類を確認しましょう。Edgeを使っていると、教員がつけたファイル名がここに出ているはずです。出ていなかったら、適切な名前を記入してください。ファイル形式も「PDF」になっていることを確認しましょう。HTMLとか別のものになっている場合は、違う場所で右クリックしていた可能性があります。
+次にファイルが保存されるフォルダを確認します。初期状態では「ダウンロード」フォルダです。わかりやすい場所にこれ用のフォルダを作ってそこに保存するのも良いでしょう。「ダウンロード」以外のフォルダに保存したい場合は、左側の欄を利用してフォルダを指定できます。指定したフォルダが、図の「(2) 保存先の...」のところに表示されていることを確認しましょう。
+右下の「保存」ボタンをクリックすれば保存されます。
+&lt;span class="check"&gt;check-11&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回目からはログインしたら、この画面が出ます。
+真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
+これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。新入生共通で表示されるものを簡単に説明すると：
+&lt;dl&gt;
+&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
+&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届」を提出する必要があります。このコースでは、点検届が提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
+&lt;dt&gt;大学教育入門&lt;/dt&gt;
+&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt; &lt;/dl&gt;
+  &lt;p class="spl"&gt;※今年の「大学教育入門」は、新型コロナウィルス対策のために受講方法が例年と異なります。「もみじ」などでの案内によく注意してください。&lt;/p&gt;</t>
+    <rPh sb="71" eb="73">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>シンニュウセイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="262" eb="264">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="280" eb="281">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="289" eb="290">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="471" eb="473">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="475" eb="477">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="477" eb="479">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="479" eb="481">
+      <t>ニュウモン</t>
+    </rPh>
+    <rPh sb="484" eb="486">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="493" eb="495">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="499" eb="501">
+      <t>ジュコウ</t>
+    </rPh>
+    <rPh sb="501" eb="503">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="504" eb="506">
+      <t>レイネン</t>
+    </rPh>
+    <rPh sb="507" eb="508">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="522" eb="524">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="527" eb="529">
+      <t>チュウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3018,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3034,7 +3130,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3042,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3056,7 +3152,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3093,7 +3189,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3101,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3117,7 +3213,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3125,7 +3221,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3136,7 +3232,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3144,13 +3240,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3158,13 +3254,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3172,13 +3268,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3186,13 +3282,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3200,18 +3296,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3219,13 +3315,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3233,13 +3329,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3247,13 +3343,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3261,18 +3357,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3280,13 +3376,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3294,7 +3390,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -3332,7 +3428,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -3356,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
@@ -3364,7 +3460,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -3392,13 +3488,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3406,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
@@ -3417,10 +3513,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3428,7 +3524,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
@@ -3442,29 +3538,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -3472,13 +3568,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
@@ -3486,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
@@ -3511,10 +3607,10 @@
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -3522,13 +3618,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3536,7 +3632,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
@@ -3547,10 +3643,10 @@
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -3558,13 +3654,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -3572,13 +3668,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3586,13 +3682,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3623,7 +3719,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3647,7 +3743,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3655,7 +3751,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3669,7 +3765,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3683,7 +3779,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3697,7 +3793,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -3711,7 +3807,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3725,7 +3821,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3739,7 +3835,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -3753,7 +3849,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3767,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3781,7 +3877,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3842,17 +3938,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3860,7 +3956,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3874,7 +3970,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3888,7 +3984,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3902,7 +3998,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3930,7 +4026,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3944,7 +4040,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3955,10 +4051,10 @@
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3966,7 +4062,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -3980,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -4017,7 +4113,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4025,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4041,7 +4137,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -4049,7 +4145,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4102,7 +4198,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4110,13 +4206,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4143,13 +4239,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4157,13 +4253,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -4171,7 +4267,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -4185,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -4199,13 +4295,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4213,13 +4309,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4250,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4274,7 +4370,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -4282,7 +4378,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4298,7 +4394,7 @@
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -4306,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -4317,39 +4413,39 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4357,13 +4453,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4371,7 +4467,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -4382,7 +4478,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4390,7 +4486,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -4401,10 +4497,10 @@
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4412,13 +4508,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4426,13 +4522,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4440,13 +4536,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4454,7 +4550,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -4468,13 +4564,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4486,10 +4582,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4513,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4529,7 +4625,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -4537,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4642,10 +4738,10 @@
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4653,13 +4749,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4695,7 +4791,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -4770,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -4868,12 +4964,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="182" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -4882,18 +4978,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4901,13 +4994,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>274</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4915,13 +5005,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>94</v>
+        <v>273</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4929,124 +5016,107 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
-      <c r="D37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:4" ht="156" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>98</v>
+        <v>276</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>102</v>
+      <c r="B41" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>122</v>
+      <c r="B42" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s" ph="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D45" t="s" ph="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" t="s">
-        <v>107</v>
+      <c r="D45" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5074,10 +5144,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5085,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5101,7 +5171,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5109,7 +5179,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5120,17 +5190,17 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -5138,7 +5208,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5175,7 +5245,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5183,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5199,7 +5269,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5207,7 +5277,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5223,15 +5293,15 @@
     </row>
     <row r="8" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -5239,13 +5309,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5253,37 +5323,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5291,23 +5361,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66C5D05-1C06-42A4-A935-55AAE76D38E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B3AEAF-4B35-4B53-B528-26A5623CFE5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35655" yWindow="735" windowWidth="17925" windowHeight="11400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="610" yWindow="120" windowWidth="17930" windowHeight="11400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="280">
   <si>
     <t>header1</t>
   </si>
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t>win10-6-17.svg</t>
-  </si>
-  <si>
-    <t>win10-6-23.svg</t>
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="omake"&gt;&lt;/a&gt;おまけ&lt;/h2&gt;</t>
@@ -2677,6 +2674,18 @@
     <rPh sb="527" eb="529">
       <t>チュウイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-32.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-33.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-31.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3114,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3130,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3138,7 +3147,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3152,7 +3161,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3189,7 +3198,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3197,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3213,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3221,7 +3230,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3232,7 +3241,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3240,13 +3249,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>216</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3254,13 +3263,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>218</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3268,13 +3277,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>220</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3282,13 +3291,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>222</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3296,18 +3305,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>224</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3315,13 +3324,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>227</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3329,13 +3338,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>229</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3343,13 +3352,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3357,18 +3366,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3376,13 +3385,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>236</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3390,7 +3399,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -3428,7 +3437,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -3452,7 +3461,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
@@ -3460,7 +3469,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -3488,13 +3497,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3502,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
@@ -3513,10 +3522,10 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s" ph="1">
         <v>141</v>
-      </c>
-      <c r="D10" t="s" ph="1">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3524,7 +3533,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
@@ -3538,29 +3547,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -3568,13 +3577,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
@@ -3582,7 +3591,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
@@ -3607,10 +3616,10 @@
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
@@ -3618,13 +3627,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3632,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
@@ -3643,10 +3652,10 @@
     </row>
     <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
@@ -3654,13 +3663,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
@@ -3668,13 +3677,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
@@ -3682,13 +3691,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s" ph="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3719,7 +3728,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3743,7 +3752,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3751,7 +3760,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3765,7 +3774,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3779,7 +3788,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3793,7 +3802,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -3807,7 +3816,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3821,7 +3830,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3835,7 +3844,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -3849,7 +3858,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3863,7 +3872,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3877,7 +3886,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3938,17 +3947,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3956,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3970,7 +3979,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3984,7 +3993,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3998,7 +4007,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -4026,7 +4035,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4040,7 +4049,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -4051,10 +4060,10 @@
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4062,7 +4071,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -4076,7 +4085,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -4113,7 +4122,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4121,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4137,7 +4146,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -4145,7 +4154,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4198,7 +4207,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4206,13 +4215,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4239,13 +4248,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4253,13 +4262,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -4267,7 +4276,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -4281,7 +4290,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -4295,13 +4304,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4309,13 +4318,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4346,7 +4355,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4370,7 +4379,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -4378,7 +4387,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4394,7 +4403,7 @@
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -4402,7 +4411,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -4413,39 +4422,39 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4453,13 +4462,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4467,7 +4476,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -4478,7 +4487,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4486,7 +4495,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -4497,10 +4506,10 @@
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4508,13 +4517,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4522,13 +4531,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4536,13 +4545,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4550,7 +4559,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -4564,13 +4573,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4584,8 +4593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4609,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4625,7 +4634,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -4633,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4738,10 +4747,10 @@
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" t="s">
         <v>158</v>
-      </c>
-      <c r="D15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4749,13 +4758,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4791,7 +4800,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -4866,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -4969,7 +4978,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -4983,7 +4992,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -4994,7 +5003,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -5005,10 +5014,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -5016,10 +5028,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="156" x14ac:dyDescent="0.2">
@@ -5027,18 +5042,18 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5046,7 +5061,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -5060,13 +5075,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5074,13 +5089,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -5088,21 +5103,21 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -5110,13 +5125,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5144,10 +5159,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5155,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5171,7 +5186,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5179,7 +5194,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5190,17 +5205,17 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -5208,7 +5223,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5245,7 +5260,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5253,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5269,7 +5284,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5277,7 +5292,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5293,15 +5308,15 @@
     </row>
     <row r="8" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -5309,13 +5324,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5323,37 +5338,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" t="s">
         <v>244</v>
-      </c>
-      <c r="D13" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
         <v>158</v>
-      </c>
-      <c r="D14" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5361,23 +5376,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B3AEAF-4B35-4B53-B528-26A5623CFE5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB17F30-5383-4930-BD5A-0D6C1D99649D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="610" yWindow="120" windowWidth="17930" windowHeight="11400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17930" windowHeight="11400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -2518,36 +2518,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">左メニューの「教材」をクリックすると右側にフォルダが表示されます。いちばん上は、点検届を提出するためのリンクです。
-２番目にある「点検届ワークシート/Checkllist worksheet」をクリックして開きましょう。
-  </t>
-    <rPh sb="7" eb="9">
-      <t>キョウザイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>バンメ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>トドケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">掲載されているファイルを保存（ダウンロード）する一番簡単な方法は、この画面で表示内容を右クリックして保存することです。
 左クリックして表示されるメニューから「名前を付けて保存」をクリックします。
   </t>
@@ -2686,6 +2656,36 @@
   </si>
   <si>
     <t>win10-6-31.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">左メニューの「教材」をクリックすると右側にフォルダが表示されます。いちばん上は、点検届を提出するためのリンクです。
+２番目にある「点検届ワークシート/Checklist worksheet」をクリックして開きましょう。
+  </t>
+    <rPh sb="7" eb="9">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>トドケ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4594,7 +4594,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4978,7 +4978,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -5003,7 +5003,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -5020,7 +5020,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -5028,13 +5028,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="156" x14ac:dyDescent="0.2">
@@ -5042,13 +5042,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB17F30-5383-4930-BD5A-0D6C1D99649D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD1F96D-14F7-40F7-92B8-917DBBB69C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17930" windowHeight="11400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="281">
   <si>
     <t>header1</t>
   </si>
@@ -2685,6 +2685,55 @@
     </rPh>
     <rPh sb="67" eb="68">
       <t>トドケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このテキストの第１章からここまで順に進んでいれば、点検届チェックリストがすべてチェックできているはずです。&lt;strong&gt;Bb9の「ノートパソコン点検届」コースを開いて、点検届を提出しましょう！&lt;/strong&gt;</t>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>スス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4591,10 +4640,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5051,86 +5100,91 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="D42" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D44" t="s" ph="1">
+      <c r="D45" t="s" ph="1">
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>97</v>
       </c>
     </row>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD1F96D-14F7-40F7-92B8-917DBBB69C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FECEA42-1F39-45BE-B6AE-5A4AAC562746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37005" yWindow="1155" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="ch8" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2724,16 +2725,7 @@
       <t>トドケ</t>
     </rPh>
     <rPh sb="89" eb="91">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>スス</t>
+      <t>テイシュツツカバアイスス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4643,7 +4635,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FECEA42-1F39-45BE-B6AE-5A4AAC562746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0057E948-2AD1-4BDB-B105-70A1F9C14419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37005" yWindow="1155" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34620" yWindow="3420" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="ch8" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="283">
   <si>
     <t>header1</t>
   </si>
@@ -2727,6 +2726,14 @@
     <rPh sb="89" eb="91">
       <t>テイシュツツカバアイスス</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-34.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-35.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4634,8 +4641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5049,6 +5056,9 @@
       <c r="C35" t="s">
         <v>4</v>
       </c>
+      <c r="D35" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -5095,6 +5105,9 @@
     <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>280</v>
+      </c>
+      <c r="D39" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0057E948-2AD1-4BDB-B105-70A1F9C14419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2AD98D-F568-45E8-9955-4DE0B212C2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34620" yWindow="3420" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38715" yWindow="2490" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="284">
   <si>
     <t>header1</t>
   </si>
@@ -2734,6 +2734,10 @@
   </si>
   <si>
     <t>win10-6-35.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-36.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4641,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5044,6 +5048,9 @@
       </c>
       <c r="C34" t="s">
         <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2AD98D-F568-45E8-9955-4DE0B212C2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18452752-259A-4809-BEF0-53F42B9CAC12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38715" yWindow="2490" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="2535" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="285">
   <si>
     <t>header1</t>
   </si>
@@ -2738,6 +2738,10 @@
   </si>
   <si>
     <t>win10-6-36.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-41.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4645,8 +4649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4802,7 +4806,7 @@
         <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18452752-259A-4809-BEF0-53F42B9CAC12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338384CC-7944-4DB6-B43C-3FFE60DA4A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="2535" windowWidth="13425" windowHeight="10575" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -2017,35 +2017,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;strong&gt;この章の作業はあなたが広島大学の学生証をもらってから、広島大学の中にいるときに行ってください。&lt;/strong&gt;
-&lt;p class="spl"&gt;※学生証に書かれている学生番号と、学生証と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
-    <rPh sb="81" eb="84">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="97" eb="100">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Surfaceの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとはだいたい言われるままにしていけば大丈夫です。 すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。  </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2742,6 +2713,93 @@
   </si>
   <si>
     <t>win10-6-41.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;新型コロナウィルス対策のため、対面型授業開始（５月連休明けを予定）までは、大学キャンパスへの来校は必要最小限の用事があるときのみとなります。
+したがって、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
+&lt;p class="spl"&gt;※学生証に書かれている学生番号と、学生証と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
+    <rPh sb="8" eb="10">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>タイメンガタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>レンキュウア</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ライコウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>サイショウゲン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヨウジ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ライコウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="159" eb="162">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="175" eb="178">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3179,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3217,7 +3275,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3493,7 +3551,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -3525,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -3614,7 +3672,7 @@
     </row>
     <row r="13" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D13" t="s" ph="1">
         <v>139</v>
@@ -3622,7 +3680,7 @@
     </row>
     <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" t="s" ph="1">
         <v>138</v>
@@ -3719,7 +3777,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
@@ -3784,7 +3842,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3816,7 +3874,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3962,8 +4020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4011,9 +4069,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4091,7 +4149,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4210,7 +4268,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4332,7 +4390,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -4562,7 +4620,7 @@
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D19" t="s">
         <v>162</v>
@@ -4649,8 +4707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4674,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4806,7 +4864,7 @@
         <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4856,7 +4914,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -4931,7 +4989,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -5034,7 +5092,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -5048,13 +5106,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -5062,13 +5120,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5076,13 +5134,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -5090,13 +5148,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="156" x14ac:dyDescent="0.2">
@@ -5104,21 +5162,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -5280,7 +5338,7 @@
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338384CC-7944-4DB6-B43C-3FFE60DA4A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08834EB-67B9-4FD5-839B-C7E96FA580C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -2716,8 +2716,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;strong&gt;新型コロナウィルス対策のため、対面型授業開始（５月連休明けを予定）までは、大学キャンパスへの来校は必要最小限の用事があるときのみとなります。
-したがって、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
+    <t>&lt;strong&gt;新型コロナウィルス対策のため、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
 &lt;p class="spl"&gt;※学生証に書かれている学生番号と、学生証と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
     <rPh sb="8" eb="10">
       <t>シンガタ</t>
@@ -2725,79 +2724,46 @@
     <rPh sb="17" eb="19">
       <t>タイサク</t>
     </rPh>
-    <rPh sb="23" eb="26">
-      <t>タイメンガタ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>レンキュウア</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
+    <rPh sb="30" eb="31">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
       <t>ライコウ</t>
     </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>サイショウゲン</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ヨウジ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ライコウ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
+    <rPh sb="52" eb="54">
       <t>ジカン</t>
     </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="113" eb="116">
+      <t>ガクセイショウ</t>
+    </rPh>
     <rPh sb="117" eb="119">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="159" eb="162">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="163" eb="164">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="171" eb="173">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="175" eb="178">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
       <t>イッショ</t>
     </rPh>
-    <rPh sb="187" eb="189">
+    <rPh sb="125" eb="127">
       <t>ヒロダイ</t>
     </rPh>
-    <rPh sb="196" eb="198">
+    <rPh sb="134" eb="136">
       <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -4021,7 +3987,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4069,7 +4035,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>284</v>
       </c>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08834EB-67B9-4FD5-839B-C7E96FA580C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10380EF1-9AF5-411A-9DBB-2AD24C6F6A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -2519,6 +2519,157 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>win10-6-32.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-33.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-31.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">左メニューの「教材」をクリックすると右側にフォルダが表示されます。いちばん上は、点検届を提出するためのリンクです。
+２番目にある「点検届ワークシート/Checklist worksheet」をクリックして開きましょう。
+  </t>
+    <rPh sb="7" eb="9">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>トドケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このテキストの第１章からここまで順に進んでいれば、点検届チェックリストがすべてチェックできているはずです。&lt;strong&gt;Bb9の「ノートパソコン点検届」コースを開いて、点検届を提出しましょう！&lt;/strong&gt;</t>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>テイシュツツカバアイスス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-34.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-35.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-36.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-41.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;新型コロナウィルス対策のため、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
+&lt;p class="spl"&gt;※学生証に書かれている学生番号と、学生証と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
+    <rPh sb="8" eb="10">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ライコウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="113" eb="116">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>2回目からはログインしたら、この画面が出ます。
 真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
 これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。新入生共通で表示されるものを簡単に説明すると：
@@ -2527,7 +2678,7 @@
 &lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届」を提出する必要があります。このコースでは、点検届が提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
 &lt;dt&gt;大学教育入門&lt;/dt&gt;
 &lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt; &lt;/dl&gt;
-  &lt;p class="spl"&gt;※今年の「大学教育入門」は、新型コロナウィルス対策のために受講方法が例年と異なります。「もみじ」などでの案内によく注意してください。&lt;/p&gt;</t>
+  &lt;p class="spl"&gt;&lt;strong&gt;※今年の「大学教育入門」は、新型コロナウィルス対策のためにコースの開設が遅れています。「もみじ」などでの案内によく注意してください。&lt;/strong&gt;&lt;/p&gt;</t>
     <rPh sb="71" eb="73">
       <t>リシュウ</t>
     </rPh>
@@ -2579,192 +2730,23 @@
     <rPh sb="289" eb="290">
       <t>ヒラ</t>
     </rPh>
-    <rPh sb="471" eb="473">
-      <t>コトシ</t>
-    </rPh>
-    <rPh sb="475" eb="477">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="477" eb="479">
-      <t>キョウイク</t>
-    </rPh>
-    <rPh sb="479" eb="481">
-      <t>ニュウモン</t>
-    </rPh>
-    <rPh sb="484" eb="486">
+    <rPh sb="492" eb="494">
       <t>シンガタ</t>
     </rPh>
-    <rPh sb="493" eb="495">
+    <rPh sb="501" eb="503">
       <t>タイサク</t>
     </rPh>
-    <rPh sb="499" eb="501">
-      <t>ジュコウ</t>
-    </rPh>
-    <rPh sb="501" eb="503">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="504" eb="506">
-      <t>レイネン</t>
-    </rPh>
-    <rPh sb="507" eb="508">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="522" eb="524">
+    <rPh sb="511" eb="513">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="514" eb="515">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="530" eb="532">
       <t>アンナイ</t>
     </rPh>
-    <rPh sb="527" eb="529">
+    <rPh sb="535" eb="537">
       <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-32.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-33.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-31.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">左メニューの「教材」をクリックすると右側にフォルダが表示されます。いちばん上は、点検届を提出するためのリンクです。
-２番目にある「点検届ワークシート/Checklist worksheet」をクリックして開きましょう。
-  </t>
-    <rPh sb="7" eb="9">
-      <t>キョウザイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>バンメ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>トドケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このテキストの第１章からここまで順に進んでいれば、点検届チェックリストがすべてチェックできているはずです。&lt;strong&gt;Bb9の「ノートパソコン点検届」コースを開いて、点検届を提出しましょう！&lt;/strong&gt;</t>
-    <rPh sb="7" eb="8">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>テイシュツツカバアイスス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-34.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-35.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-36.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-41.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;新型コロナウィルス対策のため、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
-&lt;p class="spl"&gt;※学生証に書かれている学生番号と、学生証と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
-    <rPh sb="8" eb="10">
-      <t>シンガタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ライコウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="97" eb="100">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="113" eb="116">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3986,8 +3968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4037,7 +4019,7 @@
     </row>
     <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4673,8 +4655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4830,7 +4812,7 @@
         <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5058,7 +5040,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -5078,7 +5060,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -5086,13 +5068,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5106,7 +5088,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -5120,7 +5102,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="156" x14ac:dyDescent="0.2">
@@ -5134,15 +5116,15 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -5338,7 +5320,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10380EF1-9AF5-411A-9DBB-2AD24C6F6A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6DCD89-DCED-473A-9184-6B7C7F849F42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -18,26 +18,19 @@
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
     <sheet name="ch2" sheetId="5" r:id="rId4"/>
     <sheet name="ch3" sheetId="6" r:id="rId5"/>
-    <sheet name="ch4" sheetId="4" r:id="rId6"/>
-    <sheet name="ch5" sheetId="7" r:id="rId7"/>
-    <sheet name="ch6" sheetId="8" r:id="rId8"/>
-    <sheet name="ch7" sheetId="9" r:id="rId9"/>
-    <sheet name="ch8" sheetId="11" r:id="rId10"/>
+    <sheet name="ch4" sheetId="12" r:id="rId6"/>
+    <sheet name="ch5" sheetId="4" r:id="rId7"/>
+    <sheet name="ch6" sheetId="7" r:id="rId8"/>
+    <sheet name="ch7" sheetId="14" r:id="rId9"/>
+    <sheet name="ch8" sheetId="8" r:id="rId10"/>
+    <sheet name="ch9" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="286">
   <si>
     <t>header1</t>
   </si>
@@ -82,11 +75,6 @@
     <t>win10-0-07.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">「パスワード」は、十分に複雑な（でも、ちゃんと覚えていられて忘れないもの）を付けましょう。ユーザ名と同じものとか &amp;quot;333&amp;quot; とかすぐに類推できてしまうようなものを付けてはいけません。
-ここで決めたパスワードを忘れると、相当面倒なことになりますので慎重に！
-  </t>
-  </si>
-  <si>
     <t>win10-0-08.svg</t>
   </si>
   <si>
@@ -121,9 +109,6 @@
   </si>
   <si>
     <t>win10-1-14.svg</t>
-  </si>
-  <si>
-    <t>必要なソフトウェアのインストール</t>
   </si>
   <si>
     <t>&lt;h2&gt;この章を始める前に&lt;/h2&gt;</t>
@@ -404,38 +389,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2020 Win10 chap.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2020 Win10 chap.1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>FRESTA-TEXT-2020 Win10 chap.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Win10 chap.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">オンライン履修登録などをおこなう「もみじ」、広大メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているオンラインサービスにログインしてみましょう。
-これらのサービスを利用するにはWebブラウザを使います。
-WindowsではMicrosoft Edgeというアプリが標準のWebブラウザとして設定されています。このアイコンをダブルクリックしてはじめましょう。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#momiji"&gt;もみじ (広大学生用ポータルサイト)&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mail"&gt;Office365 (Webメールとオンラインストレージ)&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mymomiji"&gt;MYもみじ (履修登録や掲示板など)&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#bb9"&gt;Bb9 (学習支援システム )&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#omake"&gt;おまけ&lt;/a&gt;
-&lt;/li&gt;
-&lt;ul&gt; &lt;/ul&gt;
-&lt;/ul&gt;
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -558,14 +516,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2020 Win10 conclusion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Win10 chap.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-5-14a.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -691,14 +641,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">「Officeライセンス認証」というパネルが出ます。広大メールアドレス（b20xxxxx@hiroshima-u.ac.jp という形式）を記入し、「次へ」をクリックしてください。
-  </t>
-    <rPh sb="12" eb="14">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
 </t>
     <phoneticPr fontId="1"/>
@@ -773,34 +715,6 @@
 しかしこのPCに触れる人なら誰でもこの質問を使ってログインできてしまうので、あなたのPCが乗っ取られる危険性を大きくするものです。あまり良い機能ではありません。
 何か記入をしないと次に進めないので、あえて質問とは関係のない答を入れるのがおススメです。
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークに接続するための画面がでます。広大の必携PCとして使う場合は、ここで接続設定をしないでください。ここでは左下の「インターネットに接続していません」をクリックして飛ばします。
-  </t>
-    <rPh sb="31" eb="32">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PCを使うときのユーザ名を記入します。自分で使いやすいものをきめてください。
-「ユーザ名」は、&amp;quot;ayase&amp;quot; など名前をローマ字にしたものにするのが一般的です。漢字やひらがななども使えますが、そうするとたまに動かないソフトがあります。ユーザ名には漢字やひらがななどを使わないようにしましょう。   </t>
-    <rPh sb="90" eb="92">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>カンジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1023,10 +937,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2020 Win10 App.A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Microsoft Update を使って、Windows と Office がつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1209,23 +1119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ここでは、Google Chrome と Microsoft Officeのインストールとアクティベーションを行います。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#chrome"&gt;Google Chromeのインストール&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Microsoft Officeのアクティベーション&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Google Chrome と Microsoft Office を使えるようにしましょう。</t>
-    <rPh sb="34" eb="35">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-2-41.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1371,173 +1264,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2020 Win10 App.B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（付録B）USBメモリからのソフトウェアインストール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インターネットからのソフトウェアダウンロードがうまくいかない場合は、メディアセンターで借りられる配布用USBメモリを使います。</t>
-    <rPh sb="30" eb="32">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ハイフ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="copy"&gt;&lt;/a&gt;USBメモリからファイルをコピーする&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">配布されたUSBメモリをUSBポートに挿します。PCがUSBメモリを正常に認識すると、ぽんぽこりんという音がします。
-  </t>
-  </si>
-  <si>
-    <t>win10-2-01.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画面の右下に「FIRST LECというリムーバブルドライブをはじめて認識したけどどうする？」という旨のメッセージが出ます。それをクリックしてください。
-  </t>
-  </si>
-  <si>
-    <t>win10-2-02.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画面右上に可能な操作のリストが表示されます。「フォルダーを開いてファイルを表示」を選んでください。
-  </t>
-  </si>
-  <si>
-    <t>win10-2-03.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIRST LECというウィンドウが開きます。その中に入っている「setup2020-win10」というフォルダをデスクトップにドラッグしてコピーしましょう。
-※ コピーをするには、フォルダを選択してcontrol-C （コピー）、デスクトップをクリックして control-V （貼り付け）する方法もあります。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-04a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">コピーが終わったらUSBメモリを取り外します。ウィンドウ左の「FIRST LEC (D:)」を右クリックして、「取り出し」をクリックします。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-05.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Office365 ProPlus の正規版がすでに入っている場合には、ここを飛ばして&lt;a href="#chrome"&gt;[10]に進んでください&lt;/a&gt;
-。Office2013が入っている場合は、それをそのままにしてOffice 365 ProPlus を追加インストールすることができます。
-デスクトップにコピーした「setup2020-win10」というフォルダをダブルクリックして開きます。さらに中に「officepropluswin-jp」というフォルダがあるので、ダブルクリックして開きます。
-「install」という項目をダブルクリックして実行してください。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-06a.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">プログラムをインストールするときは、文書を作成するなどの通常の利用とは違う場所にファイルを作成しますので、このような警告が表示されます。「はい」をクリックしてください。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-07.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「すぐに完了します」などと出ますが、なかなか終わりません。気長に待ちましょう。10分くらいかかります。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-08.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">このような画面になったらできあがりです。「閉じる」をクリックして作業終了。
-  </t>
-  </si>
-  <si>
-    <t>win10-2-09.svg</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;Chromeを入れる&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次にGoogle Chromeを入れます。USBメモリからコピーしたWindowsフォルダにある &amp;quot;ChromeStandaloneSetup64&amp;quot;をダブルクリックして開いてください。
-「このアプリがデバイスに変更を加えることを許可しますか」と聞かれるので「はい」と答えてください。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-10.svg</t>
-  </si>
-  <si>
-    <t>ここでは、第３章、第４章および付録Aで説明しているソフトウェアのダウンロードがうまくいかない場合に、メディアセンターで配布用USBを借りてソフトウェアをインストールする方法を説明します。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#copy"&gt;USBメモリからファイルをコピーする&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Officeを入れる&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#chrome"&gt;Chromeを入れる&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;</t>
-    <rPh sb="5" eb="6">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フロク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ハイフ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1924,63 +1650,6 @@
     </rPh>
     <rPh sb="345" eb="346">
       <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">広島大学で情報サービスを使うときに必要な２種類のIDをもういちど確認しましょう。二種類とも学生番号をもとにしています。
-一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名(IMCアカウント名)」です。こちらは、先頭の一文字を小文字にしたものになっています。
-対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
-IMCアカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、第５章で紹介します。
-  </t>
-    <rPh sb="21" eb="23">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="335" eb="336">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="337" eb="338">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt; この章から先は、学生証に書かれている学生番号と、学生証とともにもらえる「広大パスワード」が必要です。学生証をもらってから、作業を進めてください。&lt;/strong&gt;</t>
-    <rPh sb="11" eb="12">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>スス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2243,55 +1912,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">自分のパソコンの基本的なスペックを確認しておきましょう。CPUの型式、OSのビット数、記憶容量など。
-なお、この章は広島大学の学生証をもらう前に実施することができます。 </t>
-    <rPh sb="56" eb="57">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="63" eb="66">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">最初に、目の前のPCがどんなものなのかを確認しましょう。PCの処理能力や容量の目安になるさまざまな要素を「スペック」と呼ぶことがあります。ここでは以下のスペックを確認しましょう。
-&lt;ol&gt;&lt;li&gt; OSのバージョン &lt;/li&gt;
-&lt;li&gt; メモリ容量（主記憶容量） &lt;/li&gt;
-&lt;li&gt; HDD/SDD容量（副記憶容量） &lt;/li&gt;
-&lt;li&gt; バッテリー駆動時間 &lt;/li&gt;
-&lt;/ol&gt;
-この章は広島大学の学生証をもらう前に実施することができます。 
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Update を使って、WindowsとOfficeがつねに最新版で使えるように設定します。
-さらに、Defenderでのフルスキャン（全てのファイルに対するウィルスチェック）のやり方を確認しておきます。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Windows Updateの設定&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#defender"&gt;Defenderの手動更新とフルスキャン&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
-この章は、インターネットに接続していれば、広島大学の学生証をもらう前に実施することができます。 
- </t>
-    <rPh sb="248" eb="250">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Defenderでは、ウイルスやスパイウェアその他の悪意を持つプログラム全般を「脅威」とし、それらを判別するルールを保存したファイルを「脅威の定義」と呼んでいます。
 「ウイルスと脅威の防止の更新」の下に、前回いつ「脅威の定義」が更新されたかが書かれています。&lt;span class="check"&gt;check-5,6&lt;/span&gt;
 &lt;p class="spl"&gt;※ここで「他のプログラム（ウィルスバスター、マカフィーリブセーフなど）が有効になっている」という旨の表示がされた場合、ウィルス対策はその表示されたプログラムが行っています。その場合はこの下の項目は飛ばして、別途そのプログラムの「利用期限」と「更新方法」「フルスキャンの実施方法」を確認してください。とくに「利用期限」が切れてウィルス対策に穴ができることがないよう注意してください。あとで Defender の利用に戻すこともできます。&lt;/p&gt;
@@ -2466,24 +2086,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Bb9で配布されている教材をダウンロードできることを確認するため、「ノートパソコン点検届」のコースをみてみましょう。
-まず、コース一覧から「ノートパソコン点検届2020」をクリックしてコースを開きましょう。
-  </t>
-    <rPh sb="41" eb="43">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>トドケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。
   </t>
     <phoneticPr fontId="1"/>
@@ -2614,59 +2216,6 @@
   </si>
   <si>
     <t>win10-6-41.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;新型コロナウィルス対策のため、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
-&lt;p class="spl"&gt;※学生証に書かれている学生番号と、学生証と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
-    <rPh sb="8" eb="10">
-      <t>シンガタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ライコウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="97" eb="100">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="113" eb="116">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ヒツヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2747,6 +2296,1401 @@
     </rPh>
     <rPh sb="535" eb="537">
       <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10 chap.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワークに接続するための画面がでます。広大の必携PCとして使う場合は、ここで接続設定をしないでください。ここでは左下の「インターネットに接続していません」をクリックして飛ばします。
+Microsoftは自社のネットワークサービスを使うためのマイクロソフトアカウントというものを作ってもらうため、ネットワークに接続した状態でセットアップを続けると、あちこちでマイクロソフトアカウントを作るように誘導します。様々なサービスが使えるようになり便利ではありますが、ネットワークの状態に影響を受けやすくなってしまうので、個人所有のPCとしては使い勝手が悪くなることがあります。ネットワークが途切れてもPCの管理ができるよう、最初のアカウントはネットワークにつながない状態で作ってください。   </t>
+    <rPh sb="31" eb="32">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ユウドウ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="212" eb="213">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>ベンリ</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="243" eb="244">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="257" eb="259">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="259" eb="261">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="270" eb="272">
+      <t>ガッテ</t>
+    </rPh>
+    <rPh sb="273" eb="274">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="292" eb="294">
+      <t>トギ</t>
+    </rPh>
+    <rPh sb="300" eb="302">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="309" eb="311">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="330" eb="332">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="333" eb="334">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PCを使うときのユーザ名を記入します。自分で使いやすいものをきめてください。
+「ユーザ名」は、&amp;quot;ayase&amp;quot; など名前をローマ字にしたものにするのが一般的です。漢字やひらがななども使えますが、そうするとたまに動かないソフトがあります。ユーザ名には漢字やひらがななどを使わないようにしましょう。  
+また、もし既に学生番号を持っている場合、学生番号をユーザ名には使わないようにしましょう。様々な場面で、どのアカウントでサービスを使っているのかわからなくなってしまうので、このPC特有のユーザ名をつけるようにしましょう。 </t>
+    <rPh sb="90" eb="92">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>バメン</t>
+    </rPh>
+    <rPh sb="223" eb="224">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>トクユウ</t>
+    </rPh>
+    <rPh sb="254" eb="255">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「パスワード」は、十分に複雑な（でも、ちゃんと覚えていられて忘れないもの）を付けましょう。ユーザ名と同じものとか &amp;quot;333&amp;quot; とかすぐに類推できてしまうようなものを付けてはいけません。また、学生証と一緒に入手したパスワードをここで使うことも避けてください。
+ここで決めたパスワードを忘れると、相当面倒なことになりますので慎重に！   </t>
+    <rPh sb="105" eb="108">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最初に、目の前のPCがどんなものなのかを確認しましょう。PCの処理能力や容量の目安になるさまざまな要素を「スペック」と呼ぶことがあります。ここでは以下のスペックを確認しましょう。
+&lt;ol&gt;&lt;li&gt; OSのバージョン &lt;/li&gt;
+&lt;li&gt; メモリ容量（主記憶容量） &lt;/li&gt;
+&lt;li&gt; HDD/SDD容量（副記憶容量） &lt;/li&gt;
+&lt;li&gt; バッテリー駆動時間 &lt;/li&gt;
+&lt;/ol&gt;
+この章は広島大学の学生番号がわかる前に実施することができます。 
+ </t>
+    <rPh sb="204" eb="206">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自分のパソコンの基本的なスペックを確認しておきましょう。CPUの型式、OSのビット数、記憶容量など。
+なお、この章は広島大学の学生番号がわかる前に実施することができます。 </t>
+    <rPh sb="56" eb="57">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;新型コロナウィルス対策のため、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
+&lt;p class="spl"&gt;※学生番号と、学生番号と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
+    <rPh sb="8" eb="10">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ライコウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学で情報サービスを使うときに必要な２種類のIDをもういちど確認しましょう。二種類とも学生番号をもとにしています。
+一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名(IMCアカウント名)」です。こちらは、先頭の一文字を小文字にしたものになっています。
+対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
+IMCアカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、第6章で紹介します。
+  </t>
+    <rPh sb="21" eb="23">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="335" eb="336">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="337" eb="338">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Chrome を使えるようにしましょう。</t>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10 chap.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Office を使えるようにしましょう。</t>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Chromeのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Officeのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10 chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Officeのインストールとアクティベーションを行います。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#office"&gt;Microsoft Officeのアクティベーション&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「Officeライセンス認証」というパネルが出ます。広大メールアドレス（b21xxxxx@hiroshima-u.ac.jp という形式）を記入し、「次へ」をクリックしてください。
+  </t>
+    <rPh sb="12" eb="14">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学では、学生の皆さんの個人所有のPCにMicrosoft Office365 Pro Plusを5台までインストールすることができる包括ライセンスを結んでいます。ただし、卒業して学籍を失うと、利用することができなくなってしまいます。ご自分で別途Microsoft Officeを購入してインストールした方は、この章を飛ばしていただいて構いません。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ムス</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ガクセキ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ウシナ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">オンライン履修登録などをおこなう「もみじ」、広大メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているオンラインサービスにログインしてみましょう。
+&lt;strong&gt;この章の内容は、学生番号とそれに付属しているパスワードが必要です。この2つを入手してから実施してください。ただし、ネットワークは自宅のものでも、大学のものでも構いません。&lt;/strong&gt;
+これらのサービスを利用するにはWebブラウザを使います。
+WindowsではMicrosoft Edgeというアプリが標準のWebブラウザとして設定されています。このアイコンをダブルクリックしてはじめましょう。
+&lt;ul&gt;&lt;li&gt;&lt;a href="#momiji"&gt;もみじ (広大学生用ポータルサイト)&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mail"&gt;Office365 (Webメールとオンラインストレージ)&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mymomiji"&gt;MYもみじ (履修登録や掲示板など)&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#bb9"&gt;Bb9 (学習支援システム )&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#omake"&gt;おまけ&lt;/a&gt;
+&lt;/li&gt;
+&lt;ul&gt; &lt;/ul&gt;
+&lt;/ul&gt;
+</t>
+    <rPh sb="114" eb="115">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt; この章は、学生番号と、それと一緒にもらえる「広大パスワード」が必要です。この2つを入手してから、作業を進めてください。ただし、ネットワークは自宅のものでも、大学のものでも構いません。&lt;/strong&gt;</t>
+    <rPh sb="11" eb="12">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows Update を使って、WindowsとOfficeがつねに最新版で使えるように設定します。
+さらに、Defenderでのフルスキャン（全てのファイルに対するウィルスチェック）のやり方を確認しておきます。
+&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Windows Updateの設定&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#defender"&gt;Defenderの手動更新とフルスキャン&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+この章は、インターネットに接続していれば、広島大学の学生証をもらう前に実施することができます。 
+ </t>
+    <rPh sb="240" eb="242">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="251" eb="253">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bb9で配布されている教材をダウンロードできることを確認するため、「ノートパソコン点検届」のコースをみてみましょう。
+まず、コース一覧から「ノートパソコン点検届2021」をクリックしてコースを開きましょう。
+  </t>
+    <rPh sb="41" eb="43">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>トドケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Win10 chap.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン授業のソフトウェアの確認</t>
+    <rPh sb="5" eb="7">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10 chap.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学でのオンライン授業(同時双方向のもの、また、チャットによる質問相談など)は、主にMicrosoft Teamsを使って行っています。この動作を確認しましょう。
+オンライン授業のソフトウェアとしては、Teamsの他にZoomや、YouTube Liveなどもあり、たとえばZoomで行われている授業をTeamsで受講する、といったことはできません。Teams以外を用いる授業の場合は、教員が先に説明する筈ですので、環境設定などは教員の指示を参考にしてください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ソウホウコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ジュコウ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="204" eb="205">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はじめてTeamsを起動すると、サインインを促されます。広島大学のオンライン授業を受けるには、広大アカウントでサインインが必要です。</t>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒツヨウダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まず広大アカウント(@hiroshima-u.ac.jpを含め)を入力します。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に広大アカウントのパスワードを入力します。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このPCを組織が管理できるようにしますか、と質問されますが、このチェックを外し、「このアプリのみにサインインする」を選びましょう。</t>
+    <rPh sb="5" eb="7">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サインイン済みだとこのような状態になります。このウィンドウを閉じても、裏でTeamsは動いており、chatなどのメッセージを受信しています。通知領域にTeamsのアイコンが出ています。</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teamsの機能のうち、オンライン授業で特に使われる機能はチーム、チャネル、会議です。カレンダー機能について大学側から履修状況に応じた更新などをかけることはないので、必要であれば自分で設定するようにしてください。</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームには、最低1つのチャネルがあり、その一つのチャネルを選んで会話したり、「会議」を行ったりします。</t>
+    <rPh sb="6" eb="8">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームとは、特定の教職員や学生をまとめたグループのことを指します。多くの授業では、「もみじ」の履修手続きを反映したチームが作られ、オンライン授業を実施するものについては皆さんが授業別のチームに所属した状態になる筈です。</t>
+    <rPh sb="6" eb="8">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン授業のうち、双方向(所定の授業時間に、教員も受講生もネットワークに接続して同時に進めるもの)のものがこの「会議」機能で行われます。授業時間を反映して最初から「会議」がスケジュールされている場合もありますが、先に授業をTeamsにスケジュールせず、授業時間になって教員が手動で開始する場合も多いです。スケジュールにないことが休講であると勘違いしないようにしてください。教員のアカウントの状態も確認することが望ましいです。</t>
+    <rPh sb="5" eb="7">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ソウホウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ジュコウセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>キュウコウ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>カンチガ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サインインしたアカウントには、そのアカウントのネット接続状態が表示されます。「会議」に出席している場合は、この接続状態が「会議中」になります。</t>
+    <rPh sb="26" eb="28">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>カイギチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「会議」に出席しようとすると、すぐ会議出席で画像や音声が流れるわけではなく、まずPCの設定画面になります。実際に接続する前に、手元のPCのカメラのON/OFF、マイクのON/OFF、スピーカのON/OFFを設定することができます。</t>
+    <rPh sb="1" eb="3">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>テモト</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多くのwebカメラはPCが撮影している時にランプがつくようになっています。</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows10ではPCが音声をマイクからとっている時、マイクのアイコンが通知エリアに出るようになっています。</t>
+    <rPh sb="14" eb="16">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Surfaceをドックにつないでいたり、あるいはUSBで外部のヘッドセットを使っている場合などには、複数のマイクやスピーカがあるので、自分が使いたいものが選ばれるように確認する習慣をつけましょう。</t>
+    <rPh sb="28" eb="30">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>シュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャネルの中では、基本的なコミュニケーション方法としてチャットが使われるようになっています。チームの中でチャットした場合には、同じチームに所属する皆さんに見えます。</t>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このチャット機能は、同じチームに所属してない人とも使うことができます。ただし、広大アカウントを持っている人が対象です。相手のアカウントを教えてもらったら、「新しいチャット」で質問することができます。</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実習系の授業などでは自分のPCの状態をTV会議で相手方に見せるべき状況もあります。この時は、共有ボタンからデスクトップ(複数のモニタを接続している場合に複数出ます)、ウィンドウ(アプリケーションごと)、ホワイトボードなどを選ぶことができます。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>アイテガタ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10 conclusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10 App.A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ここでは、Google Chrome のインストールを行います。
+&lt;ul&gt;
+&lt;li&gt;
+&lt;a href="#chrome"&gt;Google Chromeのインストール&lt;/a&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章はネットワーク環境があれば、学生番号がわからなくても実施できます。自宅のネットワークでも、大学のネットワークでも構いません。</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>包括ライセンスでMicrosoft Office365 Pro Plusをインストールした場合は、Microsoft Teamsは既にインストールされている筈です。検索ウィンドウで「Teams」を検索すれば出てくる筈です。
+もし別途Officeを購入したため、Microsoft Teamsがまだ入っていないという場合は、https://www.microsoft.com/ja-jp/microsoft-teams/download-app からダウンロードしてインストールしてください(ソフトウェア自体は無料です)。また、iOS機器(iPhone, iPad)やAndroid機器でも動きますが、ここではPCでの確認手順を説明します。</t>
+    <rPh sb="0" eb="2">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="251" eb="253">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="266" eb="268">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="290" eb="292">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="294" eb="295">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="308" eb="310">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="310" eb="312">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="313" eb="315">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teamsはウィンドウを閉じても裏で実行されていますが、サインアウトすると通知アイコンも無くなり、チャットで話しかけられても何も通知されなくなります。ただし、Microsoftのサーバ側ではこの間に貴方に話しかけられたチャットが記録されており、再度サインインすると過去の未読のメッセージを読むことができます。</t>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ハナシ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>アナタ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ミドク</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3172,12 +4116,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3185,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3201,15 +4145,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3218,12 +4162,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3240,27 +4184,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE55CB3-6071-425E-AC50-32B3ECB80AAD}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3268,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3284,15 +4228,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3303,171 +4247,194 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3481,17 +4448,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A20" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" phonetic="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1" phonetic="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1" phonetic="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1" phonetic="1"/>
-    <col min="5" max="16384" width="8.81640625" phonetic="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" phonetic="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1" phonetic="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1" phonetic="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1" phonetic="1"/>
+    <col min="5" max="16384" width="8.77734375" phonetic="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -3499,7 +4466,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>254</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -3523,15 +4490,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -3540,7 +4507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s" ph="1">
         <v>4</v>
       </c>
@@ -3554,26 +4521,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
@@ -3582,20 +4549,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
@@ -3604,56 +4571,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="58.5" ph="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
@@ -3662,104 +4629,104 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="117" ph="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="78" ph="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="136.5" ph="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39" ph="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s" ph="1">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3773,24 +4740,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3798,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3814,15 +4781,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3831,130 +4798,130 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="198" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="143" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3968,16 +4935,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3985,7 +4952,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3993,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4009,131 +4976,131 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -4142,18 +5109,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4167,24 +5134,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="B1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4192,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4208,15 +5175,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4227,166 +5194,166 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="143" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4397,19 +5364,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43F54BA-B356-43A4-B76F-707ED0C70724}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="B5" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -4417,7 +5384,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4425,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4441,15 +5408,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4460,188 +5427,77 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="D10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="D12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" ht="91" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4652,27 +5508,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="B1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4680,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4696,15 +5552,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4715,499 +5571,128 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="182" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="156" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D39" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" t="s" ph="1">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" t="s">
-        <v>97</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="5" customFormat="1" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5218,27 +5703,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5246,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5262,15 +5747,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5281,31 +5766,499 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" t="s" ph="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5316,19 +6269,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5336,7 +6289,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5344,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5360,15 +6313,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5377,98 +6330,239 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D48" ph="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6DCD89-DCED-473A-9184-6B7C7F849F42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6FDB65-853B-4994-AC98-7375993287EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="289">
   <si>
     <t>header1</t>
   </si>
@@ -61,21 +61,6 @@
   </si>
   <si>
     <t>chartn</t>
-  </si>
-  <si>
-    <t>win10-0-01.svg</t>
-  </si>
-  <si>
-    <t>win10-0-03.svg</t>
-  </si>
-  <si>
-    <t>win10-0-04.svg</t>
-  </si>
-  <si>
-    <t>win10-0-07.svg</t>
-  </si>
-  <si>
-    <t>win10-0-08.svg</t>
   </si>
   <si>
     <t>win10-0-10.svg</t>
@@ -468,14 +453,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-0-24.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-0-23.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「アクティビティの履歴を利用して・・・」というのはスマホなどの機器でMicrosoft製品を使うときに利用履歴を共有する機能です。今の所は「いいえ」としておきます。後から使うように変更できます。</t>
   </si>
   <si>
@@ -563,15 +540,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-0-05a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-0-06a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-0-22.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -580,10 +549,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-0-21.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-0-13a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -617,10 +582,6 @@
   </si>
   <si>
     <t>win10-0-11a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-0-12.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3691,6 +3652,77 @@
     </rPh>
     <rPh sb="144" eb="145">
       <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-sel-lang.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-sel-loca.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-sel-keymap.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-sel-keymap2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-available-no-lan.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-available-no-lan-confirm.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-license-agreement.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-first-user-real-name.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-set-password.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-set-password2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-secret-question.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-privacy-corrected.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-skip-cortana.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cortanaというソフトウェアによる音声入力支援が促されますが、スキップして大丈夫です。</t>
+    <rPh sb="19" eb="21">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ダイジョウブ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4129,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4145,7 +4177,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4153,7 +4185,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4167,7 +4199,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4201,10 +4233,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4212,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4228,7 +4260,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4236,7 +4268,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4247,17 +4279,17 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4265,7 +4297,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4302,7 +4334,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4310,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4326,7 +4358,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4334,7 +4366,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4345,20 +4377,20 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4366,13 +4398,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4380,37 +4412,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4418,23 +4450,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4446,10 +4478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -4466,7 +4498,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4490,7 +4522,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -4498,7 +4530,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4518,7 +4550,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>10</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4526,13 +4558,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4540,21 +4572,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>11</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>134</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4562,13 +4594,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>12</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4576,29 +4608,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>131</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>132</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4606,13 +4638,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>130</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4620,13 +4652,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>13</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4634,21 +4666,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>14</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>113</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4656,13 +4688,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>112</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4670,21 +4702,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4692,13 +4724,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4706,27 +4738,38 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s" ph="1">
-        <v>4</v>
-      </c>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>159</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>135</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s" ph="1">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s" ph="1">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s" ph="1">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4740,7 +4783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4757,7 +4800,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4765,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4781,7 +4824,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4789,7 +4832,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4803,13 +4846,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -4817,13 +4860,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4831,13 +4874,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -4845,21 +4888,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -4873,13 +4916,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4887,13 +4930,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4901,13 +4944,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4915,13 +4958,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4952,7 +4995,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4960,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4976,17 +5019,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4994,13 +5037,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5008,13 +5051,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5022,13 +5065,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5036,13 +5079,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5050,13 +5093,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5064,13 +5107,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5078,29 +5121,29 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5114,13 +5157,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5151,7 +5194,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5159,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5175,7 +5218,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5183,7 +5226,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5194,7 +5237,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5202,13 +5245,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5216,13 +5259,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5230,13 +5273,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5244,13 +5287,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5258,18 +5301,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5277,13 +5320,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5291,13 +5334,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -5305,13 +5348,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5319,13 +5362,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5333,13 +5376,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5347,13 +5390,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5384,7 +5427,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5392,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5408,7 +5451,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5416,7 +5459,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5427,49 +5470,49 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5477,13 +5520,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5491,13 +5534,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5528,7 +5571,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5536,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5552,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5560,7 +5603,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5571,17 +5614,17 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5589,18 +5632,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5608,21 +5651,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5630,13 +5673,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5644,13 +5687,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5658,13 +5701,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5672,13 +5715,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="5" customFormat="1" ht="92.4" x14ac:dyDescent="0.2">
@@ -5686,13 +5729,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5723,7 +5766,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5731,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5747,7 +5790,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -5755,7 +5798,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5766,7 +5809,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5788,13 +5831,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5802,18 +5845,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5835,13 +5878,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5849,21 +5892,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5871,13 +5914,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5885,13 +5928,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5899,13 +5942,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5913,13 +5956,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5927,13 +5970,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5941,18 +5984,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5974,13 +6017,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5988,13 +6031,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6002,18 +6045,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -6035,13 +6078,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6049,13 +6092,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6063,13 +6106,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6077,13 +6120,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -6091,13 +6134,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6105,13 +6148,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6119,13 +6162,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6133,13 +6176,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6147,13 +6190,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6161,26 +6204,26 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6188,7 +6231,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -6202,13 +6245,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6216,13 +6259,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6230,21 +6273,21 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6252,13 +6295,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -6289,7 +6332,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6297,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6313,7 +6356,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6321,7 +6364,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6335,7 +6378,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6348,12 +6391,12 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6361,7 +6404,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6369,7 +6412,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6377,17 +6420,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
@@ -6395,7 +6438,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -6403,17 +6446,17 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="52.8" x14ac:dyDescent="0.2">
@@ -6421,7 +6464,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
@@ -6429,7 +6472,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -6437,7 +6480,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -6445,12 +6488,12 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
@@ -6458,7 +6501,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
@@ -6466,7 +6509,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6FDB65-853B-4994-AC98-7375993287EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207BFE2F-A124-4F35-812F-E0FC7F41EDD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="288">
   <si>
     <t>header1</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>chartn</t>
-  </si>
-  <si>
-    <t>win10-0-10.svg</t>
   </si>
   <si>
     <t>パソコンのスペック確認</t>
@@ -540,10 +537,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-0-06a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">キーボードレイアウトについての質問に答えます。「Microsoft IME」になっていることを確認して、「はい」をクリックしましょう。
   </t>
     <phoneticPr fontId="1"/>
@@ -1990,43 +1983,6 @@
       <t>センタクシ</t>
     </rPh>
     <rPh sb="112" eb="113">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>再起動した後、再度ネットワークへの接続を促されますが、もう一度「インターネットに接続していません」「制限された設定で続行する」をクリックして飛ばします。</t>
-    <rPh sb="0" eb="3">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ウナガ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ゾッコウ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
       <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -3724,6 +3680,47 @@
     <rPh sb="39" eb="42">
       <t>ダイジョウブ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再起動した後、再度ネットワークへの接続を促されることがありますが、もう一度「インターネットに接続していません」「制限された設定で続行する」をクリックして飛ばします。</t>
+    <rPh sb="0" eb="3">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ゾッコウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0-face-recognition.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4161,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4177,7 +4174,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4185,7 +4182,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4199,7 +4196,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4233,10 +4230,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4244,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4260,7 +4257,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4268,7 +4265,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4279,17 +4276,17 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4297,7 +4294,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4334,7 +4331,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4342,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4358,7 +4355,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4366,7 +4363,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4377,20 +4374,20 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4398,13 +4395,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4412,37 +4409,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4450,23 +4447,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4480,8 +4477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="79" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -4498,7 +4495,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4522,7 +4519,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -4530,7 +4527,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4550,7 +4547,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4558,13 +4555,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4572,21 +4569,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4594,13 +4591,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4608,29 +4605,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>123</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4638,13 +4635,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4652,13 +4649,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4666,21 +4663,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4688,13 +4685,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4702,21 +4699,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>10</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4724,13 +4721,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4738,24 +4735,24 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4763,13 +4760,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4800,7 +4797,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4808,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4824,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4832,7 +4829,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4846,13 +4843,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -4860,13 +4857,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4874,13 +4871,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -4888,21 +4885,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -4916,13 +4913,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4930,13 +4927,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4944,13 +4941,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4958,13 +4955,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4995,7 +4992,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5003,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5019,17 +5016,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5037,13 +5034,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5051,13 +5048,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5065,13 +5062,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5079,13 +5076,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5093,13 +5090,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5107,13 +5104,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5121,29 +5118,29 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5157,13 +5154,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -5194,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5202,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5218,7 +5215,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5226,7 +5223,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5237,7 +5234,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5245,13 +5242,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5259,13 +5256,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5273,13 +5270,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5287,13 +5284,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5301,18 +5298,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5320,13 +5317,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5334,13 +5331,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -5348,13 +5345,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5362,13 +5359,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5376,13 +5373,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5390,13 +5387,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5427,7 +5424,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5435,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5451,7 +5448,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5459,7 +5456,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5470,49 +5467,49 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" t="s">
         <v>162</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5520,13 +5517,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5534,13 +5531,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -5571,7 +5568,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5579,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5595,7 +5592,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5603,7 +5600,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5614,17 +5611,17 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5632,18 +5629,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5651,21 +5648,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5673,13 +5670,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5687,13 +5684,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5701,13 +5698,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5715,13 +5712,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="5" customFormat="1" ht="92.4" x14ac:dyDescent="0.2">
@@ -5729,13 +5726,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5766,7 +5763,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5774,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5790,7 +5787,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -5798,7 +5795,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5809,7 +5806,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5831,13 +5828,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5845,18 +5842,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5878,13 +5875,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5892,21 +5889,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5914,13 +5911,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5928,13 +5925,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5942,13 +5939,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5956,13 +5953,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5970,13 +5967,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5984,18 +5981,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6017,13 +6014,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6031,13 +6028,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6045,18 +6042,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -6078,13 +6075,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>75</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6092,13 +6089,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6106,13 +6103,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>79</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6120,13 +6117,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -6134,13 +6131,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6148,13 +6145,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6162,13 +6159,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6176,13 +6173,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6190,13 +6187,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6204,26 +6201,26 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6231,7 +6228,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -6245,13 +6242,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6259,13 +6256,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6273,21 +6270,21 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6295,13 +6292,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -6332,7 +6329,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6340,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6356,7 +6353,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6364,7 +6361,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6378,7 +6375,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6391,12 +6388,12 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6404,7 +6401,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6412,7 +6409,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6420,17 +6417,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
@@ -6438,7 +6435,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -6446,17 +6443,17 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="52.8" x14ac:dyDescent="0.2">
@@ -6464,7 +6461,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
@@ -6472,7 +6469,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -6480,7 +6477,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -6488,12 +6485,12 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
@@ -6501,7 +6498,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
@@ -6509,7 +6506,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207BFE2F-A124-4F35-812F-E0FC7F41EDD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EC64B5-BD8D-4A98-802C-B83A9848F24F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,14 +450,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「アクティビティの履歴を利用して・・・」というのはスマホなどの機器でMicrosoft製品を使うときに利用履歴を共有する機能です。今の所は「いいえ」としておきます。後から使うように変更できます。</t>
-  </si>
-  <si>
     <t xml:space="preserve">住んでいる地域を選びますが、その前に音声が出るのがちょっとうるさいので画面左下のマイクアイコンをクリックして黙ってもらいましょう。
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">現在いる地域を選びます。日本ですね。これは、時間帯などを設定するための情報として使われます。
   </t>
   </si>
   <si>
@@ -1637,10 +1630,6 @@
     <rPh sb="129" eb="130">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Surfaceの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとはだいたい言われるままにしていけば大丈夫です。 すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1984,21 +1973,6 @@
     </rPh>
     <rPh sb="112" eb="113">
       <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「デジタルアシスタントの利用」も、今の所は「拒否」としておきます。後から使うように変更できます。
-&lt;p class="spl"&gt;※ Surface GO ではCortanaを使うかどうかを尋ねられます。やはり「拒否」をクリックして飛 ばします。&lt;/p&gt;
-  </t>
-    <rPh sb="87" eb="88">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>タズ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>キョヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3683,44 +3657,99 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>再起動した後、再度ネットワークへの接続を促されることがありますが、もう一度「インターネットに接続していません」「制限された設定で続行する」をクリックして飛ばします。</t>
-    <rPh sb="0" eb="3">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
+    <t>ch0-face-recognition.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows10のバリエーションによっては「アクティビティの履歴を利用して・・・」というのはスマホなどの機器でMicrosoft製品を使うときに利用履歴を共有する機能です。今の所は「いいえ」としておきます。後から使うように変更できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows10のビルド番号によっては、ここで再起動します。その後、再度ネットワークへの接続を促されることがありますが、もう一度「インターネットに接続していません」「制限された設定で続行する」をクリックして飛ばします。</t>
+    <rPh sb="33" eb="34">
       <t>アト</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="35" eb="37">
       <t>サイド</t>
     </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="45" eb="47">
       <t>セツゾク</t>
     </rPh>
-    <rPh sb="20" eb="21">
+    <rPh sb="48" eb="49">
       <t>ウナガ</t>
     </rPh>
-    <rPh sb="35" eb="37">
+    <rPh sb="63" eb="65">
       <t>イチド</t>
     </rPh>
-    <rPh sb="46" eb="48">
+    <rPh sb="74" eb="76">
       <t>セツゾク</t>
     </rPh>
-    <rPh sb="56" eb="58">
+    <rPh sb="84" eb="86">
       <t>セイゲン</t>
     </rPh>
-    <rPh sb="61" eb="63">
+    <rPh sb="89" eb="91">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="64" eb="66">
+    <rPh sb="92" eb="94">
       <t>ゾッコウ</t>
     </rPh>
-    <rPh sb="76" eb="77">
+    <rPh sb="104" eb="105">
       <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ch0-face-recognition.png</t>
+    <t xml:space="preserve">Windows10のバリエーションによっては「デジタルアシスタントの利用」を促しますが、今の所は「拒否」としておきます。後から使うように変更できます。
+&lt;p class="spl"&gt;※ Surface GO ではCortanaを使うかどうかを尋ねられます。やはり「拒否」をクリックして飛 ばします。&lt;/p&gt;
+  </t>
+    <rPh sb="31" eb="32">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>タズ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>キョヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Surfaceの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとはだいたい言われるままにしていけば大丈夫です。 すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。 Windows10はバージョン番号が同じでもバリエーションがあったり、出荷時期によって違いがあります。以下の手順の中で拒否しや設定しないで進めるとなっている項目がそもそも表示されないこともありますが、あわてないでください。</t>
+    <rPh sb="178" eb="180">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="232" eb="233">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">現在いる地域を選びます。多くの方は日本になるでしょう。これは、時間帯などを設定するための情報として使われます。
+  </t>
+    <rPh sb="12" eb="13">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4158,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4196,7 +4225,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4230,10 +4259,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4257,7 +4286,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4281,7 +4310,7 @@
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4294,7 +4323,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4331,7 +4360,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4339,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4355,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4363,7 +4392,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4379,15 +4408,15 @@
     </row>
     <row r="8" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4395,13 +4424,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4409,37 +4438,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4447,23 +4476,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4477,8 +4506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -4495,7 +4524,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4519,7 +4548,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -4527,7 +4556,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4547,7 +4576,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4555,35 +4584,35 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4591,13 +4620,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4605,29 +4634,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4635,13 +4664,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4649,13 +4678,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4663,21 +4692,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4685,13 +4714,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4699,35 +4728,35 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4735,24 +4764,24 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4760,13 +4789,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4797,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4829,7 +4858,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4843,7 +4872,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -4857,7 +4886,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -4885,7 +4914,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4899,7 +4928,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -4913,7 +4942,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -4927,7 +4956,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4955,7 +4984,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5021,12 +5050,12 @@
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5034,7 +5063,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -5048,7 +5077,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -5062,7 +5091,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5076,7 +5105,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5104,7 +5133,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5129,7 +5158,7 @@
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
         <v>105</v>
@@ -5140,7 +5169,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5154,7 +5183,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -5191,7 +5220,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5199,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5223,7 +5252,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5276,7 +5305,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5290,7 +5319,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5317,13 +5346,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5331,13 +5360,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -5345,7 +5374,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5359,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5373,13 +5402,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5387,13 +5416,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5424,7 +5453,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5432,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5448,7 +5477,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5456,7 +5485,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5472,44 +5501,44 @@
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" t="s">
         <v>160</v>
-      </c>
-      <c r="D11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5517,13 +5546,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5531,7 +5560,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5568,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5576,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5592,7 +5621,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5600,7 +5629,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5616,12 +5645,12 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5629,7 +5658,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -5640,7 +5669,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5648,7 +5677,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -5659,10 +5688,10 @@
     </row>
     <row r="13" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5670,13 +5699,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5684,13 +5713,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>114</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5698,13 +5727,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5712,7 +5741,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5726,13 +5755,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5771,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5787,7 +5816,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -5795,7 +5824,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5900,10 +5929,10 @@
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5911,13 +5940,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5953,7 +5982,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6028,7 +6057,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6131,7 +6160,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6145,13 +6174,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6159,13 +6188,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6173,13 +6202,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6187,13 +6216,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6201,21 +6230,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D39" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -6248,7 +6277,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6281,10 +6310,10 @@
     </row>
     <row r="45" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6329,7 +6358,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6337,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6353,7 +6382,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6361,7 +6390,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6375,7 +6404,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6388,12 +6417,12 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6401,7 +6430,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6409,7 +6438,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6417,17 +6446,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
@@ -6435,7 +6464,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -6443,17 +6472,17 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="52.8" x14ac:dyDescent="0.2">
@@ -6461,7 +6490,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
@@ -6469,7 +6498,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -6477,7 +6506,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -6485,12 +6514,12 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
@@ -6498,7 +6527,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
@@ -6506,7 +6535,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EC64B5-BD8D-4A98-802C-B83A9848F24F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F8F7AF-71A2-4466-B988-C161CCCE1E3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -487,10 +487,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-5-15a.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Chromeのインストールはあっという間に終わります。自動的にChromeが起動して初期設定を行うよう促してきますが、ここでは右上の×をクリックして閉じてください。
 &lt;p class="spl"&gt;※ Windows10にはEdgeというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページがときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;
   </t>
@@ -580,10 +576,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-5-22.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-6-24a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -603,15 +595,6 @@
   <si>
     <t xml:space="preserve">Hiroshima Universityと書かれた画面に移動しますので、広大パスワードを入力し「サインイン」をクリックします。
 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「このデバイスではどこでもこのアカウントを使用する」と聞かれますので、「はい」と答えます。
-※ これにより、Wordなどの他のOfficeアプリケーションを起動した時のサインイン作業が不要になります。
-  </t>
-    <rPh sb="92" eb="94">
-      <t>フヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3750,6 +3733,39 @@
     <rPh sb="15" eb="16">
       <t>カタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「すべてのアプリにサインインしたままにする」かどうか確認されます。Microsoft Officeと、オンライン授業用のTeamsとでサインイン状態を分けたいこともあるでしょうから、ここでは「このアプリのみにサインインします」と答えます。また、「組織がデバイスを管理できるようにする」のチェックは外しておきましょう。  </t>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ジュギョウヨウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-signin-password.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-signin-only-this-application.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4187,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4225,7 +4241,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4259,10 +4275,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4286,7 +4302,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4310,7 +4326,7 @@
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4323,7 +4339,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4360,7 +4376,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4368,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4384,7 +4400,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4392,7 +4408,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4408,15 +4424,15 @@
     </row>
     <row r="8" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4424,13 +4440,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4438,37 +4454,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4476,23 +4492,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4506,8 +4522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -4524,7 +4540,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4548,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -4556,7 +4572,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4576,7 +4592,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4590,7 +4606,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4598,21 +4614,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4626,7 +4642,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4634,29 +4650,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4670,7 +4686,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4678,13 +4694,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4692,13 +4708,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4706,7 +4722,7 @@
         <v>109</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4714,13 +4730,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4728,21 +4744,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4750,13 +4766,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4764,24 +4780,24 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4789,13 +4805,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4826,7 +4842,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4858,7 +4874,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4872,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -4886,7 +4902,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -4914,7 +4930,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4928,7 +4944,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -4942,7 +4958,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -4956,7 +4972,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4984,7 +5000,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5050,12 +5066,12 @@
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5063,7 +5079,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -5077,7 +5093,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -5091,7 +5107,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5105,7 +5121,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5133,7 +5149,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5158,7 +5174,7 @@
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
         <v>105</v>
@@ -5169,7 +5185,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5183,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -5220,7 +5236,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5228,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5252,7 +5268,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5305,7 +5321,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5319,7 +5335,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5352,7 +5368,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5360,13 +5376,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -5374,7 +5390,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5402,13 +5418,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5416,13 +5432,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5453,7 +5469,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5461,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5477,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5485,7 +5501,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5501,44 +5517,44 @@
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5546,13 +5562,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5560,7 +5576,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5580,8 +5596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5597,7 +5613,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5605,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5621,7 +5637,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5629,7 +5645,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5645,12 +5661,12 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5658,7 +5674,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -5669,7 +5685,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5677,7 +5693,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -5688,10 +5704,10 @@
     </row>
     <row r="13" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5699,7 +5715,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -5719,7 +5735,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5727,13 +5743,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5741,7 +5757,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5755,13 +5771,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5800,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5816,7 +5832,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -5824,7 +5840,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5929,10 +5945,10 @@
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5940,13 +5956,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5982,7 +5998,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6057,7 +6073,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6160,7 +6176,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6174,13 +6190,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6188,13 +6204,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6202,13 +6218,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6216,13 +6232,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6230,21 +6246,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -6277,7 +6293,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6310,10 +6326,10 @@
     </row>
     <row r="45" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6358,7 +6374,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6366,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6382,7 +6398,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6390,7 +6406,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6404,7 +6420,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6417,12 +6433,12 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6430,7 +6446,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6438,7 +6454,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6446,17 +6462,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
@@ -6464,7 +6480,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -6472,17 +6488,17 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="52.8" x14ac:dyDescent="0.2">
@@ -6490,7 +6506,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
@@ -6498,7 +6514,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -6506,7 +6522,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -6514,12 +6530,12 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
@@ -6527,7 +6543,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
@@ -6535,7 +6551,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F8F7AF-71A2-4466-B988-C161CCCE1E3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B113DAD-F84D-4FB8-A604-A8F06888E6E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="309">
   <si>
     <t>header1</t>
   </si>
@@ -450,10 +450,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">住んでいる地域を選びますが、その前に音声が出るのがちょっとうるさいので画面左下のマイクアイコンをクリックして黙ってもらいましょう。
-  </t>
-  </si>
-  <si>
     <t xml:space="preserve">キーボードレイアウトの追加についての質問に答えます。追加のレイアウトはないので、「スキップ」としましょう。
   </t>
   </si>
@@ -1042,13 +1038,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Microsoft Officeを入れる&lt;/h2&gt;</t>
-    <rPh sb="42" eb="43">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-2-41.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1103,44 +1092,6 @@
   </si>
   <si>
     <t>win10-2-10a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、Microsoft Officeに含まれるアプリを起動しましょう。どれでも良いのですが、ここではExcelを起動します。
-左下のWindowsアイコンをクリックし、表示されるメニューから「Excel」を探してクリックしましょう。
-&lt;p class="spl"&gt;※ 見つからない時は、キーボードから「Excel」と打ち込んでみてください。&lt;/p&gt;
-&lt;p class="spl"&gt;それでもExcelが見つからないか起動しない場合は、まずPCにOfficeをダウンロードする必要があります。このテキストの一番後ろにある「（付録A）Officeのダウンロード」の章に進んでください。&lt;/p&gt;
-  </t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="201" eb="202">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="208" eb="210">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="213" eb="215">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="237" eb="239">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="252" eb="254">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="254" eb="255">
-      <t>ウシ</t>
-    </rPh>
-    <rPh sb="261" eb="263">
-      <t>フロク</t>
-    </rPh>
-    <rPh sb="280" eb="281">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="282" eb="283">
-      <t>スス</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1275,97 +1226,6 @@
     </rPh>
     <rPh sb="124" eb="125">
       <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
-Microsoft Office については、広島大学の学生は個人所有のPCで５台まで無償で利用することができます。
-&lt;p class="spl"&gt;※厳密には「Windows or MacOSのPC、タブレット、スマートフォン各５台（合計１５台）」まで使えます。&lt;strong&gt;ただし卒業までに継続利用手続きを行った１台以外は卒業後は利用できなくなりますので、ご注意ください。&lt;/strong&gt;ここで紹介する配布サイトの中に「継続利用手続き」についても説明があります。&lt;/p&gt;
-</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ホウカツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ムス</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>サダ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ヨウリョウ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>ムショウ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="245" eb="247">
-      <t>ゲンミツ</t>
-    </rPh>
-    <rPh sb="283" eb="284">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="285" eb="286">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="287" eb="289">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="291" eb="292">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="296" eb="297">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="329" eb="330">
-      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1584,122 +1444,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この章では、Wi-Fiで広島大学の学内ネットワークに接続するための設定を行います。
-自宅などにいてWi-Fiを利用したインターネット接続環境がある場合は、そのWi-Fiを利用する接続設定をして次の章へ進み、この章にある学内ネットワークへの接続設定は後で大学に来たときに行ってください。</t>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガクナイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">購入したばかりの Windows 10 の電源を入れて、使い始められるようになるまでに必要な設定作業を説明します。 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>大学のオンラインサービスへのログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">右のように「サインインしてOffieを設定する」の画面が出た場合は、Officeのアクティベーションが必要です。これは、ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための作業です。Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があるわけです。
-「サインインしてOffieを設定する」で「サインイン」をクリックして、下の項目に進んでください。
-&lt;p class="spl"&gt;※右のような画面が出ずにExcelを使い始められる場合は、そのまま使っていただいて構いません。この下の項目は飛ばして、次の章「大学のオンラインサービスへのログイン」に進んでください。なお後日に、Exceｌのメニューで「ファイル」→「アカウント」と進んで「利用期限」を確認しておいてください。&lt;/p&gt;
-  </t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="193" eb="194">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="218" eb="219">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="226" eb="227">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="235" eb="236">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="237" eb="238">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="242" eb="244">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="250" eb="251">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="258" eb="259">
-      <t>カマ</t>
-    </rPh>
-    <rPh sb="266" eb="267">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="268" eb="270">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="271" eb="272">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="276" eb="277">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="278" eb="279">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="300" eb="301">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="310" eb="312">
-      <t>ゴジツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2381,50 +2130,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;strong&gt;新型コロナウィルス対策のため、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
-&lt;p class="spl"&gt;※学生番号と、学生番号と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
-    <rPh sb="8" eb="10">
-      <t>シンガタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ライコウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">広島大学で情報サービスを使うときに必要な２種類のIDをもういちど確認しましょう。二種類とも学生番号をもとにしています。
 一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名(IMCアカウント名)」です。こちらは、先頭の一文字を小文字にしたものになっています。
 対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
@@ -2461,10 +2166,6 @@
   </si>
   <si>
     <t>Google Chromeのインストール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Microsoft Officeのインストール</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2606,46 +2307,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;strong&gt; この章は、学生番号と、それと一緒にもらえる「広大パスワード」が必要です。この2つを入手してから、作業を進めてください。ただし、ネットワークは自宅のものでも、大学のものでも構いません。&lt;/strong&gt;</t>
-    <rPh sb="11" eb="12">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ニュウシュ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>カマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Windows Update を使って、WindowsとOfficeがつねに最新版で使えるように設定します。
 さらに、Defenderでのフルスキャン（全てのファイルに対するウィルスチェック）のやり方を確認しておきます。
 &lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Windows Updateの設定&lt;/a&gt;
@@ -2795,31 +2456,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>はじめてTeamsを起動すると、サインインを促されます。広島大学のオンライン授業を受けるには、広大アカウントでサインインが必要です。</t>
-    <rPh sb="10" eb="12">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ウナガ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ヒツヨウダイガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>まず広大アカウント(@hiroshima-u.ac.jpを含め)を入力します。</t>
     <rPh sb="2" eb="4">
       <t>ヒロダイ</t>
@@ -2865,275 +2501,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サインイン済みだとこのような状態になります。このウィンドウを閉じても、裏でTeamsは動いており、chatなどのメッセージを受信しています。通知領域にTeamsのアイコンが出ています。</t>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ウラ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>リョウイキ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Teamsの機能のうち、オンライン授業で特に使われる機能はチーム、チャネル、会議です。カレンダー機能について大学側から履修状況に応じた更新などをかけることはないので、必要であれば自分で設定するようにしてください。</t>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チームには、最低1つのチャネルがあり、その一つのチャネルを選んで会話したり、「会議」を行ったりします。</t>
-    <rPh sb="6" eb="8">
-      <t>サイテイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カイワ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チームとは、特定の教職員や学生をまとめたグループのことを指します。多くの授業では、「もみじ」の履修手続きを反映したチームが作られ、オンライン授業を実施するものについては皆さんが授業別のチームに所属した状態になる筈です。</t>
-    <rPh sb="6" eb="8">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キョウショクイン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>テツヅ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ミナ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>ハズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オンライン授業のうち、双方向(所定の授業時間に、教員も受講生もネットワークに接続して同時に進めるもの)のものがこの「会議」機能で行われます。授業時間を反映して最初から「会議」がスケジュールされている場合もありますが、先に授業をTeamsにスケジュールせず、授業時間になって教員が手動で開始する場合も多いです。スケジュールにないことが休講であると勘違いしないようにしてください。教員のアカウントの状態も確認することが望ましいです。</t>
-    <rPh sb="5" eb="7">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ソウホウコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショテイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ジュコウセイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>シュドウ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="166" eb="168">
-      <t>キュウコウ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>カンチガ</t>
-    </rPh>
-    <rPh sb="188" eb="190">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="197" eb="199">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="207" eb="208">
-      <t>ノゾ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サインインしたアカウントには、そのアカウントのネット接続状態が表示されます。「会議」に出席している場合は、この接続状態が「会議中」になります。</t>
     <rPh sb="26" eb="28">
       <t>セツゾク</t>
@@ -3211,100 +2578,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>多くのwebカメラはPCが撮影している時にランプがつくようになっています。</t>
-    <rPh sb="0" eb="1">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サツエイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Windows10ではPCが音声をマイクからとっている時、マイクのアイコンが通知エリアに出るようになっています。</t>
-    <rPh sb="14" eb="16">
-      <t>オンセイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Surfaceをドックにつないでいたり、あるいはUSBで外部のヘッドセットを使っている場合などには、複数のマイクやスピーカがあるので、自分が使いたいものが選ばれるように確認する習慣をつけましょう。</t>
-    <rPh sb="28" eb="30">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>シュウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャネルの中では、基本的なコミュニケーション方法としてチャットが使われるようになっています。チームの中でチャットした場合には、同じチームに所属する皆さんに見えます。</t>
-    <rPh sb="5" eb="6">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ミナ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このチャット機能は、同じチームに所属してない人とも使うことができます。ただし、広大アカウントを持っている人が対象です。相手のアカウントを教えてもらったら、「新しいチャット」で質問することができます。</t>
     <rPh sb="6" eb="8">
       <t>キノウ</t>
@@ -3344,61 +2617,6 @@
     </rPh>
     <rPh sb="87" eb="89">
       <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実習系の授業などでは自分のPCの状態をTV会議で相手方に見せるべき状況もあります。この時は、共有ボタンからデスクトップ(複数のモニタを接続している場合に複数出ます)、ウィンドウ(アプリケーションごと)、ホワイトボードなどを選ぶことができます。</t>
-    <rPh sb="0" eb="2">
-      <t>ジッシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>アイテガタ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>エラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3449,126 +2667,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>包括ライセンスでMicrosoft Office365 Pro Plusをインストールした場合は、Microsoft Teamsは既にインストールされている筈です。検索ウィンドウで「Teams」を検索すれば出てくる筈です。
-もし別途Officeを購入したため、Microsoft Teamsがまだ入っていないという場合は、https://www.microsoft.com/ja-jp/microsoft-teams/download-app からダウンロードしてインストールしてください(ソフトウェア自体は無料です)。また、iOS機器(iPhone, iPad)やAndroid機器でも動きますが、ここではPCでの確認手順を説明します。</t>
-    <rPh sb="0" eb="2">
-      <t>ホウカツ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ハズ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>ハズ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="251" eb="253">
-      <t>ジタイ</t>
-    </rPh>
-    <rPh sb="254" eb="256">
-      <t>ムリョウ</t>
-    </rPh>
-    <rPh sb="266" eb="268">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="290" eb="292">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="294" eb="295">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="308" eb="310">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="310" eb="312">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="313" eb="315">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Teamsはウィンドウを閉じても裏で実行されていますが、サインアウトすると通知アイコンも無くなり、チャットで話しかけられても何も通知されなくなります。ただし、Microsoftのサーバ側ではこの間に貴方に話しかけられたチャットが記録されており、再度サインインすると過去の未読のメッセージを読むことができます。</t>
-    <rPh sb="12" eb="13">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ウラ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ハナシ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>アナタ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>ミドク</t>
-    </rPh>
-    <rPh sb="144" eb="145">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch0-sel-lang.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3645,40 +2743,6 @@
   </si>
   <si>
     <t>Windows10のバリエーションによっては「アクティビティの履歴を利用して・・・」というのはスマホなどの機器でMicrosoft製品を使うときに利用履歴を共有する機能です。今の所は「いいえ」としておきます。後から使うように変更できます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Windows10のビルド番号によっては、ここで再起動します。その後、再度ネットワークへの接続を促されることがありますが、もう一度「インターネットに接続していません」「制限された設定で続行する」をクリックして飛ばします。</t>
-    <rPh sb="33" eb="34">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ウナガ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ゾッコウ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>ト</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3767,6 +2831,1218 @@
   <si>
     <t>ch5-signin-only-this-application.png</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows10のバリエーションによっては、ここで再起動します。その後、再度ネットワークへの接続を促されることがありますが、もう一度「インターネットに接続していません」「制限された設定で続行する」をクリックして飛ばします。</t>
+    <rPh sb="35" eb="36">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ゾッコウ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">住んでいる地域を選びますが、Windows10のバリエーションによってはここから音声ガイダンスが始まります。ちょっとうるさいので不要であれば画面左下のマイクアイコンをクリックして黙ってもらいましょう。
+  </t>
+    <rPh sb="40" eb="42">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では、Wi-Fiで広島大学の学内ネットワークに接続するための設定を行います。このテキストは自宅にネットワークがなく、大学にしかネットワークがない場合の順序で書いてあります。
+自宅などにインターネット接続環境がある場合は、「Windows10 + 自宅ネットワーク」のテキストを参照してください。</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;p class="spl"&gt;※学生番号と、学生番号と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
+    <rPh sb="16" eb="18">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Microsoft Officeを入れる&lt;/h2&gt;</t>
+    <rPh sb="42" eb="43">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
+Microsoft Office については、広島大学の学生は個人所有のPCで５台まで無償で利用することができます。
+&lt;strong&gt;ただし卒業後は利用できなくなりますので、ご注意ください。&lt;/strong&gt;
+</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ムス</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>サダ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ムショウ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Officeのアクティベーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">それでは、まずMicrosoft Officeが既にインストールされているか確認しましょう。Microsoft Officeのどれでも良いのですが、ここではExcelを起動します。
+左下のWindowsアイコンをクリックし、表示されるメニューから「Excel」を探してクリックしましょう。
+&lt;p class="spl"&gt;※ 見つからない時は、キーボードから「Excel」と打ち込んでみてください。&lt;/p&gt;
+&lt;p class="spl"&gt;それでもExcelが見つからない場合は、まだPCにOfficeがインストールされていないようです。まずダウンロードしてインストールする必要があります。このテキストの後ろにある「（付録A）Officeのダウンロード」の章に進んでください。&lt;/p&gt;
+  </t>
+    <rPh sb="24" eb="25">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="285" eb="287">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="300" eb="301">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="307" eb="309">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="326" eb="327">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="328" eb="329">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">付録の手順によってOfficeをインストールした直後や、インストールはされているがアクティベーションされていないOfficeの場合は、Excelを起動すると、右のように「サインインしてOffieを設定する」の画面が出ます。アクティベーションとは、、ソフトウェアが正当にライセンスされ、利用する権利があることを確認し、PCで使えるようにするための作業です。Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があるわけです。
+「サインインしてOffieを設定する」で「サインイン」をクリックして、下の項目に進んでください。
+&lt;p class="spl"&gt;※右のような画面が出ずにExcelを使い始められる場合は、そのまま使っていただいて構いません。この下の項目は飛ばして、次の章「大学のオンラインサービスへのログイン」に進んでください。なお後日に、Exceｌのメニューで「ファイル」→「アカウント」と進んで「利用期限」を確認しておいてください。&lt;/p&gt;
+  </t>
+    <rPh sb="0" eb="2">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ケンリ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="263" eb="264">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="293" eb="294">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="298" eb="300">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="301" eb="302">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="310" eb="311">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="312" eb="313">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="317" eb="319">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="325" eb="326">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="333" eb="334">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="341" eb="342">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="343" eb="345">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="346" eb="347">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="351" eb="352">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="353" eb="354">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="375" eb="376">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="385" eb="387">
+      <t>ゴジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>包括ライセンスでMicrosoft Office365 Pro Plusをインストールした場合は、Microsoft Teamsは既にインストールされている筈です。検索ウィンドウで「Teams」を検索すれば出てくる筈です。
+もし別途Officeを購入したため、Microsoft Teamsがまだ入っていないという場合は、https://www.microsoft.com/ja-jp/microsoft-teams/download-app からダウンロードしてインストールしてください(Office365と違ってアカウントにサインインしなくてもダウンロードできます)。また、iOS機器(iPhone, iPad)やAndroid機器でも動きますが、ここではPCでの確認手順を説明します。</t>
+    <rPh sb="0" eb="2">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="292" eb="294">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="316" eb="318">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="320" eb="321">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="336" eb="338">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="339" eb="341">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はじめてTeamsを起動すると、Microsoft Officeのアクティベーションと同様のサインインを促されます。広島大学のオンライン授業を受けるには、広大アカウントでサインインが必要です。</t>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ヒツヨウダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-start0.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-account.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-password.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-signin-limited.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-signined0.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teamsのアイコンがデスクトップにない場合は、左下の虫眼鏡アイコンから「t」または「te」と入力して検索してください。</t>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ムシメガネ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-lookup-teams.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-my-status.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-list-teams.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームとは、特定の教職員や学生をまとめたグループのことを指します。多くの授業では、「もみじ」の履修手続きが締め切られた後、それを反映したチームが作られ、オンライン授業を実施するものについては皆さんが授業別のチームに所属した状態になる筈です。必修科目であっても履修手続きの前に自動的に登録されるわけではないので、「自分が履修すべき科目だから、自動的にTeamsに先に登録してくれる」というわけではないことに注意してください。</t>
+    <rPh sb="6" eb="8">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ヒッシュウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="137" eb="140">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="170" eb="173">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-selected-team.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teamsの機能のうち、オンライン授業で特に使われる機能は「チャット」と「チーム」、チームの中の「チャネル」、チャネルの中の「会議」です。「カレンダー」機能がありますが、大学側から履修状況に応じた更新などをかけることはないので、必要であれば自分で設定するようにしてください。</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-features.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分が所属するチームから一つチームを選ぶと、そのチームのチャネル一覧を見ることができます。その一つのチャネルを選んでチャットしたり、「会議」を行ったりします。たとえばこの授業は週1回実施されるたびに新たにチャネルを作っています。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャネルの中では、基本的なコミュニケーション方法としてチャットが使われるようになっています。チームの中でチャットした場合には、同じチームに所属する皆さんに見えます。左側のメニューにある「チャット」は、貴方がチャットで入力したことがあるチャネルの一覧が出てくるので、「あるチャネルで会話している最中に、他のチャネルで自分の発言に変t時があった」ということに気づくこともできます。基本的に授業関係のテキストチャットは自分の都合のよい時間に発言してよいのですが、返事もまた相手の都合のよい時間に返ってくるものなので、即答を求めないようにしましょう。</t>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-firewall.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場合によっては、Teamsの通信についてWindows内蔵のファイヤーウォールが許可して大丈夫か確認を求められます。大学の無線LANやネットカフェなど様々な人が使うネットワークに接続している場合、なぜか「非推奨」となっているパブリックネットワークにチェックが入っていて、そうしないといけないかのような雰囲気を出しますが、「キャンセル」で許可しない状態を維持しても大きな問題は起きません。</t>
+    <rPh sb="0" eb="2">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナイゾウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ムセン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="150" eb="153">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-tvmeeting-scheduled.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン授業のうち、双方向(所定の授業時間に、教員も受講生もネットワークに接続して同時に進めるもの)のものがこの「会議」機能で行われます。授業時間を反映して最初から「会議」がスケジュールされている場合もありますが、先に授業をTeamsにスケジュールせず、授業時間になって教員が手動で開始する場合も多いです。スケジュールにないことが休講であると勘違いしないようにしてください。教員のアカウントの状態も確認することが望ましいです。これはスケジュールされている例ですが、スケジュールなしで開始されている場合は同様の表示がチャットのタイムラインに「会議中」と出ます。</t>
+    <rPh sb="5" eb="7">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ソウホウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ジュコウセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>キュウコウ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>カンチガ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="255" eb="257">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="271" eb="274">
+      <t>カイギチュウ</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-tvmeeting-before-enter.png</t>
+  </si>
+  <si>
+    <t>ch7-teams-tvmeeting-before-enter-config.png</t>
+  </si>
+  <si>
+    <t>Surfaceをドックにつないでいたり、あるいはBluetoothで外部のヘッドセットを使っている場合などには、複数のマイクやスピーカがあるので、カスタムセットアップを開いて自分が使いたいものが選ばれるように確認する習慣をつけましょう。</t>
+    <rPh sb="34" eb="36">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>シュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会議に入るとこのようなメニューに変わります。会議中も、カメラのON/OFF, マイクのON/OFFを切り替えることができます。吹き出しのアイコンをクリックすると、このTV会議のウィンドウの中にテキストチャットのタイムラインが表示されるようになります。その隣の「…」を展開して「デバイスの設定」を開くと、会議に入った後でもカメラ機器やマイク機器を取り換えることができます。接続してみたらどうもスピーカで聞いていると会議がおかしなことになる、などの問題がある時は変更しましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>カイギチュウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="227" eb="228">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="229" eb="231">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-tvmeeting-config-after-enter.png</t>
+  </si>
+  <si>
+    <t>ch7-teams-tvmeeting-sharing.png</t>
+  </si>
+  <si>
+    <t>実習系の授業などでは自分のPCの状態をTV会議で相手方に見せるべき状況もあります。この時は、共有ボタンからデスクトップ(複数のモニタを接続している場合に複数出ます)、ウィンドウ(アプリケーションごと)を選ぶことができます。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>アイテガタ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-indicator.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サインイン済みだとこのような状態になります。</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウィンドウを閉じても、裏でTeamsは動いており、chatなどのメッセージを受信しています。通知領域にTeamsのアイコンが出ています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サインアウトすると通知アイコンも無くなり、チャットで話しかけられても何も通知されなくなります。ただし、Microsoftのサーバ側ではこの間に貴方に話しかけられたチャットが記録されており、再度サインインすると過去の未読のメッセージを読むことができます。</t>
+    <rPh sb="11" eb="13">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハナシ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>アナタ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ミドク</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウを閉じた後、通知領域のTeamsのアイコンを右クリックしたメニューからもサインアウトが可能です。</t>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-signout-from-indicator.png</t>
+  </si>
+  <si>
+    <t>ch7-teams-signout-from-mainmenu.png</t>
   </si>
 </sst>
 </file>
@@ -4203,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4241,7 +4517,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4275,10 +4551,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4302,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4326,7 +4602,7 @@
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4339,7 +4615,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4359,8 +4635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4376,7 +4652,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4384,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4400,7 +4676,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4408,7 +4684,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4422,17 +4698,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4440,13 +4716,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4454,37 +4730,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
         <v>132</v>
-      </c>
-      <c r="D14" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4492,23 +4768,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4522,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -4540,7 +4816,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4564,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -4572,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4592,7 +4868,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4600,13 +4876,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4614,21 +4890,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4636,13 +4912,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4650,29 +4926,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4680,13 +4956,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4694,13 +4970,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4708,21 +4984,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4730,13 +5006,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4744,21 +5020,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4766,13 +5042,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4780,24 +5056,24 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4805,13 +5081,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4826,7 +5102,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4842,7 +5118,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4874,7 +5150,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4888,7 +5164,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -4902,7 +5178,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -4930,7 +5206,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4944,7 +5220,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -4958,7 +5234,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -4972,7 +5248,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5000,7 +5276,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5020,8 +5296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5066,12 +5342,12 @@
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5079,7 +5355,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -5093,7 +5369,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -5107,7 +5383,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5121,7 +5397,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5149,7 +5425,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5174,7 +5450,7 @@
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
         <v>105</v>
@@ -5185,7 +5461,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5199,7 +5475,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -5236,7 +5512,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5244,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5268,7 +5544,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5321,7 +5597,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5335,7 +5611,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5362,13 +5638,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5376,13 +5652,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -5390,7 +5666,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5404,7 +5680,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5418,13 +5694,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5432,13 +5708,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5452,8 +5728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43F54BA-B356-43A4-B76F-707ED0C70724}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5469,7 +5745,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5477,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5493,7 +5769,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5501,7 +5777,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5517,44 +5793,44 @@
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5562,13 +5838,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5576,7 +5852,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5594,10 +5870,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5613,7 +5889,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5621,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5637,7 +5913,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5645,7 +5921,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5661,81 +5937,90 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>195</v>
+      <c r="C13" t="s">
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5743,41 +6028,27 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>285</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="5" customFormat="1" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5791,7 +6062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5816,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5832,7 +6103,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -5840,7 +6111,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5945,10 +6216,10 @@
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5956,13 +6227,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5998,7 +6269,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6073,7 +6344,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6176,7 +6447,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6190,13 +6461,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6204,13 +6475,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6218,13 +6489,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6232,13 +6503,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6246,21 +6517,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -6293,7 +6564,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6326,10 +6597,10 @@
     </row>
     <row r="45" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6355,10 +6626,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:D45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6366,7 +6637,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -6374,7 +6645,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6382,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6398,7 +6669,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6406,7 +6677,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6415,12 +6686,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6428,33 +6699,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="D10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>243</v>
+        <v>275</v>
+      </c>
+      <c r="D11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="D12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
+      </c>
+      <c r="D13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6462,115 +6742,160 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="D14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="D15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="D17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="D18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="D19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="52.8" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="D20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="D26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6619,18 +6944,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -6641,14 +6963,30 @@
       <c r="A47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="D48" ph="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="50" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D50" ph="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D53" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B113DAD-F84D-4FB8-A604-A8F06888E6E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F28A59-6C1F-4B86-8BAE-EEAE3423D592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="309">
   <si>
     <t>header1</t>
   </si>
@@ -2532,52 +2532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「会議」に出席しようとすると、すぐ会議出席で画像や音声が流れるわけではなく、まずPCの設定画面になります。実際に接続する前に、手元のPCのカメラのON/OFF、マイクのON/OFF、スピーカのON/OFFを設定することができます。</t>
-    <rPh sb="1" eb="3">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュッセキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュッセキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>オンセイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>テモト</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このチャット機能は、同じチームに所属してない人とも使うことができます。ただし、広大アカウントを持っている人が対象です。相手のアカウントを教えてもらったら、「新しいチャット」で質問することができます。</t>
     <rPh sb="6" eb="8">
       <t>キノウ</t>
@@ -3516,40 +3470,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チャネルの中では、基本的なコミュニケーション方法としてチャットが使われるようになっています。チームの中でチャットした場合には、同じチームに所属する皆さんに見えます。左側のメニューにある「チャット」は、貴方がチャットで入力したことがあるチャネルの一覧が出てくるので、「あるチャネルで会話している最中に、他のチャネルで自分の発言に変t時があった」ということに気づくこともできます。基本的に授業関係のテキストチャットは自分の都合のよい時間に発言してよいのですが、返事もまた相手の都合のよい時間に返ってくるものなので、即答を求めないようにしましょう。</t>
-    <rPh sb="5" eb="6">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ミナ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch7-teams-firewall.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3770,128 +3690,6 @@
     <t>ch7-teams-tvmeeting-before-enter-config.png</t>
   </si>
   <si>
-    <t>Surfaceをドックにつないでいたり、あるいはBluetoothで外部のヘッドセットを使っている場合などには、複数のマイクやスピーカがあるので、カスタムセットアップを開いて自分が使いたいものが選ばれるように確認する習慣をつけましょう。</t>
-    <rPh sb="34" eb="36">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>シュウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会議に入るとこのようなメニューに変わります。会議中も、カメラのON/OFF, マイクのON/OFFを切り替えることができます。吹き出しのアイコンをクリックすると、このTV会議のウィンドウの中にテキストチャットのタイムラインが表示されるようになります。その隣の「…」を展開して「デバイスの設定」を開くと、会議に入った後でもカメラ機器やマイク機器を取り換えることができます。接続してみたらどうもスピーカで聞いていると会議がおかしなことになる、などの問題がある時は変更しましょう。</t>
-    <rPh sb="0" eb="2">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>カイギチュウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>トナリ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>テンカイ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="157" eb="158">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="172" eb="173">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="174" eb="175">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="200" eb="201">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="206" eb="208">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="222" eb="224">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="227" eb="228">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="229" eb="231">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch7-teams-tvmeeting-config-after-enter.png</t>
   </si>
   <si>
@@ -3967,82 +3765,341 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>このウィンドウを閉じても、裏でTeamsは動いており、chatなどのメッセージを受信しています。通知領域にTeamsのアイコンが出ています。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サインアウトすると通知アイコンも無くなり、チャットで話しかけられても何も通知されなくなります。ただし、Microsoftのサーバ側ではこの間に貴方に話しかけられたチャットが記録されており、再度サインインすると過去の未読のメッセージを読むことができます。</t>
-    <rPh sb="11" eb="13">
+    <t>ch7-teams-signout-from-mainmenu.png</t>
+  </si>
+  <si>
+    <t>チャネルの中では、基本的なコミュニケーション方法としてチャットが使われるようになっています。チームの中でチャットした場合には、同じチームに所属する皆さんに見えます。左側のメニューにある「チャット」は、貴方がチャットで入力したことがあるチャネルの一覧が出てくるので、「あるチャネルで会話している最中に、他のチャネルで自分の発言に返事があった」ということに気づくこともできます。基本的に授業関係のテキストチャットは自分の都合のよい時間に発言してよいのですが、返事もまた相手の都合のよい時間に返ってくるものなので、即答を求めないようにしましょう。</t>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ヘンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-selected-channel-chat.png</t>
+  </si>
+  <si>
+    <t>chartn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主催者が開始していない「会議」でも、出席することができます。「会議」に出席しようとすると、すぐ会議出席で画像や音声が流れるわけではなく、まずPCの設定画面になります。実際に接続する前に、手元のPCのカメラのON/OFF、マイクのON/OFF、スピーカのON/OFFを設定することができます。</t>
+    <rPh sb="0" eb="3">
+      <t>シュサイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>テモト</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Surfaceをドックにつないでいたり、あるいはBluetoothで外部のヘッドセットを使っている場合などには、複数のマイクやスピーカがあるので、カスタムセットアップを開いて自分が使いたいものが選ばれているように確認する習慣をつけましょう。</t>
+    <rPh sb="34" eb="36">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>シュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会議に入ると出席者のアイコンが並ぶ画面に変わります。会議中も、カメラのON/OFF, マイクのON/OFFを切り替えることができます。吹き出しのアイコンをクリックすると、このTV会議のウィンドウの中にテキストチャットのタイムラインが表示されるようになります。その隣の「…」を展開して「デバイスの設定」を開くと、会議に入った後でもカメラ機器やマイク機器を取り換えることができます。接続してみたらどうもスピーカで聞いていると会議がおかしなことになる、などの問題がある時は変更しましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シュッセキシャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カイギチュウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="204" eb="205">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会議に出ていなくても、チャットをしていなくても、サインインしている状態では、Teamsの画面を閉じていても、ネットワークに接続していれば、他の人には「連絡可能」な状態として見えています。Teamsの自分のアイコンをクリックして出るメニューからサインアウトすることができます。サインアウトすると通知アイコンも無くなり、チャットで話しかけられても何も通知されなくなります。ただし、Microsoftのサーバ側ではこの間に貴方に話しかけられたチャットが記録されており、再度サインインすると過去の未読のメッセージを読むことができます。</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
       <t>ツウチ</t>
     </rPh>
-    <rPh sb="18" eb="19">
+    <rPh sb="155" eb="156">
       <t>ナ</t>
     </rPh>
-    <rPh sb="28" eb="29">
+    <rPh sb="165" eb="166">
       <t>ハナシ</t>
     </rPh>
-    <rPh sb="36" eb="37">
+    <rPh sb="173" eb="174">
       <t>ナニ</t>
     </rPh>
-    <rPh sb="38" eb="40">
+    <rPh sb="175" eb="177">
       <t>ツウチ</t>
     </rPh>
-    <rPh sb="66" eb="67">
+    <rPh sb="203" eb="204">
       <t>ガワ</t>
     </rPh>
-    <rPh sb="71" eb="72">
+    <rPh sb="208" eb="209">
       <t>アイダ</t>
     </rPh>
-    <rPh sb="73" eb="75">
+    <rPh sb="210" eb="212">
       <t>アナタ</t>
     </rPh>
-    <rPh sb="76" eb="77">
+    <rPh sb="213" eb="214">
       <t>ハナ</t>
     </rPh>
-    <rPh sb="88" eb="90">
+    <rPh sb="225" eb="227">
       <t>キロク</t>
     </rPh>
-    <rPh sb="96" eb="98">
+    <rPh sb="233" eb="235">
       <t>サイド</t>
     </rPh>
-    <rPh sb="106" eb="108">
+    <rPh sb="243" eb="245">
       <t>カコ</t>
     </rPh>
-    <rPh sb="109" eb="111">
+    <rPh sb="246" eb="248">
       <t>ミドク</t>
     </rPh>
-    <rPh sb="118" eb="119">
+    <rPh sb="255" eb="256">
       <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウィンドウを閉じた後、通知領域のTeamsのアイコンを右クリックしたメニューからもサインアウトが可能です。</t>
-    <rPh sb="6" eb="7">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>リョウイキ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch7-teams-signout-from-indicator.png</t>
-  </si>
-  <si>
-    <t>ch7-teams-signout-from-mainmenu.png</t>
+    <t>このウィンドウを閉じても、裏でTeamsは動いており、chatなどのメッセージを受信しています。通知領域にTeamsのアイコンが出ています。このアイコンをクリックすればもう一度Teamsの画面が開かれます。</t>
+    <rPh sb="86" eb="88">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4578,7 +4635,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4676,7 +4733,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4700,7 +4757,7 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" t="s">
         <v>161</v>
@@ -4848,7 +4905,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4868,7 +4925,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4876,7 +4933,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
@@ -4890,13 +4947,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4904,7 +4961,7 @@
         <v>118</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4918,7 +4975,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4932,7 +4989,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4940,15 +4997,15 @@
         <v>197</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4962,7 +5019,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4976,7 +5033,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4990,7 +5047,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4998,7 +5055,7 @@
         <v>108</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5012,7 +5069,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5026,12 +5083,12 @@
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>126</v>
@@ -5042,7 +5099,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
@@ -5062,18 +5119,18 @@
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5342,12 +5399,12 @@
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5777,7 +5834,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5793,7 +5850,7 @@
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5897,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5956,7 +6013,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5964,7 +6021,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5975,7 +6032,7 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
         <v>135</v>
@@ -6006,7 +6063,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6014,13 +6071,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6063,7 +6120,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6628,8 +6685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6691,7 +6748,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6701,10 +6758,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>281</v>
-      </c>
-      <c r="D10" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6712,18 +6772,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>275</v>
-      </c>
-      <c r="D11" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6733,8 +6799,11 @@
       <c r="B13" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6744,16 +6813,22 @@
       <c r="B14" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6761,34 +6836,46 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
       <c r="D18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
         <v>287</v>
-      </c>
-      <c r="D19" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6796,10 +6883,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6807,20 +6897,29 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
+      </c>
+      <c r="C22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6828,37 +6927,49 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
         <v>294</v>
-      </c>
-      <c r="D24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D26" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6866,32 +6977,27 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
       </c>
       <c r="D28" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D29" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D30" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F28A59-6C1F-4B86-8BAE-EEAE3423D592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8669EC1D-C57D-40F1-BAE3-FF8E9D4EA758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="309">
   <si>
     <t>header1</t>
   </si>
@@ -6686,7 +6686,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6921,6 +6921,9 @@
       <c r="B23" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="C23" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8669EC1D-C57D-40F1-BAE3-FF8E9D4EA758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D803B3-1FF3-442B-9D38-C656A12B9663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="308">
   <si>
     <t>header1</t>
   </si>
@@ -2532,49 +2532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>このチャット機能は、同じチームに所属してない人とも使うことができます。ただし、広大アカウントを持っている人が対象です。相手のアカウントを教えてもらったら、「新しいチャット」で質問することができます。</t>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>オシ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Win10 conclusion</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3768,43 +3725,6 @@
     <t>ch7-teams-signout-from-mainmenu.png</t>
   </si>
   <si>
-    <t>チャネルの中では、基本的なコミュニケーション方法としてチャットが使われるようになっています。チームの中でチャットした場合には、同じチームに所属する皆さんに見えます。左側のメニューにある「チャット」は、貴方がチャットで入力したことがあるチャネルの一覧が出てくるので、「あるチャネルで会話している最中に、他のチャネルで自分の発言に返事があった」ということに気づくこともできます。基本的に授業関係のテキストチャットは自分の都合のよい時間に発言してよいのですが、返事もまた相手の都合のよい時間に返ってくるものなので、即答を求めないようにしましょう。</t>
-    <rPh sb="5" eb="6">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ミナ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>ヘンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch7-teams-selected-channel-chat.png</t>
   </si>
   <si>
@@ -4098,6 +4018,45 @@
     </rPh>
     <rPh sb="97" eb="98">
       <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャネルの中では、基本的なコミュニケーション方法としてチャットが使われるようになっています。チームの中でチャットした場合には、同じチームに所属する皆さんに見えます。左側のメニューにある「チャット」は、貴方がチャットで入力したことがあるチャネルの一覧が出てくるので、「あるチャネルで会話している最中に、他のチャネルで自分の発言に返事があった」ということに気づくこともできます。
+基本的に授業関係のテキストチャットは自分の都合のよい時間に発言してよいのですが、返事もまた相手の都合のよい時間に返ってくるものなので、即答を求めないようにしましょう。
+このチャット機能は、同じチームに所属してない人とも使うことができます。ただし、広大アカウントを持っている人が対象です。相手のアカウントを教えてもらったら、「新しいチャット」で質問することができます。</t>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ヘンジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4635,7 +4594,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4733,7 +4692,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4757,7 +4716,7 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" t="s">
         <v>161</v>
@@ -4905,7 +4864,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4925,7 +4884,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4933,7 +4892,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
@@ -4947,13 +4906,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4961,7 +4920,7 @@
         <v>118</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4975,7 +4934,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4989,7 +4948,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4997,15 +4956,15 @@
         <v>197</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5019,7 +4978,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5033,7 +4992,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -5047,7 +5006,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -5055,7 +5014,7 @@
         <v>108</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5069,7 +5028,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5083,12 +5042,12 @@
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>126</v>
@@ -5099,7 +5058,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
@@ -5119,18 +5078,18 @@
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5399,12 +5358,12 @@
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5834,7 +5793,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5850,7 +5809,7 @@
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5954,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6013,7 +5972,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6021,7 +5980,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6032,7 +5991,7 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D12" t="s">
         <v>135</v>
@@ -6063,7 +6022,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6071,13 +6030,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6683,10 +6642,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6748,7 +6707,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6758,13 +6717,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6772,13 +6731,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6789,7 +6748,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6803,7 +6762,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6817,18 +6776,18 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6836,24 +6795,24 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6864,18 +6823,18 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6883,13 +6842,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6897,54 +6856,57 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" t="s">
         <v>301</v>
       </c>
-      <c r="C22" t="s">
-        <v>303</v>
-      </c>
       <c r="D22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
       <c r="B25" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -6953,9 +6915,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -6964,9 +6926,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -6975,36 +6940,27 @@
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7058,8 +7014,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7067,35 +7023,30 @@
       <c r="A46" t="s">
         <v>4</v>
       </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="D50" ph="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D53" ph="1"/>
+    <row r="49" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D49" ph="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D52" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D803B3-1FF3-442B-9D38-C656A12B9663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B8A16F-9324-4EEC-B948-D47CA382399D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3921,94 +3921,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会議に出ていなくても、チャットをしていなくても、サインインしている状態では、Teamsの画面を閉じていても、ネットワークに接続していれば、他の人には「連絡可能」な状態として見えています。Teamsの自分のアイコンをクリックして出るメニューからサインアウトすることができます。サインアウトすると通知アイコンも無くなり、チャットで話しかけられても何も通知されなくなります。ただし、Microsoftのサーバ側ではこの間に貴方に話しかけられたチャットが記録されており、再度サインインすると過去の未読のメッセージを読むことができます。</t>
-    <rPh sb="0" eb="2">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>ハナシ</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="203" eb="204">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="208" eb="209">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="210" eb="212">
-      <t>アナタ</t>
-    </rPh>
-    <rPh sb="213" eb="214">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="243" eb="245">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>ミドク</t>
-    </rPh>
-    <rPh sb="255" eb="256">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このウィンドウを閉じても、裏でTeamsは動いており、chatなどのメッセージを受信しています。通知領域にTeamsのアイコンが出ています。このアイコンをクリックすればもう一度Teamsの画面が開かれます。</t>
     <rPh sb="86" eb="88">
       <t>イチド</t>
@@ -4057,6 +3969,91 @@
     </rPh>
     <rPh sb="163" eb="165">
       <t>ヘンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会議に出ていなくても、チャットをしていなくても、Teamsの画面を閉じていても、サインインしている状態では、ネットワークに接続していれば、他の人には「連絡可能」な状態として見えています。Teamsの自分のアイコンをクリックして出るメニューからサインアウトすることができます。サインアウトすると通知アイコンも無くなり、チャットで話しかけられても何も通知されなくなります。ただし、Microsoftのサーバ側ではこの間に貴方に話しかけられたチャットが記録されており、再度サインインすると過去の未読のメッセージを読むことができます。</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ハナシ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>アナタ</t>
+    </rPh>
+    <rPh sb="213" eb="214">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ミドク</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6644,8 +6641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6806,7 +6803,7 @@
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -6867,7 +6864,7 @@
     </row>
     <row r="22" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C22" t="s">
         <v>301</v>
@@ -6945,7 +6942,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B8A16F-9324-4EEC-B948-D47CA382399D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8954CB7E-C03B-48A4-942C-C91B91182518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -900,16 +900,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">以下のサイト「Office365 ProPlus Windows PC向け インストール手順」をブラウザで開き、説明に従ってください。
-開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
-&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2013Pro.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2013Pro.html&lt;/a&gt;
- </t>
-    <rPh sb="53" eb="54">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このページの説明をひととおり下まで読んでから、左側メニューの「各種ソフトウェアのダウンロード」をクリックします。</t>
     <rPh sb="6" eb="8">
       <t>セツメイ</t>
@@ -1146,40 +1136,6 @@
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必携PC使用時の問い合わせ窓口と、PC活用講習会（F3S講習会）を案内します。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒッケイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>マドグチ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カツヨウ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>コウシュウカイ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>コウシュウカイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>アンナイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2347,112 +2303,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オンライン授業のソフトウェアの確認</t>
-    <rPh sb="5" eb="7">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Win10 chap.7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広島大学でのオンライン授業(同時双方向のもの、また、チャットによる質問相談など)は、主にMicrosoft Teamsを使って行っています。この動作を確認しましょう。
-オンライン授業のソフトウェアとしては、Teamsの他にZoomや、YouTube Liveなどもあり、たとえばZoomで行われている授業をTeamsで受講する、といったことはできません。Teams以外を用いる授業の場合は、教員が先に説明する筈ですので、環境設定などは教員の指示を参考にしてください。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ソウホウコウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="144" eb="145">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>ジュコウ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="185" eb="186">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="188" eb="190">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="198" eb="199">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="204" eb="205">
-      <t>ハズ</t>
-    </rPh>
-    <rPh sb="210" eb="212">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="217" eb="219">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>サンコウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4054,6 +3905,182 @@
     </rPh>
     <rPh sb="255" eb="256">
       <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Teamsの確認</t>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学でのオンライン授業(同時双方向のもの、また、チャットによる質問相談など)は、主にMicrosoft Teamsを使って行っています。この動作を確認しましょう。履修登録以前に実際に作業できることは限られていますので、必要に応じて参照してください。
+オンライン授業のソフトウェアとしては、Teamsの他にZoomや、YouTube Liveなどもあり、たとえばZoomで行われている授業をTeamsで受講する、といったことはできません。Teams以外を用いる授業の場合は、教員が先に説明する筈ですので、環境設定などは教員の指示を参考にしてください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ソウホウコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ジュコウ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="255" eb="257">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="263" eb="265">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="266" eb="268">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必携PC使用時の問い合わせ窓口を案内します。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>アンナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のサイト「Office365 ProPlus Windows PC向け インストール手順」をブラウザで開き、説明に従ってください。
+開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒に入手するパスワード）を入力してください。
+&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2013Pro.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2013Pro.html&lt;/a&gt;
+ URLにはOffice2013とありますが、解説されているのはOffice365 Pro Plusのインストール方法です。</t>
+    <rPh sb="53" eb="54">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="319" eb="321">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="353" eb="355">
+      <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4492,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4530,7 +4557,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4550,8 +4577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4564,10 +4591,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4591,7 +4618,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4615,7 +4642,7 @@
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4648,8 +4675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4665,7 +4692,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4673,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4689,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4697,7 +4724,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4713,10 +4740,10 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4729,13 +4756,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4743,29 +4770,29 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4792,7 +4819,7 @@
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
@@ -4829,7 +4856,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4853,7 +4880,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -4861,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4881,7 +4908,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4889,7 +4916,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
@@ -4903,13 +4930,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4917,7 +4944,7 @@
         <v>118</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4931,7 +4958,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4939,29 +4966,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4975,7 +5002,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4983,13 +5010,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4997,13 +5024,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -5011,7 +5038,7 @@
         <v>108</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5025,7 +5052,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5039,12 +5066,12 @@
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>126</v>
@@ -5055,7 +5082,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
@@ -5075,18 +5102,18 @@
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5131,7 +5158,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5163,7 +5190,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5355,12 +5382,12 @@
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5382,7 +5409,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -5438,7 +5465,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5533,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5557,7 +5584,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5665,7 +5692,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5679,7 +5706,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5707,7 +5734,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -5721,13 +5748,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5758,7 +5785,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5766,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5782,7 +5809,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5790,7 +5817,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5806,12 +5833,12 @@
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5819,7 +5846,7 @@
         <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5832,18 +5859,18 @@
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5857,7 +5884,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5885,7 +5912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -5902,7 +5929,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5910,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5926,7 +5953,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5934,7 +5961,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5950,7 +5977,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5958,7 +5985,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -5969,7 +5996,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5977,7 +6004,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5988,7 +6015,7 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D12" t="s">
         <v>135</v>
@@ -5999,7 +6026,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6019,7 +6046,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6027,13 +6054,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6055,7 +6082,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
@@ -6100,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6116,7 +6143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -6124,7 +6151,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6232,7 +6259,7 @@
         <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6282,7 +6309,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6357,7 +6384,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6460,7 +6487,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6474,13 +6501,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6488,13 +6515,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>204</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6502,13 +6529,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6516,13 +6543,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>199</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6530,21 +6557,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>200</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" t="s">
         <v>205</v>
-      </c>
-      <c r="D39" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -6641,8 +6668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6658,7 +6685,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6666,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6682,15 +6709,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6704,7 +6731,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6714,13 +6741,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6728,24 +6755,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6753,13 +6780,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6767,24 +6794,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6792,46 +6819,46 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6839,13 +6866,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6853,24 +6880,24 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C22" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6878,13 +6905,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6892,35 +6919,35 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6928,13 +6955,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6942,13 +6969,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10.xlsx
+++ b/win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8954CB7E-C03B-48A4-942C-C91B91182518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9960C9DF-375E-43C9-BFFE-9411280AC2BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1507,22 +1507,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>広島大学必携PC初期講習会（自習形式）</t>
-    <rPh sb="8" eb="10">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>コウシュウカイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケイシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">必携PC初期講習会（自習形式）では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。ここでおこなうことを以下にあげます。おおむね６０分程度かかると思います。頑張ってください。
   </t>
     <rPh sb="4" eb="6">
@@ -2042,20 +2026,6 @@
     </rPh>
     <rPh sb="130" eb="131">
       <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">最初に、目の前のPCがどんなものなのかを確認しましょう。PCの処理能力や容量の目安になるさまざまな要素を「スペック」と呼ぶことがあります。ここでは以下のスペックを確認しましょう。
-&lt;ol&gt;&lt;li&gt; OSのバージョン &lt;/li&gt;
-&lt;li&gt; メモリ容量（主記憶容量） &lt;/li&gt;
-&lt;li&gt; HDD/SDD容量（副記憶容量） &lt;/li&gt;
-&lt;li&gt; バッテリー駆動時間 &lt;/li&gt;
-&lt;/ol&gt;
-この章は広島大学の学生番号がわかる前に実施することができます。 
- </t>
-    <rPh sb="204" eb="206">
-      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2643,53 +2613,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この章では、Wi-Fiで広島大学の学内ネットワークに接続するための設定を行います。このテキストは自宅にネットワークがなく、大学にしかネットワークがない場合の順序で書いてあります。
-自宅などにインターネット接続環境がある場合は、「Windows10 + 自宅ネットワーク」のテキストを参照してください。</t>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガクナイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ジュンジョ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;p class="spl"&gt;※学生番号と、学生番号と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
     <rPh sb="16" eb="18">
       <t>ガクセイ</t>
@@ -4081,6 +4004,92 @@
     </rPh>
     <rPh sb="353" eb="355">
       <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学必携PC初期講習会（自宅ネットワークなし自習形式）</t>
+    <rPh sb="8" eb="10">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>コウシュウカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最初に、目の前のPCがどんなものなのかを確認しましょう。PCの処理能力や容量の目安になるさまざまな要素を「スペック」と呼ぶことがあります。ここでは以下のスペックを確認しましょう。
+&lt;ol&gt;&lt;li&gt; OSのバージョン &lt;/li&gt;
+&lt;li&gt; メモリ容量（主記憶容量） &lt;/li&gt;
+&lt;li&gt; HDD/SSD容量（副記憶容量） &lt;/li&gt;
+&lt;li&gt; バッテリー駆動時間 &lt;/li&gt;
+&lt;/ol&gt;
+この章は広島大学の学生番号がわかる前に実施することができます。 
+ </t>
+    <rPh sb="204" eb="206">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では、Wi-Fiで広島大学の学内ネットワークに接続するための設定を行います。このテキストは自宅にネットワークがなく、大学にしかネットワークがない場合の順序で書いてあります。
+自宅などにインターネット接続環境がある場合は、「自宅ネットワークでの自習形式」のテキストを参照してください。</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4503,7 +4512,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4519,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4557,7 +4566,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4577,7 +4586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
@@ -4594,7 +4603,7 @@
         <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4618,7 +4627,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4716,7 +4725,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4740,7 +4749,7 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
         <v>160</v>
@@ -4756,7 +4765,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4880,7 +4889,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -4888,7 +4897,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4908,7 +4917,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4916,7 +4925,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
@@ -4930,13 +4939,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4944,7 +4953,7 @@
         <v>118</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4958,7 +4967,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4966,29 +4975,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5002,7 +5011,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5010,13 +5019,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -5024,13 +5033,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -5038,7 +5047,7 @@
         <v>108</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.